--- a/excelFiles/inmates.xlsx
+++ b/excelFiles/inmates.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="408">
   <si>
     <t>ID</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Image URL</t>
   </si>
   <si>
-    <t>2025-05-21 22:04:12</t>
+    <t>2025-05-22 01:55:27</t>
   </si>
   <si>
     <t>AMERICAN HORSE, EMANUAL JAMES</t>
@@ -40,7 +40,7 @@
     <t>05/13/2025</t>
   </si>
   <si>
-    <t>Charge: 218 - Elder Abuse / Dependent Adult Abuse; Arrest Date 05/13/2025; Bond - Cash Bond, $250.00; Set By Judge Little Hawk;; Charge: 538 - Sale and Possession of an Alcoholic Beverage; Arrest Date 05/13/2025; Bond - Cash Bond, $250.00; Set By Judge Little Hawk;</t>
+    <t>Charge: 218 - Elder Abuse / Dependent Adult Abuse; Arrest Date 05/13/2025; Bond - Cash Bond, $250.00; Set By Judge Little Hawk;&lt;br /&gt;Charge: 538 - Sale and Possession of an Alcoholic Beverage; Arrest Date 05/13/2025; Bond - Cash Bond, $250.00; Set By Judge Little Hawk;</t>
   </si>
   <si>
     <t>http://localhost:3000/bucket/1.png</t>
@@ -64,7 +64,7 @@
     <t/>
   </si>
   <si>
-    <t>Court Order for Oglala Sioux Tribal Court; Bond - PAY OR SERVE FINE, $125.00; Set By Judge Bear Runner;; Court Order for Oglala Sioux Tribal Court; Bond - PAY OR SERVE FINE, $50.00; Set By Judge Bear Runner;; Court Order for Oglala Sioux Tribal Court; Bond - NO BOND HOLD; Set By Judge Bear Runner;</t>
+    <t>Court Order for Oglala Sioux Tribal Court; Bond - PAY OR SERVE FINE, $125.00; Set By Judge Bear Runner;&lt;br /&gt;Court Order for Oglala Sioux Tribal Court; Bond - PAY OR SERVE FINE, $50.00; Set By Judge Bear Runner;&lt;br /&gt;Court Order for Oglala Sioux Tribal Court; Bond - NO BOND HOLD; Set By Judge Bear Runner;</t>
   </si>
   <si>
     <t>http://localhost:3000/bucket/3.png</t>
@@ -88,7 +88,7 @@
     <t>05/18/2025</t>
   </si>
   <si>
-    <t>Charge: 415 - Violence to Police Officers, IHS and BIA security guards and OST Parks and recreation Authority Rangers and Judges; Arrest Date 05/18/2025; Bond - NON - BONDABLE; Set By Tribal Bond Schedule;; Charge: 503 - Disorderly Conduct; Arrest Date 05/18/2025; Bond - $0.00;; Charge: 538 - Sale and Possession of an Alcoholic Beverage; Arrest Date 05/18/2025; Bond - $0.00;; Charge: 430 - Resisting Lawful Arrest; Arrest Date 05/18/2025; Bond - $0.00;</t>
+    <t>Charge: 415 - Violence to Police Officers, IHS and BIA security guards and OST Parks and recreation Authority Rangers and Judges; Arrest Date 05/18/2025; Bond - NON - BONDABLE; Set By Tribal Bond Schedule;&lt;br /&gt;Charge: 503 - Disorderly Conduct; Arrest Date 05/18/2025; Bond - $0.00;&lt;br /&gt;Charge: 538 - Sale and Possession of an Alcoholic Beverage; Arrest Date 05/18/2025; Bond - $0.00;&lt;br /&gt;Charge: 430 - Resisting Lawful Arrest; Arrest Date 05/18/2025; Bond - $0.00;</t>
   </si>
   <si>
     <t>http://localhost:3000/bucket/5.png</t>
@@ -112,7 +112,7 @@
     <t>03/04/2025</t>
   </si>
   <si>
-    <t>Warrant: Bench warrant CR-24-0351; Arrest Date 03/04/2025; Bond - DETAINMENT ORDER; Set By Judge Little Hawk;; Intoxication: 03-01 - Intoxication/Protective Custody; Arrest Date 03/04/2025;</t>
+    <t>Warrant: Bench warrant CR-24-0351; Arrest Date 03/04/2025; Bond - DETAINMENT ORDER; Set By Judge Little Hawk;&lt;br /&gt;Intoxication: 03-01 - Intoxication/Protective Custody; Arrest Date 03/04/2025;</t>
   </si>
   <si>
     <t>http://localhost:3000/bucket/7.png</t>
@@ -136,7 +136,7 @@
     <t>05/20/2025</t>
   </si>
   <si>
-    <t>Charge: 508 - Aggravated Weapons Offense; Arrest Date 05/20/2025; Bond - NON - BONDABLE, $0.00; Set By Tribal Bond Schedule;; Warrant: Failure to Appear warrant CR-24-1686 issued by Oglala Lakota, SD; Arrest Date 05/20/2025; Bond - NON - BONDABLE; Set By Warrant;</t>
+    <t>Charge: 508 - Aggravated Weapons Offense; Arrest Date 05/20/2025; Bond - NON - BONDABLE, $0.00; Set By Tribal Bond Schedule;&lt;br /&gt;Warrant: Failure to Appear warrant CR-24-1686 issued by Oglala Lakota, SD; Arrest Date 05/20/2025; Bond - NON - BONDABLE; Set By Warrant;</t>
   </si>
   <si>
     <t>http://localhost:3000/bucket/9.png</t>
@@ -148,7 +148,7 @@
     <t>05/08/2025</t>
   </si>
   <si>
-    <t>Charge: 538 - Sale and Possession of an Alcoholic Beverage; Arrest Date 05/08/2025; Bond - Cash Bond, $125.00; Set By Judge Bordeaux;; Charge: 430 - Resisting Lawful Arrest; Arrest Date 05/08/2025; Bond - Cash Bond, $125.00; Set By Judge Bordeaux;; Charge: 503 - Disorderly Conduct; Arrest Date 05/08/2025; Bond - $0.00;</t>
+    <t>Charge: 538 - Sale and Possession of an Alcoholic Beverage; Arrest Date 05/08/2025; Bond - Cash Bond, $125.00; Set By Judge Bordeaux;&lt;br /&gt;Charge: 430 - Resisting Lawful Arrest; Arrest Date 05/08/2025; Bond - Cash Bond, $125.00; Set By Judge Bordeaux;&lt;br /&gt;Charge: 503 - Disorderly Conduct; Arrest Date 05/08/2025; Bond - $0.00;</t>
   </si>
   <si>
     <t>http://localhost:3000/bucket/10.png</t>
@@ -184,7 +184,7 @@
     <t>04/17/2025</t>
   </si>
   <si>
-    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 04/17/2025; Bond - NO BOND HOLD;; Court Order for Oglala Sioux Tribal Court; Arrest Date 04/17/2025; Bond - NO BOND HOLD;; Court Order for Oglala Sioux Tribal Court; Arrest Date 04/17/2025; Bond - NO BOND HOLD;; Court Order for Oglala Sioux Tribal Court; Arrest Date 04/17/2025; Bond - NO BOND HOLD;; Court Order for Oglala Sioux Tribal Court; Arrest Date 04/17/2025; Bond - NO BOND HOLD;</t>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 04/17/2025; Bond - NO BOND HOLD;&lt;br /&gt;Court Order for Oglala Sioux Tribal Court; Arrest Date 04/17/2025; Bond - NO BOND HOLD;&lt;br /&gt;Court Order for Oglala Sioux Tribal Court; Arrest Date 04/17/2025; Bond - NO BOND HOLD;&lt;br /&gt;Court Order for Oglala Sioux Tribal Court; Arrest Date 04/17/2025; Bond - NO BOND HOLD;&lt;br /&gt;Court Order for Oglala Sioux Tribal Court; Arrest Date 04/17/2025; Bond - NO BOND HOLD;</t>
   </si>
   <si>
     <t>http://localhost:3000/bucket/13.png</t>
@@ -196,7 +196,7 @@
     <t>05/14/2025</t>
   </si>
   <si>
-    <t>Charge: 503 - Disorderly Conduct; Arrest Date 05/14/2025; Bond - Cash Bond, $0.00; Set By Judge Little Hawk;; Charge: 507 - Weapons Offense; Arrest Date 05/14/2025; Bond - Cash Bond, $0.00; Set By Judge Little Hawk;; Charge: 433 - Failure to Obey a Lawful Order of the Court; Arrest Date 05/14/2025; Bond - Cash Bond, $100.00; Set By Judge Little Hawk;</t>
+    <t>Charge: 503 - Disorderly Conduct; Arrest Date 05/14/2025; Bond - Cash Bond, $0.00; Set By Judge Little Hawk;&lt;br /&gt;Charge: 507 - Weapons Offense; Arrest Date 05/14/2025; Bond - Cash Bond, $0.00; Set By Judge Little Hawk;&lt;br /&gt;Charge: 433 - Failure to Obey a Lawful Order of the Court; Arrest Date 05/14/2025; Bond - Cash Bond, $100.00; Set By Judge Little Hawk;</t>
   </si>
   <si>
     <t>BULL BEAR/FEATHERMAN, TAIRA MICHAELA</t>
@@ -226,7 +226,7 @@
     <t>10/20/2024</t>
   </si>
   <si>
-    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 10/20/2024; Bond - Cash Bond, $500.00; Set By Judge Bear Runner;; Court Order for Oglala Sioux Tribal Court; Arrest Date 10/10/2024; Bond - Cash Bond, $5000.00; Set By Judge Bear Runner;; Warrant: Arrest warrant CR-25-0408 issued by Oglala Lakota, SD; Arrest Date 04/17/2025; Bond - NON - BONDABLE; Set By Warrant;; Warrant: Arrest warrant CR-24-1415 issued by Oglala Lakota, SD; Arrest Date 10/20/2024; Bond - NO BOND HOLD, $0.00; Set By Judge Little Hawk;; Court Order for Oglala Sioux Tribal Court; Arrest Date 10/10/2024; Bond - NO BOND HOLD; Set By Judge Bear Runner;; Warrant: Arrest warrant CR-24-1416 issued by Oglala Lakota, SD; Arrest Date 10/20/2024; Bond - NO BOND HOLD, $0.00; Set By Judge Little Hawk;</t>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 10/20/2024; Bond - Cash Bond, $500.00; Set By Judge Bear Runner;&lt;br /&gt;Court Order for Oglala Sioux Tribal Court; Arrest Date 10/10/2024; Bond - Cash Bond, $5000.00; Set By Judge Bear Runner;&lt;br /&gt;Warrant: Arrest warrant CR-25-0408 issued by Oglala Lakota, SD; Arrest Date 04/17/2025; Bond - NON - BONDABLE; Set By Warrant;&lt;br /&gt;Warrant: Arrest warrant CR-24-1415 issued by Oglala Lakota, SD; Arrest Date 10/20/2024; Bond - NO BOND HOLD, $0.00; Set By Judge Little Hawk;&lt;br /&gt;Court Order for Oglala Sioux Tribal Court; Arrest Date 10/10/2024; Bond - NO BOND HOLD; Set By Judge Bear Runner;&lt;br /&gt;Warrant: Arrest warrant CR-24-1416 issued by Oglala Lakota, SD; Arrest Date 10/20/2024; Bond - NO BOND HOLD, $0.00; Set By Judge Little Hawk;</t>
   </si>
   <si>
     <t>http://localhost:3000/bucket/17.png</t>
@@ -262,7 +262,7 @@
     <t>03/11/2025</t>
   </si>
   <si>
-    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 03/11/2025; Bond - Cash Bond, $1000.00; Set By Judge Bear Runner;; Court Order for Oglala Sioux Tribal Court; Arrest Date 03/18/2025; Bond - NON - BONDABLE, $0.00; Set By Judge Bear Runner;</t>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 03/11/2025; Bond - Cash Bond, $1000.00; Set By Judge Bear Runner;&lt;br /&gt;Court Order for Oglala Sioux Tribal Court; Arrest Date 03/18/2025; Bond - NON - BONDABLE, $0.00; Set By Judge Bear Runner;</t>
   </si>
   <si>
     <t>http://localhost:3000/bucket/20.png</t>
@@ -286,7 +286,7 @@
     <t>05/16/2025</t>
   </si>
   <si>
-    <t>Warrant: Bench warrant CR-25-0439 issued by Oglala Lakota, SD; Arrest Date 05/16/2025; Bond - Cash Bond, $150.00; Set By Judge Bear Runner;; Intoxication: 03-01 - Intoxication/Protective Custody; Arrest Date 05/16/2025;</t>
+    <t>Warrant: Bench warrant CR-25-0439 issued by Oglala Lakota, SD; Arrest Date 05/16/2025; Bond - Cash Bond, $150.00; Set By Judge Bear Runner;&lt;br /&gt;Intoxication: 03-01 - Intoxication/Protective Custody; Arrest Date 05/16/2025;</t>
   </si>
   <si>
     <t>http://localhost:3000/bucket/22.png</t>
@@ -322,7 +322,7 @@
     <t>12/27/2023</t>
   </si>
   <si>
-    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 12/27/2023; Bond - Detainment Order, $0.00; Set By Judge Bear Runner;; Court Order for Oglala Sioux Tribal Court; Arrest Date 01/02/2024; Bond - Detainment Order, $0.00; Set By Judge Bear Runner;</t>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 12/27/2023; Bond - Detainment Order, $0.00; Set By Judge Bear Runner;&lt;br /&gt;Court Order for Oglala Sioux Tribal Court; Arrest Date 01/02/2024; Bond - Detainment Order, $0.00; Set By Judge Bear Runner;</t>
   </si>
   <si>
     <t>http://localhost:3000/bucket/25.png</t>
@@ -334,7 +334,7 @@
     <t>05/09/2025</t>
   </si>
   <si>
-    <t>Warrant: Failure to Appear warrant CR-24-0231/0371  issued by Oglala Lakota, SD; Arrest Date 05/09/2025; Bond - Cash Bond, $500.00; Set By Judge Bordeaux;; Charge: 538 - Sale and Possession of an Alcoholic Beverage; Arrest Date 05/09/2025; Bond - $0.00;</t>
+    <t>Warrant: Failure to Appear warrant CR-24-0231/0371  issued by Oglala Lakota, SD; Arrest Date 05/09/2025; Bond - Cash Bond, $500.00; Set By Judge Bordeaux;&lt;br /&gt;Charge: 538 - Sale and Possession of an Alcoholic Beverage; Arrest Date 05/09/2025; Bond - $0.00;</t>
   </si>
   <si>
     <t>http://localhost:3000/bucket/26.png</t>
@@ -346,7 +346,7 @@
     <t>04/22/2025</t>
   </si>
   <si>
-    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 04/22/2025; Bond - Cash Bond, $550.00; Set By Judge Bear Runner;; Order of Commitment: Serving 183 days - Concurrent; Arrest Date 04/22/2025;</t>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 04/22/2025; Bond - Cash Bond, $550.00; Set By Judge Bear Runner;&lt;br /&gt;Order of Commitment: Serving 183 days - Concurrent; Arrest Date 04/22/2025;</t>
   </si>
   <si>
     <t>http://localhost:3000/bucket/27.png</t>
@@ -364,7 +364,7 @@
     <t>12/13/2024</t>
   </si>
   <si>
-    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 12/13/2024; Bond - Cash Bail Bond, $300.00; Set By Judge Little Hawk;; Federal Warrant: Federal warrant 5:20CR50126-1 issued by Oglala Lakota, SD; Arrest Date 09/01/2024; Bond - NON - BONDABLE; Set By Warrant;; Court Order for Oglala Sioux Tribal Court; Arrest Date 09/01/2024; Bond - NO BOND HOLD; Set By Judge Little Hawk;; Court Order for Oglala Sioux Tribal Court; Arrest Date 09/01/2024; Bond - NO BOND HOLD; Set By Judge Little Hawk;</t>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 12/13/2024; Bond - Cash Bail Bond, $300.00; Set By Judge Little Hawk;&lt;br /&gt;Federal Warrant: Federal warrant 5:20CR50126-1 issued by Oglala Lakota, SD; Arrest Date 09/01/2024; Bond - NON - BONDABLE; Set By Warrant;&lt;br /&gt;Court Order for Oglala Sioux Tribal Court; Arrest Date 09/01/2024; Bond - NO BOND HOLD; Set By Judge Little Hawk;&lt;br /&gt;Court Order for Oglala Sioux Tribal Court; Arrest Date 09/01/2024; Bond - NO BOND HOLD; Set By Judge Little Hawk;</t>
   </si>
   <si>
     <t>http://localhost:3000/bucket/29.png</t>
@@ -385,7 +385,7 @@
     <t>03/31/2025</t>
   </si>
   <si>
-    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 03/31/2025; Bond - Cash Bond, $500.00; Set By Judge Bear Runner;; Court Order for Oglala Sioux Tribal Court; Arrest Date 03/31/2025; Bond - NO BOND HOLD; Set By Judge Little Hawk;</t>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 03/31/2025; Bond - Cash Bond, $500.00; Set By Judge Bear Runner;&lt;br /&gt;Court Order for Oglala Sioux Tribal Court; Arrest Date 03/31/2025; Bond - NO BOND HOLD; Set By Judge Little Hawk;</t>
   </si>
   <si>
     <t>http://localhost:3000/bucket/31.png</t>
@@ -418,7 +418,7 @@
     <t>HOLLOW HORN, CHAYTON ISNALA HOKSICA</t>
   </si>
   <si>
-    <t>Order of Commitment: Serving 57 days - Concurrent; Arrest Date 04/13/2025; Bond - NON - BONDABLE; Set By Judge Bear Runner;; Court Order for Oglala Sioux Tribal Court; Arrest Date 04/12/2025; Bond - NO BOND HOLD; Set By Judge Little Hawk;</t>
+    <t>Order of Commitment: Serving 57 days - Concurrent; Arrest Date 04/13/2025; Bond - NON - BONDABLE; Set By Judge Bear Runner;&lt;br /&gt;Court Order for Oglala Sioux Tribal Court; Arrest Date 04/12/2025; Bond - NO BOND HOLD; Set By Judge Little Hawk;</t>
   </si>
   <si>
     <t>http://localhost:3000/bucket/34.png</t>
@@ -430,7 +430,7 @@
     <t>05/19/2025</t>
   </si>
   <si>
-    <t>Charge: 209 - Child Endangerment in the First Degree - 3 Counts; Arrest Date 05/19/2025; Bond - NON - BONDABLE, $0.00; Set By Tribal Bond Schedule;; Charge: 538 - Sale and Possession of an Alcoholic Beverage; Arrest Date 05/19/2025; Bond - $0.00;; Charge: 503 - Disorderly Conduct; Arrest Date 05/19/2025; Bond - $0.00;; Charge: 218 - Elder Abuse / Dependent Adult Abuse; Arrest Date 05/19/2025;</t>
+    <t>Charge: 209 - Child Endangerment in the First Degree - 3 Counts; Arrest Date 05/19/2025; Bond - NON - BONDABLE, $0.00; Set By Tribal Bond Schedule;&lt;br /&gt;Charge: 538 - Sale and Possession of an Alcoholic Beverage; Arrest Date 05/19/2025; Bond - $0.00;&lt;br /&gt;Charge: 503 - Disorderly Conduct; Arrest Date 05/19/2025; Bond - $0.00;&lt;br /&gt;Charge: 218 - Elder Abuse / Dependent Adult Abuse; Arrest Date 05/19/2025;</t>
   </si>
   <si>
     <t>http://localhost:3000/bucket/35.png</t>
@@ -466,7 +466,7 @@
     <t>05/04/2025</t>
   </si>
   <si>
-    <t>Charge: 538 - Sale and Possession of an Alcoholic Beverage; Arrest Date 05/04/2025; Bond - Cash Bail Bond, $50.00; Set By Tribal Bond Schedule;; Charge: 802 - Domestic Violence / Abuse; Arrest Date 05/04/2025; Bond - Cash Bond, $500.00; Set By Judge Yellow Hawk;; Warrant: Pickup Orders warrant CIV-25-2211 issued by Oglala Lakota, SD; Arrest Date 05/04/2025; Bond - NON - BONDABLE; Set By Warrant;; Warrant: Involuntary Commitment Hold warrant CIV-25-2186 issued by Oglala Lakota, SD; Arrest Date 05/04/2025; Bond - TEMPORARY COMMITMENT ORDER; Set By Warrant;</t>
+    <t>Charge: 538 - Sale and Possession of an Alcoholic Beverage; Arrest Date 05/04/2025; Bond - Cash Bail Bond, $50.00; Set By Tribal Bond Schedule;&lt;br /&gt;Charge: 802 - Domestic Violence / Abuse; Arrest Date 05/04/2025; Bond - Cash Bond, $500.00; Set By Judge Yellow Hawk;&lt;br /&gt;Warrant: Pickup Orders warrant CIV-25-2211 issued by Oglala Lakota, SD; Arrest Date 05/04/2025; Bond - NON - BONDABLE; Set By Warrant;&lt;br /&gt;Warrant: Involuntary Commitment Hold warrant CIV-25-2186 issued by Oglala Lakota, SD; Arrest Date 05/04/2025; Bond - TEMPORARY COMMITMENT ORDER; Set By Warrant;</t>
   </si>
   <si>
     <t>http://localhost:3000/bucket/38.png</t>
@@ -478,7 +478,7 @@
     <t>02/13/2025</t>
   </si>
   <si>
-    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 02/13/2025; Bond - Cash Bond, $500.00; Set By Judge Bear Runner;; Order of Commitment: Serving 365 days - Concurrent; Arrest Date 02/13/2025;</t>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 02/13/2025; Bond - Cash Bond, $500.00; Set By Judge Bear Runner;&lt;br /&gt;Order of Commitment: Serving 365 days - Concurrent; Arrest Date 02/13/2025;</t>
   </si>
   <si>
     <t>http://localhost:3000/bucket/39.png</t>
@@ -538,7 +538,7 @@
     <t>02/16/2025</t>
   </si>
   <si>
-    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 02/16/2025; Bond - Cash Bond, $1000.00; Set By Judge Little Hawk;; Order of Commitment: Serving 375 days - Concurrent; Arrest Date 02/16/2025; Bond - NON - BONDABLE; Set By Judge Little Hawk;</t>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 02/16/2025; Bond - Cash Bond, $1000.00; Set By Judge Little Hawk;&lt;br /&gt;Order of Commitment: Serving 375 days - Concurrent; Arrest Date 02/16/2025; Bond - NON - BONDABLE; Set By Judge Little Hawk;</t>
   </si>
   <si>
     <t>http://localhost:3000/bucket/44.png</t>
@@ -571,7 +571,7 @@
     <t>11/02/2024</t>
   </si>
   <si>
-    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 11/02/2024; Bond - PAY OR SERVE FINE, $570.00; Set By Judge Bear Runner;; Court Order for Oglala Sioux Tribal Court; Arrest Date 09/09/2024; Bond - Temporary Commitment Order; Set By Judge Youpee;; Order of Commitment: Serving 365 days - Concurrent; Arrest Date 09/09/2024; Bond - Detainment Order; Set By Judge Little Hawk;</t>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 11/02/2024; Bond - PAY OR SERVE FINE, $570.00; Set By Judge Bear Runner;&lt;br /&gt;Court Order for Oglala Sioux Tribal Court; Arrest Date 09/09/2024; Bond - Temporary Commitment Order; Set By Judge Youpee;&lt;br /&gt;Order of Commitment: Serving 365 days - Concurrent; Arrest Date 09/09/2024; Bond - Detainment Order; Set By Judge Little Hawk;</t>
   </si>
   <si>
     <t>http://localhost:3000/bucket/47.png</t>
@@ -595,7 +595,7 @@
     <t>03/26/2025</t>
   </si>
   <si>
-    <t>Charge: 503 - Disorderly Conduct; Arrest Date 03/26/2025; Bond - Cash Bail Bond, $50.00; Set By Tribal Bond Schedule;; Charge: 504 - Harassment; Arrest Date 03/26/2025; Bond - NON - BONDABLE, $0.00; Set By Tribal Bond Schedule;; Charge: 430 - Resisting Lawful Arrest; Arrest Date 03/26/2025; Bond - Cash Bond, $175.00; Set By Judge Bear Runner;; Charge: 218 - Elder Abuse / Dependent Adult Abuse; Arrest Date 03/26/2025; Bond - Cash Bond, $175.00; Set By Judge Bear Runner;</t>
+    <t>Charge: 503 - Disorderly Conduct; Arrest Date 03/26/2025; Bond - Cash Bail Bond, $50.00; Set By Tribal Bond Schedule;&lt;br /&gt;Charge: 504 - Harassment; Arrest Date 03/26/2025; Bond - NON - BONDABLE, $0.00; Set By Tribal Bond Schedule;&lt;br /&gt;Charge: 430 - Resisting Lawful Arrest; Arrest Date 03/26/2025; Bond - Cash Bond, $175.00; Set By Judge Bear Runner;&lt;br /&gt;Charge: 218 - Elder Abuse / Dependent Adult Abuse; Arrest Date 03/26/2025; Bond - Cash Bond, $175.00; Set By Judge Bear Runner;</t>
   </si>
   <si>
     <t>http://localhost:3000/bucket/49.png</t>
@@ -610,292 +610,631 @@
     <t>http://localhost:3000/bucket/50.png</t>
   </si>
   <si>
+    <t>LITTLE WHITEMAN, AUTUMN RAYNE</t>
+  </si>
+  <si>
+    <t>04/30/2025</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 04/30/2025; Bond - Cash Bond, $750.00; Set By Judge Yellow Hawk;&lt;br /&gt;Court Order for Oglala Sioux Tribal Court; Arrest Date 04/30/2025; Bond - NO BOND HOLD; Set By Tribal Bond Schedule;</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/bucket/51.png</t>
+  </si>
+  <si>
+    <t>LONG SOLDIER, DASHAWN LOUIS</t>
+  </si>
+  <si>
+    <t>12/03/2023</t>
+  </si>
+  <si>
+    <t>Order of Commitment: Serving 731 days - Concurrent; Arrest Date 12/03/2023; Bond - Detainment Order; Set By Judge Little Hawk;</t>
+  </si>
+  <si>
     <t>http://localhost:3000/bucket/52.png</t>
   </si>
   <si>
-    <t>http://localhost:3000/bucket/53.png</t>
+    <t>LONG WOLF, ARLYN GRANT</t>
+  </si>
+  <si>
+    <t>Warrant: Involuntary Commitment Hold warrant CIV-22-2537; Arrest Date 05/14/2025; Bond - Temporary Commitment Order; Set By Warrant;</t>
+  </si>
+  <si>
+    <t>MARTIN, DUANE ANTHONY JR.</t>
+  </si>
+  <si>
+    <t>Charge: 605 (a) - Driving While Intoxicated; Arrest Date 05/19/2025; Bond - NON - BONDABLE;&lt;br /&gt;Charge: 204 - Verbal or Written Assault; Arrest Date 05/19/2025; Bond - $0.00;&lt;br /&gt;Charge: 538 - Sale and Possession of an Alcoholic Beverage; Arrest Date 05/19/2025; Bond - $0.00;</t>
   </si>
   <si>
     <t>http://localhost:3000/bucket/54.png</t>
   </si>
   <si>
+    <t>MESTETH, COLE</t>
+  </si>
+  <si>
+    <t>05/17/2025</t>
+  </si>
+  <si>
+    <t>Charge: 605 (a) - Driving While Intoxicated; Arrest Date 05/17/2025; Bond - NON - BONDABLE; Set By Tribal Bond Schedule;&lt;br /&gt;Intoxication: 03-01 - Intoxication/Protective Custody; Arrest Date 05/17/2025;</t>
+  </si>
+  <si>
     <t>http://localhost:3000/bucket/55.png</t>
   </si>
   <si>
+    <t>MESTETH, LONNIE ANTHONY</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 05/04/2025; Bond - Cash Bond, $750.00; Set By Judge Bear Runner;</t>
+  </si>
+  <si>
     <t>http://localhost:3000/bucket/56.png</t>
   </si>
   <si>
+    <t>MINKEL, SHAYLA FAWN</t>
+  </si>
+  <si>
+    <t>Charge: 547 - Drug Paraphernalia; Arrest Date 05/20/2025; Bond - NON - BONDABLE; Set By Tribal Bond Schedule;&lt;br /&gt;Charge: 433 - Failure to Obey a Lawful Order of the Court; Arrest Date 05/20/2025; Bond - NON - BONDABLE; Set By Tribal Bond Schedule;&lt;br /&gt;Charge: 428 - Obstructing Justice; Arrest Date 05/20/2025; Bond - NON - BONDABLE; Set By Tribal Bond Schedule;&lt;br /&gt;Charge: 546 - Simple Possession and Ingestion; Arrest Date 05/20/2025; Bond - NON - BONDABLE; Set By Tribal Bond Schedule;</t>
+  </si>
+  <si>
     <t>http://localhost:3000/bucket/57.png</t>
   </si>
   <si>
-    <t>http://localhost:3000/bucket/58.png</t>
+    <t>MORGAN, JACOB</t>
+  </si>
+  <si>
+    <t>Warrant: Failure to Appear warrant CR-23-1655 issued by Oglala Lakota, SD; Arrest Date 05/20/2025; Bond - NON - BONDABLE; Set By Warrant;</t>
+  </si>
+  <si>
+    <t>MORGAN, RUNNING HORSE ALAN JR</t>
+  </si>
+  <si>
+    <t>Charge: 508 - Aggravated Weapons Offense; Arrest Date 05/20/2025; Bond - NON - BONDABLE; Set By Tribal Bond Schedule;</t>
   </si>
   <si>
     <t>http://localhost:3000/bucket/59.png</t>
   </si>
   <si>
+    <t>MORRISON, KALUP</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 05/08/2025; Bond - NO BOND HOLD; Set By Judge Bordeaux;</t>
+  </si>
+  <si>
     <t>http://localhost:3000/bucket/60.png</t>
   </si>
   <si>
+    <t>OLD HORSE, FLOYD DOMINGO</t>
+  </si>
+  <si>
+    <t>02/08/2025</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 02/08/2025; Bond - Detainment Order; Set By Judge Bear Runner;</t>
+  </si>
+  <si>
     <t>http://localhost:3000/bucket/61.png</t>
   </si>
   <si>
+    <t>OLD HORSE, JEREMY LEE</t>
+  </si>
+  <si>
+    <t>01/25/2025</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 01/25/2025; Bond - Cash Bond, $5000.00; Set By Judge Little Hawk;</t>
+  </si>
+  <si>
     <t>http://localhost:3000/bucket/62.png</t>
   </si>
   <si>
+    <t>OLD HORSE, ROBERT WAYNE</t>
+  </si>
+  <si>
+    <t>04/05/2025</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 04/05/2025; Bond - Cash Bond, $1500.00; Set By Judge Bear Runner;</t>
+  </si>
+  <si>
     <t>http://localhost:3000/bucket/63.png</t>
   </si>
   <si>
+    <t>PACKED, GEDDY LEE</t>
+  </si>
+  <si>
+    <t>Temporary Commitment Hold for Oglala Sioux Tribal Court; Arrest Date 05/03/2025; Bond - NO BOND HOLD; Set By Judge Yellow Hawk;</t>
+  </si>
+  <si>
     <t>http://localhost:3000/bucket/64.png</t>
   </si>
   <si>
+    <t>PAWNEE LEGGINGS, JOSEPH DAVID</t>
+  </si>
+  <si>
+    <t>05/15/2025</t>
+  </si>
+  <si>
+    <t>Warrant: Involuntary Commitment Hold warrant CIV-25-2187 issued by Oglala Lakota, SD; Arrest Date 05/15/2025; Bond - NON - BONDABLE; Set By Warrant;&lt;br /&gt;Intoxication: 03-01 - Intoxication/Protective Custody; Arrest Date 05/15/2025;</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/bucket/65.png</t>
+  </si>
+  <si>
+    <t>PELTIER, EDWARD JOHN</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 04/15/2025; Bond - NO BOND HOLD; Set By Judge Bear Runner;</t>
+  </si>
+  <si>
     <t>http://localhost:3000/bucket/66.png</t>
   </si>
   <si>
+    <t>PENDLETON, DENNIS WILLIAM</t>
+  </si>
+  <si>
+    <t>Charge: 547 - Drug Paraphernalia; Arrest Date 05/20/2025; Bond - NON - BONDABLE; Set By Tribal Bond Schedule;&lt;br /&gt;Charge: 428 - Obstructing Justice; Arrest Date 05/20/2025; Bond - NON - BONDABLE; Set By Tribal Bond Schedule;&lt;br /&gt;Charge: 546 - Simple Possession and Ingestion; Arrest Date 05/20/2025; Bond - NON - BONDABLE; Set By Tribal Bond Schedule;&lt;br /&gt;Charge: 433 - Failure to Obey a Lawful Order of the Court; Arrest Date 05/20/2025; Bond - $0.00; Set By Tribal Bond Schedule;</t>
+  </si>
+  <si>
     <t>http://localhost:3000/bucket/67.png</t>
   </si>
   <si>
+    <t>PIPE ON HEAD, BRANDON JAMES</t>
+  </si>
+  <si>
+    <t>04/24/2025</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 04/24/2025; Bond - Cash Bond, $2000.00; Set By Judge Bear Runner;</t>
+  </si>
+  <si>
     <t>http://localhost:3000/bucket/68.png</t>
   </si>
   <si>
+    <t>PLENTY ARROWS, SAMUEL LUCAS</t>
+  </si>
+  <si>
+    <t>Charge: 802 - Domestic Violence / Abuse; Arrest Date 05/10/2025; Bond - Cash Bond, $500.00; Set By Judge Yellow Hawk;&lt;br /&gt;Charge: 538 - Sale and Possession of an Alcoholic Beverage; Arrest Date 05/10/2025; Bond - Cash Bond; Set By Judge Yellow Hawk;&lt;br /&gt;Warrant: Bench warrant CRI-23-0690K issued by Oglala Lakota, SD; Arrest Date 05/10/2025; Bond - NON - BONDABLE; Set By Warrant;&lt;br /&gt;Warrant: Bench warrant CRI-23-0650K issued by Oglala Lakota, SD; Arrest Date 05/10/2025; Bond - NON - BONDABLE; Set By Warrant;</t>
+  </si>
+  <si>
     <t>http://localhost:3000/bucket/69.png</t>
   </si>
   <si>
+    <t>POOR BEAR/RUNNING SHIELD, TYGER JAMES</t>
+  </si>
+  <si>
+    <t>Warrant: Failure to Appear warrant CR-24-0412 issued by Oglala Lakota, SD; Arrest Date 05/08/2025; Bond - Cash Bond, $200.00; Set By Judge Bordeaux;&lt;br /&gt;Charge: 538 - Sale and Possession of an Alcoholic Beverage; Arrest Date 05/08/2025; Bond - $0.00;</t>
+  </si>
+  <si>
     <t>http://localhost:3000/bucket/70.png</t>
   </si>
   <si>
+    <t>POURIER, LOUIS WAYNE</t>
+  </si>
+  <si>
+    <t>04/29/2025</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 04/29/2025; Bond - Temporary Commitment Order; Set By Judge Bear Runner;&lt;br /&gt;Court Order for Oglala Sioux Tribal Court; Arrest Date 04/29/2025; Bond - NO BOND HOLD; Set By Judge Bear Runner;</t>
+  </si>
+  <si>
     <t>http://localhost:3000/bucket/71.png</t>
   </si>
   <si>
+    <t>PULLIAM, KELLY WADE</t>
+  </si>
+  <si>
+    <t>04/26/2025</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 04/26/2025; Bond - Cash Bond, $750.00; Set By Judge Bear Runner;</t>
+  </si>
+  <si>
     <t>http://localhost:3000/bucket/72.png</t>
   </si>
   <si>
+    <t>RED CLOUD, DONOVAN DWAYNE SR.</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 05/18/2025; Bond - Cash Bond, $2000.00; Set By Judge Bear Runner;</t>
+  </si>
+  <si>
     <t>http://localhost:3000/bucket/73.png</t>
   </si>
   <si>
+    <t>RED CLOUD, OHITIKA WAYNE</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 04/22/2025; Bond - NO BOND HOLD;&lt;br /&gt;Order of Commitment: Serving 30 days - Consecutive; Arrest Date 04/22/2025; Set By Judge Bear Runner;</t>
+  </si>
+  <si>
     <t>http://localhost:3000/bucket/74.png</t>
   </si>
   <si>
+    <t>RED CLOUD, TIMOTHY WAYNE</t>
+  </si>
+  <si>
+    <t>05/07/2025</t>
+  </si>
+  <si>
+    <t>Charge: 605 (a) - Driving While Intoxicated; Arrest Date 05/07/2025; Bond - Cash Bond, $375.00; Set By Judge Bear Runner;&lt;br /&gt;Charge: 538 - Sale and Possession of an Alcoholic Beverage; Arrest Date 05/07/2025; Bond - Cash Bond, $375.00; Set By Judge Bear Runner;&lt;br /&gt;Warrant: Traffic warrant TR-24-0859 issued by Oglala Lakota, SD; Arrest Date 05/07/2025; Bond - FINE PAY OR STAY, $25.00; Set By Warrant;</t>
+  </si>
+  <si>
     <t>http://localhost:3000/bucket/75.png</t>
   </si>
   <si>
-    <t>http://localhost:3000/bucket/76.png</t>
+    <t>RED CLOUD, TYRONE DARRELL</t>
+  </si>
+  <si>
+    <t>05/21/2025</t>
+  </si>
+  <si>
+    <t>Intoxication: 03-01 - Intoxication/Protective Custody; Arrest Date 05/21/2025;</t>
+  </si>
+  <si>
+    <t>RED NEST, MICHAEL</t>
+  </si>
+  <si>
+    <t>Charge: 538 - Sale and Possession of an Alcoholic Beverage; Arrest Date 05/18/2025; Bond - $0.00;&lt;br /&gt;Charge: 503 - Disorderly Conduct; Arrest Date 05/18/2025; Bond - $0.00;&lt;br /&gt;Charge: 218 - Elder Abuse / Dependent Adult Abuse; Arrest Date 05/18/2025;&lt;br /&gt;Charge: 430 - Resisting Lawful Arrest; Arrest Date 05/18/2025; Bond - $0.00;</t>
   </si>
   <si>
     <t>http://localhost:3000/bucket/77.png</t>
   </si>
   <si>
+    <t>RED SHIRT, ROBERT JAMES JR.</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribe Department of Public Safety; Bond - Cash Bond, $3000.00; Set By Judge Little Hawk;</t>
+  </si>
+  <si>
     <t>http://localhost:3000/bucket/78.png</t>
   </si>
   <si>
+    <t>RED WING, STORMY STAR</t>
+  </si>
+  <si>
+    <t>03/05/2025</t>
+  </si>
+  <si>
+    <t>Additional Hold for Oglala Sioux Tribal Court; Arrest Date 03/05/2025;</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/bucket/79.png</t>
+  </si>
+  <si>
+    <t>RICHARD, AUSTIN JAMES</t>
+  </si>
+  <si>
+    <t>Charge: 538 - Sale and Possession of an Alcoholic Beverage; Arrest Date 05/16/2025; Bond - Cash Bail Bond, $50.00; Set By Tribal Bond Schedule;&lt;br /&gt;Charge: 503 - Disorderly Conduct; Arrest Date 05/16/2025; Bond - Cash Bail Bond, $50.00;&lt;br /&gt;Charge: 636 - Eluding Police Vehicle; Arrest Date 05/16/2025; Bond - NON - BONDABLE; Set By Tribal Bond Schedule;&lt;br /&gt;Charge: 428 - Obstructing Justice; Arrest Date 05/16/2025; Bond - NON - BONDABLE; Set By Tribal Bond Schedule;&lt;br /&gt;Charge: 430 - Resisting Lawful Arrest; Arrest Date 05/16/2025; Bond - NON - BONDABLE; Set By Tribal Bond Schedule;</t>
+  </si>
+  <si>
     <t>http://localhost:3000/bucket/80.png</t>
   </si>
   <si>
+    <t>RICHARD, JONAS SAMUEL</t>
+  </si>
+  <si>
+    <t>Charge: 538 - Sale and Possession of an Alcoholic Beverage; Arrest Date 05/17/2025; Bond - $0.00;&lt;br /&gt;Charge: 503 - Disorderly Conduct; Arrest Date 05/17/2025; Bond - $0.00;&lt;br /&gt;Charge: 508 - Aggravated Weapons Offense; Arrest Date 05/17/2025; Bond - $0.00;&lt;br /&gt;Charge: 201 - Assault in the First Degree; Arrest Date 05/17/2025; Bond - $0.00;&lt;br /&gt;Charge: 210 - Child Endangerment in the Second Degree; Arrest Date 05/17/2025; Bond - $0.00;</t>
+  </si>
+  <si>
     <t>http://localhost:3000/bucket/81.png</t>
   </si>
   <si>
+    <t>RICHARDS, LARRY JOSEPH JR</t>
+  </si>
+  <si>
+    <t>01/27/2025</t>
+  </si>
+  <si>
+    <t>Federal Detainer: Arrest warrant  issued by Oglala Lakota, SD; Arrest Date 01/27/2025; Bond - Detainment Order;&lt;br /&gt;Order of Commitment: Serving 151 days - Concurrent; Arrest Date 01/27/2025;</t>
+  </si>
+  <si>
     <t>http://localhost:3000/bucket/82.png</t>
   </si>
   <si>
+    <t>RODRIGUEZ, MYRNA LOUISE</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 05/07/2025; Bond - NO BOND HOLD;</t>
+  </si>
+  <si>
     <t>http://localhost:3000/bucket/83.png</t>
   </si>
   <si>
+    <t>SIOUX BOB, MICHAEL JOSEPH</t>
+  </si>
+  <si>
+    <t>Charge: 605 (a) - Driving While Intoxicated; Arrest Date 05/19/2025; Bond - NON - BONDABLE; Set By Tribal Bond Schedule;&lt;br /&gt;Warrant: Bench warrant TECO-18-0005 issued by Oglala Lakota, SD; Arrest Date 05/19/2025; Bond - NON - BONDABLE; Set By Warrant;&lt;br /&gt;Charge: 538 - Sale and Possession of an Alcoholic Beverage; Arrest Date 05/19/2025; Bond - $0.00;</t>
+  </si>
+  <si>
     <t>http://localhost:3000/bucket/84.png</t>
   </si>
   <si>
+    <t>SLOW BEAR, MYRA JENA ROSE</t>
+  </si>
+  <si>
+    <t>03/28/2025</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 03/28/2025; Bond - Cash Bond, $3000.00; Set By Judge Little Hawk;</t>
+  </si>
+  <si>
     <t>http://localhost:3000/bucket/85.png</t>
   </si>
   <si>
+    <t>SPOTTED BEAR, THOMAS</t>
+  </si>
+  <si>
+    <t>Order of Commitment: Serving 183 days - Concurrent; Arrest Date 04/15/2025;</t>
+  </si>
+  <si>
     <t>http://localhost:3000/bucket/86.png</t>
   </si>
   <si>
+    <t>STANDING SOLDIER, DARRELYN</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 03/11/2025; Bond - Cash Bond, $1000.00; Set By Judge Little Hawk;</t>
+  </si>
+  <si>
     <t>http://localhost:3000/bucket/87.png</t>
   </si>
   <si>
+    <t>SUN BEAR-ROWLAND, ALLIE RAE</t>
+  </si>
+  <si>
+    <t>03/18/2025</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 03/18/2025; Bond - Cash Bond, $500.00; Set By Judge Bear Runner;</t>
+  </si>
+  <si>
     <t>http://localhost:3000/bucket/88.png</t>
   </si>
   <si>
+    <t>TAIL, ETHAN JEROME</t>
+  </si>
+  <si>
+    <t>04/19/2025</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 04/19/2025; Bond - Cash Bond, $750.00; Set By Judge Little Hawk;</t>
+  </si>
+  <si>
     <t>http://localhost:3000/bucket/89.png</t>
   </si>
   <si>
+    <t>TALLMAN, LONNIE CHARLES</t>
+  </si>
+  <si>
+    <t>10/29/2024</t>
+  </si>
+  <si>
+    <t>Order of Commitment: Serving 699 days - Concurrent; Arrest Date 10/29/2024; Set By Judge Little Hawk;</t>
+  </si>
+  <si>
     <t>http://localhost:3000/bucket/90.png</t>
   </si>
   <si>
+    <t>THUNDER BULL, WESLEY REED</t>
+  </si>
+  <si>
+    <t>03/10/2025</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 03/10/2025; Bond - NO BOND HOLD; Set By Judge Little Hawk;</t>
+  </si>
+  <si>
     <t>http://localhost:3000/bucket/91.png</t>
   </si>
   <si>
+    <t>THUNDER HAWK, TIMOTHY SEAN</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 05/16/2025; Bond - Cash Bond, $2000.00; Set By Judge Bear Runner;</t>
+  </si>
+  <si>
     <t>http://localhost:3000/bucket/92.png</t>
   </si>
   <si>
-    <t>http://localhost:3000/bucket/93.png</t>
+    <t>TITUS, FEATHER DAWN</t>
+  </si>
+  <si>
+    <t>TRAVERSIE, GAGE LAVITICUS</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 04/29/2025; Bond - Cash Bond, $3000.00; Set By Judge Yellow Hawk;&lt;br /&gt;Order of Commitment: Serving 30 days - Concurrent; Arrest Date 04/29/2025; Bond - NON - BONDABLE;</t>
   </si>
   <si>
     <t>http://localhost:3000/bucket/94.png</t>
   </si>
   <si>
+    <t>TRUEBLOOD, KIYA RAE</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 05/16/2025; Bond - Cash Bond, $2000.00; Set By Judge Little Hawk;</t>
+  </si>
+  <si>
     <t>http://localhost:3000/bucket/95.png</t>
   </si>
   <si>
+    <t>TWO BULLS - REEDS, DAWN ROSE</t>
+  </si>
+  <si>
+    <t>Order of Commitment: Serving 320 days - Concurrent; Arrest Date 05/01/2025; Bond - Detainment Order;</t>
+  </si>
+  <si>
     <t>http://localhost:3000/bucket/96.png</t>
   </si>
   <si>
+    <t>TWO CROW, GERALD THEODORE III</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 03/31/2025; Bond - Cash Bond, $1000.00; Set By Judge Yellow Hawk;</t>
+  </si>
+  <si>
     <t>http://localhost:3000/bucket/97.png</t>
   </si>
   <si>
+    <t>TWO DOGS, ROBERT LEE JR.</t>
+  </si>
+  <si>
+    <t>Charge: 605 (a) - Driving While Intoxicated; Arrest Date 05/19/2025; Bond - NON - BONDABLE; Set By Tribal Bond Schedule;&lt;br /&gt;Warrant: Bench warrant CR-25-0005 issued by Oglala Lakota, SD; Arrest Date 05/19/2025; Bond - NON - BONDABLE; Set By Warrant;</t>
+  </si>
+  <si>
     <t>http://localhost:3000/bucket/98.png</t>
   </si>
   <si>
+    <t>WALKING EAGLE, BRYAN LOUIS</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 05/06/2025; Bond - NO BOND HOLD; Set By Judge Bear Runner;</t>
+  </si>
+  <si>
     <t>http://localhost:3000/bucket/99.png</t>
   </si>
   <si>
+    <t>WATERS, ALAN SHELDON JR.</t>
+  </si>
+  <si>
+    <t>05/05/2025</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 05/05/2025; Bond - Cash Bond, $500.00; Set By Judge Little Hawk;</t>
+  </si>
+  <si>
     <t>http://localhost:3000/bucket/100.png</t>
   </si>
   <si>
+    <t>WATERS, CALVIN VERN</t>
+  </si>
+  <si>
+    <t>Order of Commitment: Serving 365 days - Concurrent; Arrest Date 04/19/2025; Bond - Detainment Order; Set By Judge Bordeaux;</t>
+  </si>
+  <si>
     <t>http://localhost:3000/bucket/101.png</t>
   </si>
   <si>
+    <t>WATERS, FREDRICK NORMAN</t>
+  </si>
+  <si>
+    <t>Order of Commitment: Serving 30 days - Concurrent; Arrest Date 05/04/2025; Bond - Temporary Commitment Order; Set By Judge Bear Runner;</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/bucket/102.png</t>
+  </si>
+  <si>
+    <t>WESTON, LACEY LYN</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 05/06/2025;</t>
+  </si>
+  <si>
     <t>http://localhost:3000/bucket/103.png</t>
   </si>
   <si>
+    <t>WHITE BULL, FERRIS LEROY JR.</t>
+  </si>
+  <si>
+    <t>03/29/2025</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 03/29/2025; Bond - Cash Bond, $750.00; Set By Judge Little Hawk;&lt;br /&gt;Court Order for Oglala Sioux Tribe Department of Public Safety; Arrest Date 03/29/2025; Bond - Cash Bond, $750.00; Set By Judge Little Hawk;</t>
+  </si>
+  <si>
     <t>http://localhost:3000/bucket/104.png</t>
   </si>
   <si>
+    <t>WHITE BUTTERFLY, DAJA</t>
+  </si>
+  <si>
+    <t>04/14/2025</t>
+  </si>
+  <si>
+    <t>Court Order for Adult Offenders Facility; Arrest Date 04/14/2025; Bond - Cash Bond, $1000.00; Set By Judge Bear Runner;&lt;br /&gt;Court Order for Oglala Sioux Tribal Court; Arrest Date 04/14/2025; Bond - NON - BONDABLE; Set By Judge Bear Runner;</t>
+  </si>
+  <si>
     <t>http://localhost:3000/bucket/105.png</t>
   </si>
   <si>
-    <t>http://localhost:3000/bucket/106.png</t>
+    <t>WHITE FACE, ALEXANDER CORNELIUS</t>
+  </si>
+  <si>
+    <t>Warrant: Bench warrant CR-24-0591 issued by Oglala Lakota, SD; Arrest Date 05/20/2025; Bond - NON - BONDABLE; Set By Warrant;&lt;br /&gt;Charge: 538 - Sale and Possession of an Alcoholic Beverage; Arrest Date 05/20/2025; Bond - $0.00;</t>
+  </si>
+  <si>
+    <t>WHITE FACE-KILLS ENEMY, MAKAYLA ROSE</t>
+  </si>
+  <si>
+    <t>Order of Commitment: Serving 184 days - Concurrent; Arrest Date 05/13/2025;</t>
   </si>
   <si>
     <t>http://localhost:3000/bucket/107.png</t>
   </si>
   <si>
+    <t>WHITE MAGPIE, MEGAN ELLEN</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 05/04/2024; Bond - Detainment Order, $0.00; Set By Judge Bear Runner;</t>
+  </si>
+  <si>
     <t>http://localhost:3000/bucket/108.png</t>
   </si>
   <si>
+    <t>WILSON, TIMMY LIEGH</t>
+  </si>
+  <si>
+    <t>01/16/2025</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 01/16/2025; Bond - NO BOND HOLD; Set By Judge Little Hawk;</t>
+  </si>
+  <si>
     <t>http://localhost:3000/bucket/109.png</t>
   </si>
   <si>
+    <t>WINTERS, LEO JOSEPH</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 10/29/2024; Bond - NON - BONDABLE; Set By Judge Bear Runner;</t>
+  </si>
+  <si>
     <t>http://localhost:3000/bucket/110.png</t>
   </si>
   <si>
+    <t>WOUNDED HEAD, CALEB JOHN</t>
+  </si>
+  <si>
+    <t>04/20/2025</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 04/20/2025; Bond - Cash Bond, $1000.00; Set By Judge Bear Runner;</t>
+  </si>
+  <si>
     <t>http://localhost:3000/bucket/111.png</t>
   </si>
   <si>
-    <t>http://localhost:3000/bucket/112.png</t>
+    <t>YELLOW BOY, DARRIN OLEN</t>
+  </si>
+  <si>
+    <t>Charge: 802 - Domestic Violence / Abuse; Arrest Date 05/21/2025; Bond - NON - BONDABLE; Set By Tribal Bond Schedule;&lt;br /&gt;Charge: 204 - Verbal or Written Assault; Arrest Date 05/21/2025; Bond - $0.00;&lt;br /&gt;Charge: 104 - Criminal Mischief; Arrest Date 05/21/2025; Bond - $0.00;</t>
+  </si>
+  <si>
+    <t>YELLOW BOY, SOPHIA LYNE</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 03/10/2025; Bond - Cash Bond, $1000.00; Set By Judge Little Hawk;&lt;br /&gt;Order of Commitment: Serving 92 days - Concurrent; Arrest Date 03/10/2025;</t>
   </si>
   <si>
     <t>http://localhost:3000/bucket/113.png</t>
   </si>
   <si>
-    <t>http://localhost:3000/bucket/114.png</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/115.png</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/117.png</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/118.png</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/119.png</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/120.png</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/121.png</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/122.png</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/123.png</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/124.png</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/125.png</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/126.png</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/127.png</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/128.png</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/129.png</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/131.png</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/132.png</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/133.png</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/134.png</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/135.png</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/136.png</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/137.png</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/138.png</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/139.png</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/140.png</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/141.png</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/142.png</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/143.png</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/144.png</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/145.png</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/146.png</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/147.png</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/148.png</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/149.png</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/150.png</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/151.png</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/152.png</t>
+    <t>YELLOW SHIELD, TREVOR EUGENE</t>
+  </si>
+  <si>
+    <t>Warrant: Bench warrant CR-24-1640 issued by Oglala Lakota, SD; Arrest Date 05/20/2025; Bond - NON - BONDABLE; Set By Judge Bear Runner;&lt;br /&gt;Charge: 538 - Sale and Possession of an Alcoholic Beverage; Arrest Date 05/20/2025; Bond - $0.00;&lt;br /&gt;Charge: 503 - Disorderly Conduct; Arrest Date 05/20/2025; Bond - $0.00;</t>
   </si>
 </sst>
 </file>
@@ -1277,7 +1616,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F151"/>
+  <dimension ref="A1:F115"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -2310,2002 +2649,1282 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>7</v>
+        <v>199</v>
       </c>
       <c r="D52" t="s">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="E52" t="s">
-        <v>9</v>
+        <v>201</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>11</v>
+        <v>203</v>
       </c>
       <c r="D53" t="s">
-        <v>12</v>
+        <v>204</v>
       </c>
       <c r="E53" t="s">
-        <v>13</v>
+        <v>205</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>15</v>
+        <v>207</v>
       </c>
       <c r="D54" t="s">
+        <v>60</v>
+      </c>
+      <c r="E54" t="s">
+        <v>208</v>
+      </c>
+      <c r="F54" t="s">
         <v>16</v>
-      </c>
-      <c r="E54" t="s">
-        <v>17</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>19</v>
+        <v>209</v>
       </c>
       <c r="D55" t="s">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="E55" t="s">
-        <v>21</v>
+        <v>210</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>23</v>
+        <v>212</v>
       </c>
       <c r="D56" t="s">
-        <v>24</v>
+        <v>213</v>
       </c>
       <c r="E56" t="s">
-        <v>25</v>
+        <v>214</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="D57" t="s">
-        <v>28</v>
+        <v>150</v>
       </c>
       <c r="E57" t="s">
-        <v>29</v>
+        <v>217</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>31</v>
+        <v>219</v>
       </c>
       <c r="D58" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E58" t="s">
-        <v>33</v>
+        <v>220</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>35</v>
+        <v>222</v>
       </c>
       <c r="D59" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E59" t="s">
-        <v>37</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>206</v>
+        <v>223</v>
+      </c>
+      <c r="F59" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>39</v>
+        <v>224</v>
       </c>
       <c r="D60" t="s">
         <v>40</v>
       </c>
       <c r="E60" t="s">
-        <v>41</v>
+        <v>225</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>6</v>
       </c>
       <c r="C61" t="s">
-        <v>43</v>
+        <v>227</v>
       </c>
       <c r="D61" t="s">
         <v>44</v>
       </c>
       <c r="E61" t="s">
-        <v>45</v>
+        <v>228</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="D62" t="s">
-        <v>48</v>
+        <v>231</v>
       </c>
       <c r="E62" t="s">
-        <v>49</v>
+        <v>232</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>51</v>
+        <v>234</v>
       </c>
       <c r="D63" t="s">
-        <v>52</v>
+        <v>235</v>
       </c>
       <c r="E63" t="s">
-        <v>53</v>
+        <v>236</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>55</v>
+        <v>238</v>
       </c>
       <c r="D64" t="s">
-        <v>56</v>
+        <v>239</v>
       </c>
       <c r="E64" t="s">
-        <v>57</v>
+        <v>240</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>59</v>
+        <v>242</v>
       </c>
       <c r="D65" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E65" t="s">
-        <v>61</v>
-      </c>
-      <c r="F65" t="s">
-        <v>16</v>
+        <v>243</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>6</v>
       </c>
       <c r="C66" t="s">
-        <v>62</v>
+        <v>245</v>
       </c>
       <c r="D66" t="s">
-        <v>63</v>
+        <v>246</v>
       </c>
       <c r="E66" t="s">
-        <v>64</v>
+        <v>247</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>66</v>
+        <v>249</v>
       </c>
       <c r="D67" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="E67" t="s">
-        <v>67</v>
+        <v>250</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>213</v>
+        <v>251</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
       </c>
       <c r="C68" t="s">
-        <v>69</v>
+        <v>252</v>
       </c>
       <c r="D68" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="E68" t="s">
-        <v>71</v>
+        <v>253</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>214</v>
+        <v>254</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>6</v>
       </c>
       <c r="C69" t="s">
-        <v>73</v>
+        <v>255</v>
       </c>
       <c r="D69" t="s">
-        <v>74</v>
+        <v>256</v>
       </c>
       <c r="E69" t="s">
-        <v>75</v>
+        <v>257</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>6</v>
       </c>
       <c r="C70" t="s">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="D70" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="E70" t="s">
-        <v>79</v>
+        <v>260</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>216</v>
+        <v>261</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>6</v>
       </c>
       <c r="C71" t="s">
-        <v>81</v>
+        <v>262</v>
       </c>
       <c r="D71" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="E71" t="s">
-        <v>83</v>
+        <v>263</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>217</v>
+        <v>264</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>6</v>
       </c>
       <c r="C72" t="s">
-        <v>85</v>
+        <v>265</v>
       </c>
       <c r="D72" t="s">
-        <v>86</v>
+        <v>266</v>
       </c>
       <c r="E72" t="s">
-        <v>87</v>
+        <v>267</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>218</v>
+        <v>268</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>89</v>
+        <v>269</v>
       </c>
       <c r="D73" t="s">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="E73" t="s">
-        <v>91</v>
+        <v>271</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>219</v>
+        <v>272</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>6</v>
       </c>
       <c r="C74" t="s">
-        <v>93</v>
+        <v>273</v>
       </c>
       <c r="D74" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="E74" t="s">
-        <v>95</v>
+        <v>274</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>220</v>
+        <v>275</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>6</v>
       </c>
       <c r="C75" t="s">
-        <v>97</v>
+        <v>276</v>
       </c>
       <c r="D75" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="E75" t="s">
-        <v>99</v>
+        <v>277</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>221</v>
+        <v>278</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>6</v>
       </c>
       <c r="C76" t="s">
-        <v>101</v>
+        <v>279</v>
       </c>
       <c r="D76" t="s">
-        <v>102</v>
+        <v>280</v>
       </c>
       <c r="E76" t="s">
-        <v>103</v>
+        <v>281</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>222</v>
+        <v>282</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>6</v>
       </c>
       <c r="C77" t="s">
-        <v>105</v>
+        <v>283</v>
       </c>
       <c r="D77" t="s">
-        <v>106</v>
+        <v>284</v>
       </c>
       <c r="E77" t="s">
-        <v>107</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>223</v>
+        <v>285</v>
+      </c>
+      <c r="F77" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>6</v>
       </c>
       <c r="C78" t="s">
-        <v>109</v>
+        <v>286</v>
       </c>
       <c r="D78" t="s">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="E78" t="s">
-        <v>111</v>
+        <v>287</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>224</v>
+        <v>288</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>6</v>
       </c>
       <c r="C79" t="s">
-        <v>113</v>
+        <v>289</v>
       </c>
       <c r="D79" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="E79" t="s">
-        <v>114</v>
-      </c>
-      <c r="F79" t="s">
-        <v>16</v>
+        <v>290</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>6</v>
       </c>
       <c r="C80" t="s">
-        <v>115</v>
+        <v>292</v>
       </c>
       <c r="D80" t="s">
-        <v>116</v>
+        <v>293</v>
       </c>
       <c r="E80" t="s">
-        <v>117</v>
+        <v>294</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>225</v>
+        <v>295</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>6</v>
       </c>
       <c r="C81" t="s">
-        <v>119</v>
+        <v>296</v>
       </c>
       <c r="D81" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E81" t="s">
-        <v>120</v>
+        <v>297</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>226</v>
+        <v>298</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>6</v>
       </c>
       <c r="C82" t="s">
-        <v>122</v>
+        <v>299</v>
       </c>
       <c r="D82" t="s">
-        <v>123</v>
+        <v>213</v>
       </c>
       <c r="E82" t="s">
-        <v>124</v>
+        <v>300</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>227</v>
+        <v>301</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>6</v>
       </c>
       <c r="C83" t="s">
-        <v>126</v>
+        <v>302</v>
       </c>
       <c r="D83" t="s">
-        <v>127</v>
+        <v>303</v>
       </c>
       <c r="E83" t="s">
-        <v>128</v>
+        <v>304</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>228</v>
+        <v>305</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>6</v>
       </c>
       <c r="C84" t="s">
-        <v>130</v>
+        <v>306</v>
       </c>
       <c r="D84" t="s">
-        <v>131</v>
+        <v>280</v>
       </c>
       <c r="E84" t="s">
-        <v>132</v>
+        <v>307</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>229</v>
+        <v>308</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>6</v>
       </c>
       <c r="C85" t="s">
-        <v>134</v>
+        <v>309</v>
       </c>
       <c r="D85" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="E85" t="s">
-        <v>135</v>
+        <v>310</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>230</v>
+        <v>311</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>6</v>
       </c>
       <c r="C86" t="s">
-        <v>137</v>
+        <v>312</v>
       </c>
       <c r="D86" t="s">
-        <v>138</v>
+        <v>313</v>
       </c>
       <c r="E86" t="s">
-        <v>139</v>
+        <v>314</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>231</v>
+        <v>315</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>6</v>
       </c>
       <c r="C87" t="s">
-        <v>141</v>
+        <v>316</v>
       </c>
       <c r="D87" t="s">
         <v>142</v>
       </c>
       <c r="E87" t="s">
-        <v>143</v>
+        <v>317</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>232</v>
+        <v>318</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>6</v>
       </c>
       <c r="C88" t="s">
-        <v>145</v>
+        <v>319</v>
       </c>
       <c r="D88" t="s">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="E88" t="s">
-        <v>147</v>
+        <v>320</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>233</v>
+        <v>321</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>6</v>
       </c>
       <c r="C89" t="s">
-        <v>149</v>
+        <v>322</v>
       </c>
       <c r="D89" t="s">
-        <v>150</v>
+        <v>323</v>
       </c>
       <c r="E89" t="s">
-        <v>151</v>
+        <v>324</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>234</v>
+        <v>325</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>6</v>
       </c>
       <c r="C90" t="s">
-        <v>153</v>
+        <v>326</v>
       </c>
       <c r="D90" t="s">
-        <v>154</v>
+        <v>327</v>
       </c>
       <c r="E90" t="s">
-        <v>155</v>
+        <v>328</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>235</v>
+        <v>329</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>6</v>
       </c>
       <c r="C91" t="s">
-        <v>157</v>
+        <v>330</v>
       </c>
       <c r="D91" t="s">
-        <v>158</v>
+        <v>331</v>
       </c>
       <c r="E91" t="s">
-        <v>159</v>
+        <v>332</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>236</v>
+        <v>333</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>6</v>
       </c>
       <c r="C92" t="s">
-        <v>161</v>
+        <v>334</v>
       </c>
       <c r="D92" t="s">
-        <v>162</v>
+        <v>335</v>
       </c>
       <c r="E92" t="s">
-        <v>163</v>
+        <v>336</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>237</v>
+        <v>337</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>6</v>
       </c>
       <c r="C93" t="s">
-        <v>165</v>
+        <v>338</v>
       </c>
       <c r="D93" t="s">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="E93" t="s">
-        <v>167</v>
+        <v>339</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>238</v>
+        <v>340</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>6</v>
       </c>
       <c r="C94" t="s">
-        <v>169</v>
+        <v>341</v>
       </c>
       <c r="D94" t="s">
-        <v>170</v>
+        <v>284</v>
       </c>
       <c r="E94" t="s">
-        <v>171</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>239</v>
+        <v>285</v>
+      </c>
+      <c r="F94" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>6</v>
       </c>
       <c r="C95" t="s">
-        <v>173</v>
+        <v>342</v>
       </c>
       <c r="D95" t="s">
-        <v>174</v>
+        <v>266</v>
       </c>
       <c r="E95" t="s">
-        <v>175</v>
+        <v>343</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>240</v>
+        <v>344</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
       </c>
       <c r="C96" t="s">
-        <v>177</v>
+        <v>345</v>
       </c>
       <c r="D96" t="s">
-        <v>178</v>
+        <v>90</v>
       </c>
       <c r="E96" t="s">
-        <v>179</v>
+        <v>346</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>241</v>
+        <v>347</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>6</v>
       </c>
       <c r="C97" t="s">
-        <v>181</v>
+        <v>348</v>
       </c>
       <c r="D97" t="s">
-        <v>20</v>
+        <v>162</v>
       </c>
       <c r="E97" t="s">
-        <v>182</v>
+        <v>349</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>242</v>
+        <v>350</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
       </c>
       <c r="C98" t="s">
-        <v>184</v>
+        <v>351</v>
       </c>
       <c r="D98" t="s">
-        <v>185</v>
+        <v>123</v>
       </c>
       <c r="E98" t="s">
-        <v>186</v>
+        <v>352</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>243</v>
+        <v>353</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
       </c>
       <c r="C99" t="s">
-        <v>188</v>
+        <v>354</v>
       </c>
       <c r="D99" t="s">
-        <v>189</v>
+        <v>138</v>
       </c>
       <c r="E99" t="s">
-        <v>190</v>
+        <v>355</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>244</v>
+        <v>356</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B100" t="s">
         <v>6</v>
       </c>
       <c r="C100" t="s">
-        <v>192</v>
+        <v>357</v>
       </c>
       <c r="D100" t="s">
-        <v>193</v>
+        <v>98</v>
       </c>
       <c r="E100" t="s">
-        <v>194</v>
+        <v>358</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>245</v>
+        <v>359</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B101" t="s">
         <v>6</v>
       </c>
       <c r="C101" t="s">
-        <v>196</v>
+        <v>360</v>
       </c>
       <c r="D101" t="s">
-        <v>16</v>
+        <v>361</v>
       </c>
       <c r="E101" t="s">
-        <v>197</v>
+        <v>362</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>246</v>
+        <v>363</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B102" t="s">
         <v>6</v>
       </c>
       <c r="C102" t="s">
-        <v>7</v>
+        <v>364</v>
       </c>
       <c r="D102" t="s">
-        <v>8</v>
+        <v>327</v>
       </c>
       <c r="E102" t="s">
-        <v>9</v>
+        <v>365</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>247</v>
+        <v>366</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B103" t="s">
         <v>6</v>
       </c>
       <c r="C103" t="s">
-        <v>11</v>
+        <v>367</v>
       </c>
       <c r="D103" t="s">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="E103" t="s">
-        <v>13</v>
+        <v>368</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>248</v>
+        <v>369</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B104" t="s">
         <v>6</v>
       </c>
       <c r="C104" t="s">
-        <v>15</v>
+        <v>370</v>
       </c>
       <c r="D104" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="E104" t="s">
-        <v>17</v>
+        <v>371</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>249</v>
+        <v>372</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B105" t="s">
         <v>6</v>
       </c>
       <c r="C105" t="s">
-        <v>19</v>
+        <v>373</v>
       </c>
       <c r="D105" t="s">
-        <v>20</v>
+        <v>374</v>
       </c>
       <c r="E105" t="s">
-        <v>21</v>
+        <v>375</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>250</v>
+        <v>376</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B106" t="s">
         <v>6</v>
       </c>
       <c r="C106" t="s">
-        <v>23</v>
+        <v>377</v>
       </c>
       <c r="D106" t="s">
-        <v>24</v>
+        <v>378</v>
       </c>
       <c r="E106" t="s">
-        <v>25</v>
+        <v>379</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>251</v>
+        <v>380</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B107" t="s">
         <v>6</v>
       </c>
       <c r="C107" t="s">
-        <v>27</v>
+        <v>381</v>
       </c>
       <c r="D107" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E107" t="s">
-        <v>29</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>252</v>
+        <v>382</v>
+      </c>
+      <c r="F107" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B108" t="s">
         <v>6</v>
       </c>
       <c r="C108" t="s">
-        <v>31</v>
+        <v>383</v>
       </c>
       <c r="D108" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="E108" t="s">
-        <v>33</v>
+        <v>384</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>253</v>
+        <v>385</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B109" t="s">
         <v>6</v>
       </c>
       <c r="C109" t="s">
-        <v>35</v>
+        <v>386</v>
       </c>
       <c r="D109" t="s">
-        <v>36</v>
+        <v>387</v>
       </c>
       <c r="E109" t="s">
-        <v>37</v>
+        <v>388</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>254</v>
+        <v>389</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B110" t="s">
         <v>6</v>
       </c>
       <c r="C110" t="s">
-        <v>39</v>
+        <v>390</v>
       </c>
       <c r="D110" t="s">
-        <v>40</v>
+        <v>391</v>
       </c>
       <c r="E110" t="s">
-        <v>41</v>
+        <v>392</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>255</v>
+        <v>393</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B111" t="s">
         <v>6</v>
       </c>
       <c r="C111" t="s">
-        <v>43</v>
+        <v>394</v>
       </c>
       <c r="D111" t="s">
-        <v>44</v>
+        <v>331</v>
       </c>
       <c r="E111" t="s">
-        <v>45</v>
+        <v>395</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>256</v>
+        <v>396</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B112" t="s">
         <v>6</v>
       </c>
       <c r="C112" t="s">
-        <v>47</v>
+        <v>397</v>
       </c>
       <c r="D112" t="s">
-        <v>48</v>
+        <v>398</v>
       </c>
       <c r="E112" t="s">
-        <v>49</v>
+        <v>399</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>257</v>
+        <v>400</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B113" t="s">
         <v>6</v>
       </c>
       <c r="C113" t="s">
-        <v>51</v>
+        <v>401</v>
       </c>
       <c r="D113" t="s">
-        <v>52</v>
+        <v>284</v>
       </c>
       <c r="E113" t="s">
-        <v>53</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>258</v>
+        <v>402</v>
+      </c>
+      <c r="F113" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B114" t="s">
         <v>6</v>
       </c>
       <c r="C114" t="s">
-        <v>55</v>
+        <v>403</v>
       </c>
       <c r="D114" t="s">
-        <v>56</v>
+        <v>335</v>
       </c>
       <c r="E114" t="s">
-        <v>57</v>
+        <v>404</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>259</v>
+        <v>405</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B115" t="s">
         <v>6</v>
       </c>
       <c r="C115" t="s">
-        <v>59</v>
+        <v>406</v>
       </c>
       <c r="D115" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E115" t="s">
-        <v>61</v>
+        <v>407</v>
       </c>
       <c r="F115" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>117</v>
-      </c>
-      <c r="B116" t="s">
-        <v>6</v>
-      </c>
-      <c r="C116" t="s">
-        <v>62</v>
-      </c>
-      <c r="D116" t="s">
-        <v>63</v>
-      </c>
-      <c r="E116" t="s">
-        <v>64</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>118</v>
-      </c>
-      <c r="B117" t="s">
-        <v>6</v>
-      </c>
-      <c r="C117" t="s">
-        <v>66</v>
-      </c>
-      <c r="D117" t="s">
-        <v>63</v>
-      </c>
-      <c r="E117" t="s">
-        <v>67</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>119</v>
-      </c>
-      <c r="B118" t="s">
-        <v>6</v>
-      </c>
-      <c r="C118" t="s">
-        <v>69</v>
-      </c>
-      <c r="D118" t="s">
-        <v>70</v>
-      </c>
-      <c r="E118" t="s">
-        <v>71</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>120</v>
-      </c>
-      <c r="B119" t="s">
-        <v>6</v>
-      </c>
-      <c r="C119" t="s">
-        <v>73</v>
-      </c>
-      <c r="D119" t="s">
-        <v>74</v>
-      </c>
-      <c r="E119" t="s">
-        <v>75</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>121</v>
-      </c>
-      <c r="B120" t="s">
-        <v>6</v>
-      </c>
-      <c r="C120" t="s">
-        <v>77</v>
-      </c>
-      <c r="D120" t="s">
-        <v>78</v>
-      </c>
-      <c r="E120" t="s">
-        <v>79</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>122</v>
-      </c>
-      <c r="B121" t="s">
-        <v>6</v>
-      </c>
-      <c r="C121" t="s">
-        <v>81</v>
-      </c>
-      <c r="D121" t="s">
-        <v>82</v>
-      </c>
-      <c r="E121" t="s">
-        <v>83</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>123</v>
-      </c>
-      <c r="B122" t="s">
-        <v>6</v>
-      </c>
-      <c r="C122" t="s">
-        <v>85</v>
-      </c>
-      <c r="D122" t="s">
-        <v>86</v>
-      </c>
-      <c r="E122" t="s">
-        <v>87</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>124</v>
-      </c>
-      <c r="B123" t="s">
-        <v>6</v>
-      </c>
-      <c r="C123" t="s">
-        <v>89</v>
-      </c>
-      <c r="D123" t="s">
-        <v>90</v>
-      </c>
-      <c r="E123" t="s">
-        <v>91</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>125</v>
-      </c>
-      <c r="B124" t="s">
-        <v>6</v>
-      </c>
-      <c r="C124" t="s">
-        <v>93</v>
-      </c>
-      <c r="D124" t="s">
-        <v>94</v>
-      </c>
-      <c r="E124" t="s">
-        <v>95</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>126</v>
-      </c>
-      <c r="B125" t="s">
-        <v>6</v>
-      </c>
-      <c r="C125" t="s">
-        <v>97</v>
-      </c>
-      <c r="D125" t="s">
-        <v>98</v>
-      </c>
-      <c r="E125" t="s">
-        <v>99</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>127</v>
-      </c>
-      <c r="B126" t="s">
-        <v>6</v>
-      </c>
-      <c r="C126" t="s">
-        <v>101</v>
-      </c>
-      <c r="D126" t="s">
-        <v>102</v>
-      </c>
-      <c r="E126" t="s">
-        <v>103</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>128</v>
-      </c>
-      <c r="B127" t="s">
-        <v>6</v>
-      </c>
-      <c r="C127" t="s">
-        <v>105</v>
-      </c>
-      <c r="D127" t="s">
-        <v>106</v>
-      </c>
-      <c r="E127" t="s">
-        <v>107</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>129</v>
-      </c>
-      <c r="B128" t="s">
-        <v>6</v>
-      </c>
-      <c r="C128" t="s">
-        <v>109</v>
-      </c>
-      <c r="D128" t="s">
-        <v>110</v>
-      </c>
-      <c r="E128" t="s">
-        <v>111</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>130</v>
-      </c>
-      <c r="B129" t="s">
-        <v>6</v>
-      </c>
-      <c r="C129" t="s">
-        <v>113</v>
-      </c>
-      <c r="D129" t="s">
-        <v>98</v>
-      </c>
-      <c r="E129" t="s">
-        <v>114</v>
-      </c>
-      <c r="F129" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>131</v>
-      </c>
-      <c r="B130" t="s">
-        <v>6</v>
-      </c>
-      <c r="C130" t="s">
-        <v>115</v>
-      </c>
-      <c r="D130" t="s">
-        <v>116</v>
-      </c>
-      <c r="E130" t="s">
-        <v>117</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>132</v>
-      </c>
-      <c r="B131" t="s">
-        <v>6</v>
-      </c>
-      <c r="C131" t="s">
-        <v>119</v>
-      </c>
-      <c r="D131" t="s">
-        <v>60</v>
-      </c>
-      <c r="E131" t="s">
-        <v>120</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>133</v>
-      </c>
-      <c r="B132" t="s">
-        <v>6</v>
-      </c>
-      <c r="C132" t="s">
-        <v>122</v>
-      </c>
-      <c r="D132" t="s">
-        <v>123</v>
-      </c>
-      <c r="E132" t="s">
-        <v>124</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>134</v>
-      </c>
-      <c r="B133" t="s">
-        <v>6</v>
-      </c>
-      <c r="C133" t="s">
-        <v>126</v>
-      </c>
-      <c r="D133" t="s">
-        <v>127</v>
-      </c>
-      <c r="E133" t="s">
-        <v>128</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>135</v>
-      </c>
-      <c r="B134" t="s">
-        <v>6</v>
-      </c>
-      <c r="C134" t="s">
-        <v>130</v>
-      </c>
-      <c r="D134" t="s">
-        <v>131</v>
-      </c>
-      <c r="E134" t="s">
-        <v>132</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>136</v>
-      </c>
-      <c r="B135" t="s">
-        <v>6</v>
-      </c>
-      <c r="C135" t="s">
-        <v>134</v>
-      </c>
-      <c r="D135" t="s">
-        <v>127</v>
-      </c>
-      <c r="E135" t="s">
-        <v>135</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>137</v>
-      </c>
-      <c r="B136" t="s">
-        <v>6</v>
-      </c>
-      <c r="C136" t="s">
-        <v>137</v>
-      </c>
-      <c r="D136" t="s">
-        <v>138</v>
-      </c>
-      <c r="E136" t="s">
-        <v>139</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>138</v>
-      </c>
-      <c r="B137" t="s">
-        <v>6</v>
-      </c>
-      <c r="C137" t="s">
-        <v>141</v>
-      </c>
-      <c r="D137" t="s">
-        <v>142</v>
-      </c>
-      <c r="E137" t="s">
-        <v>143</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>139</v>
-      </c>
-      <c r="B138" t="s">
-        <v>6</v>
-      </c>
-      <c r="C138" t="s">
-        <v>145</v>
-      </c>
-      <c r="D138" t="s">
-        <v>146</v>
-      </c>
-      <c r="E138" t="s">
-        <v>147</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>140</v>
-      </c>
-      <c r="B139" t="s">
-        <v>6</v>
-      </c>
-      <c r="C139" t="s">
-        <v>149</v>
-      </c>
-      <c r="D139" t="s">
-        <v>150</v>
-      </c>
-      <c r="E139" t="s">
-        <v>151</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>141</v>
-      </c>
-      <c r="B140" t="s">
-        <v>6</v>
-      </c>
-      <c r="C140" t="s">
-        <v>153</v>
-      </c>
-      <c r="D140" t="s">
-        <v>154</v>
-      </c>
-      <c r="E140" t="s">
-        <v>155</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>142</v>
-      </c>
-      <c r="B141" t="s">
-        <v>6</v>
-      </c>
-      <c r="C141" t="s">
-        <v>157</v>
-      </c>
-      <c r="D141" t="s">
-        <v>158</v>
-      </c>
-      <c r="E141" t="s">
-        <v>159</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>143</v>
-      </c>
-      <c r="B142" t="s">
-        <v>6</v>
-      </c>
-      <c r="C142" t="s">
-        <v>161</v>
-      </c>
-      <c r="D142" t="s">
-        <v>162</v>
-      </c>
-      <c r="E142" t="s">
-        <v>163</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>144</v>
-      </c>
-      <c r="B143" t="s">
-        <v>6</v>
-      </c>
-      <c r="C143" t="s">
-        <v>165</v>
-      </c>
-      <c r="D143" t="s">
-        <v>166</v>
-      </c>
-      <c r="E143" t="s">
-        <v>167</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>145</v>
-      </c>
-      <c r="B144" t="s">
-        <v>6</v>
-      </c>
-      <c r="C144" t="s">
-        <v>169</v>
-      </c>
-      <c r="D144" t="s">
-        <v>170</v>
-      </c>
-      <c r="E144" t="s">
-        <v>171</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>146</v>
-      </c>
-      <c r="B145" t="s">
-        <v>6</v>
-      </c>
-      <c r="C145" t="s">
-        <v>173</v>
-      </c>
-      <c r="D145" t="s">
-        <v>174</v>
-      </c>
-      <c r="E145" t="s">
-        <v>175</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>147</v>
-      </c>
-      <c r="B146" t="s">
-        <v>6</v>
-      </c>
-      <c r="C146" t="s">
-        <v>177</v>
-      </c>
-      <c r="D146" t="s">
-        <v>178</v>
-      </c>
-      <c r="E146" t="s">
-        <v>179</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>148</v>
-      </c>
-      <c r="B147" t="s">
-        <v>6</v>
-      </c>
-      <c r="C147" t="s">
-        <v>181</v>
-      </c>
-      <c r="D147" t="s">
-        <v>20</v>
-      </c>
-      <c r="E147" t="s">
-        <v>182</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>149</v>
-      </c>
-      <c r="B148" t="s">
-        <v>6</v>
-      </c>
-      <c r="C148" t="s">
-        <v>184</v>
-      </c>
-      <c r="D148" t="s">
-        <v>185</v>
-      </c>
-      <c r="E148" t="s">
-        <v>186</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>150</v>
-      </c>
-      <c r="B149" t="s">
-        <v>6</v>
-      </c>
-      <c r="C149" t="s">
-        <v>188</v>
-      </c>
-      <c r="D149" t="s">
-        <v>189</v>
-      </c>
-      <c r="E149" t="s">
-        <v>190</v>
-      </c>
-      <c r="F149" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>151</v>
-      </c>
-      <c r="B150" t="s">
-        <v>6</v>
-      </c>
-      <c r="C150" t="s">
-        <v>192</v>
-      </c>
-      <c r="D150" t="s">
-        <v>193</v>
-      </c>
-      <c r="E150" t="s">
-        <v>194</v>
-      </c>
-      <c r="F150" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>152</v>
-      </c>
-      <c r="B151" t="s">
-        <v>6</v>
-      </c>
-      <c r="C151" t="s">
-        <v>196</v>
-      </c>
-      <c r="D151" t="s">
-        <v>16</v>
-      </c>
-      <c r="E151" t="s">
-        <v>197</v>
-      </c>
-      <c r="F151" s="1" t="s">
-        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -4360,100 +3979,61 @@
     <hyperlink ref="F51" r:id="rId48" tooltip="Click to view image"/>
     <hyperlink ref="F52" r:id="rId49" tooltip="Click to view image"/>
     <hyperlink ref="F53" r:id="rId50" tooltip="Click to view image"/>
-    <hyperlink ref="F54" r:id="rId51" tooltip="Click to view image"/>
-    <hyperlink ref="F55" r:id="rId52" tooltip="Click to view image"/>
-    <hyperlink ref="F56" r:id="rId53" tooltip="Click to view image"/>
-    <hyperlink ref="F57" r:id="rId54" tooltip="Click to view image"/>
-    <hyperlink ref="F58" r:id="rId55" tooltip="Click to view image"/>
-    <hyperlink ref="F59" r:id="rId56" tooltip="Click to view image"/>
-    <hyperlink ref="F60" r:id="rId57" tooltip="Click to view image"/>
-    <hyperlink ref="F61" r:id="rId58" tooltip="Click to view image"/>
-    <hyperlink ref="F62" r:id="rId59" tooltip="Click to view image"/>
-    <hyperlink ref="F63" r:id="rId60" tooltip="Click to view image"/>
-    <hyperlink ref="F64" r:id="rId61" tooltip="Click to view image"/>
-    <hyperlink ref="F66" r:id="rId62" tooltip="Click to view image"/>
-    <hyperlink ref="F67" r:id="rId63" tooltip="Click to view image"/>
-    <hyperlink ref="F68" r:id="rId64" tooltip="Click to view image"/>
-    <hyperlink ref="F69" r:id="rId65" tooltip="Click to view image"/>
-    <hyperlink ref="F70" r:id="rId66" tooltip="Click to view image"/>
-    <hyperlink ref="F71" r:id="rId67" tooltip="Click to view image"/>
-    <hyperlink ref="F72" r:id="rId68" tooltip="Click to view image"/>
-    <hyperlink ref="F73" r:id="rId69" tooltip="Click to view image"/>
-    <hyperlink ref="F74" r:id="rId70" tooltip="Click to view image"/>
-    <hyperlink ref="F75" r:id="rId71" tooltip="Click to view image"/>
-    <hyperlink ref="F76" r:id="rId72" tooltip="Click to view image"/>
-    <hyperlink ref="F77" r:id="rId73" tooltip="Click to view image"/>
-    <hyperlink ref="F78" r:id="rId74" tooltip="Click to view image"/>
-    <hyperlink ref="F80" r:id="rId75" tooltip="Click to view image"/>
-    <hyperlink ref="F81" r:id="rId76" tooltip="Click to view image"/>
-    <hyperlink ref="F82" r:id="rId77" tooltip="Click to view image"/>
-    <hyperlink ref="F83" r:id="rId78" tooltip="Click to view image"/>
-    <hyperlink ref="F84" r:id="rId79" tooltip="Click to view image"/>
-    <hyperlink ref="F85" r:id="rId80" tooltip="Click to view image"/>
-    <hyperlink ref="F86" r:id="rId81" tooltip="Click to view image"/>
-    <hyperlink ref="F87" r:id="rId82" tooltip="Click to view image"/>
-    <hyperlink ref="F88" r:id="rId83" tooltip="Click to view image"/>
-    <hyperlink ref="F89" r:id="rId84" tooltip="Click to view image"/>
-    <hyperlink ref="F90" r:id="rId85" tooltip="Click to view image"/>
-    <hyperlink ref="F91" r:id="rId86" tooltip="Click to view image"/>
-    <hyperlink ref="F92" r:id="rId87" tooltip="Click to view image"/>
-    <hyperlink ref="F93" r:id="rId88" tooltip="Click to view image"/>
-    <hyperlink ref="F94" r:id="rId89" tooltip="Click to view image"/>
-    <hyperlink ref="F95" r:id="rId90" tooltip="Click to view image"/>
-    <hyperlink ref="F96" r:id="rId91" tooltip="Click to view image"/>
-    <hyperlink ref="F97" r:id="rId92" tooltip="Click to view image"/>
-    <hyperlink ref="F98" r:id="rId93" tooltip="Click to view image"/>
-    <hyperlink ref="F99" r:id="rId94" tooltip="Click to view image"/>
-    <hyperlink ref="F100" r:id="rId95" tooltip="Click to view image"/>
-    <hyperlink ref="F101" r:id="rId96" tooltip="Click to view image"/>
-    <hyperlink ref="F102" r:id="rId97" tooltip="Click to view image"/>
-    <hyperlink ref="F103" r:id="rId98" tooltip="Click to view image"/>
-    <hyperlink ref="F104" r:id="rId99" tooltip="Click to view image"/>
-    <hyperlink ref="F105" r:id="rId100" tooltip="Click to view image"/>
-    <hyperlink ref="F106" r:id="rId101" tooltip="Click to view image"/>
-    <hyperlink ref="F107" r:id="rId102" tooltip="Click to view image"/>
-    <hyperlink ref="F108" r:id="rId103" tooltip="Click to view image"/>
-    <hyperlink ref="F109" r:id="rId104" tooltip="Click to view image"/>
-    <hyperlink ref="F110" r:id="rId105" tooltip="Click to view image"/>
-    <hyperlink ref="F111" r:id="rId106" tooltip="Click to view image"/>
-    <hyperlink ref="F112" r:id="rId107" tooltip="Click to view image"/>
-    <hyperlink ref="F113" r:id="rId108" tooltip="Click to view image"/>
-    <hyperlink ref="F114" r:id="rId109" tooltip="Click to view image"/>
-    <hyperlink ref="F116" r:id="rId110" tooltip="Click to view image"/>
-    <hyperlink ref="F117" r:id="rId111" tooltip="Click to view image"/>
-    <hyperlink ref="F118" r:id="rId112" tooltip="Click to view image"/>
-    <hyperlink ref="F119" r:id="rId113" tooltip="Click to view image"/>
-    <hyperlink ref="F120" r:id="rId114" tooltip="Click to view image"/>
-    <hyperlink ref="F121" r:id="rId115" tooltip="Click to view image"/>
-    <hyperlink ref="F122" r:id="rId116" tooltip="Click to view image"/>
-    <hyperlink ref="F123" r:id="rId117" tooltip="Click to view image"/>
-    <hyperlink ref="F124" r:id="rId118" tooltip="Click to view image"/>
-    <hyperlink ref="F125" r:id="rId119" tooltip="Click to view image"/>
-    <hyperlink ref="F126" r:id="rId120" tooltip="Click to view image"/>
-    <hyperlink ref="F127" r:id="rId121" tooltip="Click to view image"/>
-    <hyperlink ref="F128" r:id="rId122" tooltip="Click to view image"/>
-    <hyperlink ref="F130" r:id="rId123" tooltip="Click to view image"/>
-    <hyperlink ref="F131" r:id="rId124" tooltip="Click to view image"/>
-    <hyperlink ref="F132" r:id="rId125" tooltip="Click to view image"/>
-    <hyperlink ref="F133" r:id="rId126" tooltip="Click to view image"/>
-    <hyperlink ref="F134" r:id="rId127" tooltip="Click to view image"/>
-    <hyperlink ref="F135" r:id="rId128" tooltip="Click to view image"/>
-    <hyperlink ref="F136" r:id="rId129" tooltip="Click to view image"/>
-    <hyperlink ref="F137" r:id="rId130" tooltip="Click to view image"/>
-    <hyperlink ref="F138" r:id="rId131" tooltip="Click to view image"/>
-    <hyperlink ref="F139" r:id="rId132" tooltip="Click to view image"/>
-    <hyperlink ref="F140" r:id="rId133" tooltip="Click to view image"/>
-    <hyperlink ref="F141" r:id="rId134" tooltip="Click to view image"/>
-    <hyperlink ref="F142" r:id="rId135" tooltip="Click to view image"/>
-    <hyperlink ref="F143" r:id="rId136" tooltip="Click to view image"/>
-    <hyperlink ref="F144" r:id="rId137" tooltip="Click to view image"/>
-    <hyperlink ref="F145" r:id="rId138" tooltip="Click to view image"/>
-    <hyperlink ref="F146" r:id="rId139" tooltip="Click to view image"/>
-    <hyperlink ref="F147" r:id="rId140" tooltip="Click to view image"/>
-    <hyperlink ref="F148" r:id="rId141" tooltip="Click to view image"/>
-    <hyperlink ref="F149" r:id="rId142" tooltip="Click to view image"/>
-    <hyperlink ref="F150" r:id="rId143" tooltip="Click to view image"/>
-    <hyperlink ref="F151" r:id="rId144" tooltip="Click to view image"/>
+    <hyperlink ref="F55" r:id="rId51" tooltip="Click to view image"/>
+    <hyperlink ref="F56" r:id="rId52" tooltip="Click to view image"/>
+    <hyperlink ref="F57" r:id="rId53" tooltip="Click to view image"/>
+    <hyperlink ref="F58" r:id="rId54" tooltip="Click to view image"/>
+    <hyperlink ref="F60" r:id="rId55" tooltip="Click to view image"/>
+    <hyperlink ref="F61" r:id="rId56" tooltip="Click to view image"/>
+    <hyperlink ref="F62" r:id="rId57" tooltip="Click to view image"/>
+    <hyperlink ref="F63" r:id="rId58" tooltip="Click to view image"/>
+    <hyperlink ref="F64" r:id="rId59" tooltip="Click to view image"/>
+    <hyperlink ref="F65" r:id="rId60" tooltip="Click to view image"/>
+    <hyperlink ref="F66" r:id="rId61" tooltip="Click to view image"/>
+    <hyperlink ref="F67" r:id="rId62" tooltip="Click to view image"/>
+    <hyperlink ref="F68" r:id="rId63" tooltip="Click to view image"/>
+    <hyperlink ref="F69" r:id="rId64" tooltip="Click to view image"/>
+    <hyperlink ref="F70" r:id="rId65" tooltip="Click to view image"/>
+    <hyperlink ref="F71" r:id="rId66" tooltip="Click to view image"/>
+    <hyperlink ref="F72" r:id="rId67" tooltip="Click to view image"/>
+    <hyperlink ref="F73" r:id="rId68" tooltip="Click to view image"/>
+    <hyperlink ref="F74" r:id="rId69" tooltip="Click to view image"/>
+    <hyperlink ref="F75" r:id="rId70" tooltip="Click to view image"/>
+    <hyperlink ref="F76" r:id="rId71" tooltip="Click to view image"/>
+    <hyperlink ref="F78" r:id="rId72" tooltip="Click to view image"/>
+    <hyperlink ref="F79" r:id="rId73" tooltip="Click to view image"/>
+    <hyperlink ref="F80" r:id="rId74" tooltip="Click to view image"/>
+    <hyperlink ref="F81" r:id="rId75" tooltip="Click to view image"/>
+    <hyperlink ref="F82" r:id="rId76" tooltip="Click to view image"/>
+    <hyperlink ref="F83" r:id="rId77" tooltip="Click to view image"/>
+    <hyperlink ref="F84" r:id="rId78" tooltip="Click to view image"/>
+    <hyperlink ref="F85" r:id="rId79" tooltip="Click to view image"/>
+    <hyperlink ref="F86" r:id="rId80" tooltip="Click to view image"/>
+    <hyperlink ref="F87" r:id="rId81" tooltip="Click to view image"/>
+    <hyperlink ref="F88" r:id="rId82" tooltip="Click to view image"/>
+    <hyperlink ref="F89" r:id="rId83" tooltip="Click to view image"/>
+    <hyperlink ref="F90" r:id="rId84" tooltip="Click to view image"/>
+    <hyperlink ref="F91" r:id="rId85" tooltip="Click to view image"/>
+    <hyperlink ref="F92" r:id="rId86" tooltip="Click to view image"/>
+    <hyperlink ref="F93" r:id="rId87" tooltip="Click to view image"/>
+    <hyperlink ref="F95" r:id="rId88" tooltip="Click to view image"/>
+    <hyperlink ref="F96" r:id="rId89" tooltip="Click to view image"/>
+    <hyperlink ref="F97" r:id="rId90" tooltip="Click to view image"/>
+    <hyperlink ref="F98" r:id="rId91" tooltip="Click to view image"/>
+    <hyperlink ref="F99" r:id="rId92" tooltip="Click to view image"/>
+    <hyperlink ref="F100" r:id="rId93" tooltip="Click to view image"/>
+    <hyperlink ref="F101" r:id="rId94" tooltip="Click to view image"/>
+    <hyperlink ref="F102" r:id="rId95" tooltip="Click to view image"/>
+    <hyperlink ref="F103" r:id="rId96" tooltip="Click to view image"/>
+    <hyperlink ref="F104" r:id="rId97" tooltip="Click to view image"/>
+    <hyperlink ref="F105" r:id="rId98" tooltip="Click to view image"/>
+    <hyperlink ref="F106" r:id="rId99" tooltip="Click to view image"/>
+    <hyperlink ref="F108" r:id="rId100" tooltip="Click to view image"/>
+    <hyperlink ref="F109" r:id="rId101" tooltip="Click to view image"/>
+    <hyperlink ref="F110" r:id="rId102" tooltip="Click to view image"/>
+    <hyperlink ref="F111" r:id="rId103" tooltip="Click to view image"/>
+    <hyperlink ref="F112" r:id="rId104" tooltip="Click to view image"/>
+    <hyperlink ref="F114" r:id="rId105" tooltip="Click to view image"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/excelFiles/inmates.xlsx
+++ b/excelFiles/inmates.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="415">
   <si>
     <t>ID</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Image URL</t>
   </si>
   <si>
-    <t>2025-05-22 01:55:27</t>
+    <t>2025-05-24 03:00:00</t>
   </si>
   <si>
     <t>AMERICAN HORSE, EMANUAL JAMES</t>
@@ -43,7 +43,7 @@
     <t>Charge: 218 - Elder Abuse / Dependent Adult Abuse; Arrest Date 05/13/2025; Bond - Cash Bond, $250.00; Set By Judge Little Hawk;&lt;br /&gt;Charge: 538 - Sale and Possession of an Alcoholic Beverage; Arrest Date 05/13/2025; Bond - Cash Bond, $250.00; Set By Judge Little Hawk;</t>
   </si>
   <si>
-    <t>http://localhost:3000/bucket/1.png</t>
+    <t>http://154.57.218.100:3000/bucket/1.png</t>
   </si>
   <si>
     <t>ANDUJA, ERIC JAMES</t>
@@ -55,7 +55,7 @@
     <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 05/11/2025; Bond - NO BOND HOLD;</t>
   </si>
   <si>
-    <t>http://localhost:3000/bucket/2.png</t>
+    <t>http://154.57.218.100:3000/bucket/2.png</t>
   </si>
   <si>
     <t>ARAPAHOE, SEVRANO THOMAS</t>
@@ -67,7 +67,7 @@
     <t>Court Order for Oglala Sioux Tribal Court; Bond - PAY OR SERVE FINE, $125.00; Set By Judge Bear Runner;&lt;br /&gt;Court Order for Oglala Sioux Tribal Court; Bond - PAY OR SERVE FINE, $50.00; Set By Judge Bear Runner;&lt;br /&gt;Court Order for Oglala Sioux Tribal Court; Bond - NO BOND HOLD; Set By Judge Bear Runner;</t>
   </si>
   <si>
-    <t>http://localhost:3000/bucket/3.png</t>
+    <t>http://154.57.218.100:3000/bucket/3.png</t>
   </si>
   <si>
     <t>BAD BEAR, JEREMY CORBIN SR.</t>
@@ -79,7 +79,7 @@
     <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 05/10/2025; Bond - Cash Bond, $1000.00; Set By Judge Bordeaux;</t>
   </si>
   <si>
-    <t>http://localhost:3000/bucket/4.png</t>
+    <t>http://154.57.218.100:3000/bucket/4.png</t>
   </si>
   <si>
     <t>BADMILK, TEAGAN</t>
@@ -88,10 +88,10 @@
     <t>05/18/2025</t>
   </si>
   <si>
-    <t>Charge: 415 - Violence to Police Officers, IHS and BIA security guards and OST Parks and recreation Authority Rangers and Judges; Arrest Date 05/18/2025; Bond - NON - BONDABLE; Set By Tribal Bond Schedule;&lt;br /&gt;Charge: 503 - Disorderly Conduct; Arrest Date 05/18/2025; Bond - $0.00;&lt;br /&gt;Charge: 538 - Sale and Possession of an Alcoholic Beverage; Arrest Date 05/18/2025; Bond - $0.00;&lt;br /&gt;Charge: 430 - Resisting Lawful Arrest; Arrest Date 05/18/2025; Bond - $0.00;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/5.png</t>
+    <t>Charge: 430 - Resisting Lawful Arrest; Arrest Date 05/18/2025; Bond - Cash Bond, $50.00; Set By Judge Little Hawk;&lt;br /&gt;Charge: 503 - Disorderly Conduct; Arrest Date 05/18/2025; Bond - Cash Bond, $50.00; Set By Judge Little Hawk;&lt;br /&gt;Charge: 415 - Violence to Police Officers, IHS and BIA security guards and OST Parks and recreation Authority Rangers and Judges; Arrest Date 05/18/2025; Bond - Cash Bond; Set By Judge Little Hawk;&lt;br /&gt;Charge: 538 - Sale and Possession of an Alcoholic Beverage; Arrest Date 05/18/2025; Bond - $0.00;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/5.png</t>
   </si>
   <si>
     <t>BAD WOUND, DEREK JAMES</t>
@@ -103,7 +103,7 @@
     <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 04/18/2025; Bond - Cash Bond, $1000.00; Set By Judge Bear Runner;</t>
   </si>
   <si>
-    <t>http://localhost:3000/bucket/6.png</t>
+    <t>http://154.57.218.100:3000/bucket/6.png</t>
   </si>
   <si>
     <t>BEAR RUNNER, SHALAINE CHARNELL</t>
@@ -115,7 +115,7 @@
     <t>Warrant: Bench warrant CR-24-0351; Arrest Date 03/04/2025; Bond - DETAINMENT ORDER; Set By Judge Little Hawk;&lt;br /&gt;Intoxication: 03-01 - Intoxication/Protective Custody; Arrest Date 03/04/2025;</t>
   </si>
   <si>
-    <t>http://localhost:3000/bucket/7.png</t>
+    <t>http://154.57.218.100:3000/bucket/7.png</t>
   </si>
   <si>
     <t>BEAR SHIRT, STACY STEVEN</t>
@@ -127,7 +127,16 @@
     <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 01/07/2025; Bond - Detainment Order; Set By Judge Bear Runner;</t>
   </si>
   <si>
-    <t>http://localhost:3000/bucket/8.png</t>
+    <t>http://154.57.218.100:3000/bucket/8.png</t>
+  </si>
+  <si>
+    <t>BENOIST-LADEAUX, MELISSA ROSE</t>
+  </si>
+  <si>
+    <t>05/23/2025</t>
+  </si>
+  <si>
+    <t>Intoxication: 03-01 - Intoxication/Protective Custody; Arrest Date 05/23/2025;</t>
   </si>
   <si>
     <t>BIG CROW, KRISTEN REI</t>
@@ -136,10 +145,10 @@
     <t>05/20/2025</t>
   </si>
   <si>
-    <t>Charge: 508 - Aggravated Weapons Offense; Arrest Date 05/20/2025; Bond - NON - BONDABLE, $0.00; Set By Tribal Bond Schedule;&lt;br /&gt;Warrant: Failure to Appear warrant CR-24-1686 issued by Oglala Lakota, SD; Arrest Date 05/20/2025; Bond - NON - BONDABLE; Set By Warrant;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/9.png</t>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 05/20/2025; Bond - Cash Bond, $500.00; Set By Judge Little Hawk;&lt;br /&gt;Court Order for Oglala Sioux Tribal Court; Arrest Date 05/20/2025; Bond - NO BOND HOLD;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/10.png</t>
   </si>
   <si>
     <t>BLACK BEAR-DAVIS, ROGER ANGELO</t>
@@ -151,7 +160,19 @@
     <t>Charge: 538 - Sale and Possession of an Alcoholic Beverage; Arrest Date 05/08/2025; Bond - Cash Bond, $125.00; Set By Judge Bordeaux;&lt;br /&gt;Charge: 430 - Resisting Lawful Arrest; Arrest Date 05/08/2025; Bond - Cash Bond, $125.00; Set By Judge Bordeaux;&lt;br /&gt;Charge: 503 - Disorderly Conduct; Arrest Date 05/08/2025; Bond - $0.00;</t>
   </si>
   <si>
-    <t>http://localhost:3000/bucket/10.png</t>
+    <t>http://154.57.218.100:3000/bucket/11.png</t>
+  </si>
+  <si>
+    <t>BLACK ELK, RAYMOND CHARLES</t>
+  </si>
+  <si>
+    <t>05/22/2025</t>
+  </si>
+  <si>
+    <t>Charge: 209 - Child Endangerment in the First Degree; Arrest Date 05/22/2025; Bond - NON - BONDABLE; Set By Tribal Bond Schedule;&lt;br /&gt;Warrant: Bench warrant CR-24-1707 issued by Oglala Lakota, SD; Arrest Date 05/22/2025; Bond - NON - BONDABLE; Set By Warrant;&lt;br /&gt;Warrant: Bench warrant CR-24-0923 issued by Oglala Lakota, SD; Arrest Date 05/22/2025; Bond - NON - BONDABLE; Set By Warrant;&lt;br /&gt;Charge: 538 - Sale and Possession of an Alcoholic Beverage; Arrest Date 05/22/2025; Bond - $0.00;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/12.png</t>
   </si>
   <si>
     <t>BLACK FEATHER, SAGE DAWN</t>
@@ -163,19 +184,7 @@
     <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 03/08/2025; Bond - Cash Bond, $1000.00; Set By Judge Little Hawk;</t>
   </si>
   <si>
-    <t>http://localhost:3000/bucket/11.png</t>
-  </si>
-  <si>
-    <t>BROKEN NOSE, ANTHUNY CHARLES</t>
-  </si>
-  <si>
-    <t>04/21/2025</t>
-  </si>
-  <si>
-    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 04/21/2025; Bond - NO BOND HOLD; Set By Judge Yellow Hawk;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/12.png</t>
+    <t>http://154.57.218.100:3000/bucket/13.png</t>
   </si>
   <si>
     <t>BROWN BULL, TIMOTHY JACK JR.</t>
@@ -187,7 +196,7 @@
     <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 04/17/2025; Bond - NO BOND HOLD;&lt;br /&gt;Court Order for Oglala Sioux Tribal Court; Arrest Date 04/17/2025; Bond - NO BOND HOLD;&lt;br /&gt;Court Order for Oglala Sioux Tribal Court; Arrest Date 04/17/2025; Bond - NO BOND HOLD;&lt;br /&gt;Court Order for Oglala Sioux Tribal Court; Arrest Date 04/17/2025; Bond - NO BOND HOLD;&lt;br /&gt;Court Order for Oglala Sioux Tribal Court; Arrest Date 04/17/2025; Bond - NO BOND HOLD;</t>
   </si>
   <si>
-    <t>http://localhost:3000/bucket/13.png</t>
+    <t>http://154.57.218.100:3000/bucket/14.png</t>
   </si>
   <si>
     <t>BUCKMAN, JESSE BLAINE</t>
@@ -208,7 +217,7 @@
     <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 05/03/2025; Bond - NO BOND HOLD; Set By Judge Yellow Hawk;</t>
   </si>
   <si>
-    <t>http://localhost:3000/bucket/15.png</t>
+    <t>http://154.57.218.100:3000/bucket/16.png</t>
   </si>
   <si>
     <t>BULL BEAR, MELTINO JAMES</t>
@@ -217,19 +226,19 @@
     <t>Temporary Commitment Hold for Oglala Sioux Tribal Court; Arrest Date 05/03/2025; Bond - NO BOND HOLD;</t>
   </si>
   <si>
-    <t>http://localhost:3000/bucket/16.png</t>
+    <t>http://154.57.218.100:3000/bucket/17.png</t>
   </si>
   <si>
     <t>CATCHES, JONATHAN LUKE</t>
   </si>
   <si>
-    <t>10/20/2024</t>
-  </si>
-  <si>
-    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 10/20/2024; Bond - Cash Bond, $500.00; Set By Judge Bear Runner;&lt;br /&gt;Court Order for Oglala Sioux Tribal Court; Arrest Date 10/10/2024; Bond - Cash Bond, $5000.00; Set By Judge Bear Runner;&lt;br /&gt;Warrant: Arrest warrant CR-25-0408 issued by Oglala Lakota, SD; Arrest Date 04/17/2025; Bond - NON - BONDABLE; Set By Warrant;&lt;br /&gt;Warrant: Arrest warrant CR-24-1415 issued by Oglala Lakota, SD; Arrest Date 10/20/2024; Bond - NO BOND HOLD, $0.00; Set By Judge Little Hawk;&lt;br /&gt;Court Order for Oglala Sioux Tribal Court; Arrest Date 10/10/2024; Bond - NO BOND HOLD; Set By Judge Bear Runner;&lt;br /&gt;Warrant: Arrest warrant CR-24-1416 issued by Oglala Lakota, SD; Arrest Date 10/20/2024; Bond - NO BOND HOLD, $0.00; Set By Judge Little Hawk;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/17.png</t>
+    <t>10/10/2024</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 10/10/2024; Bond - Cash Bond, $5000.00; Set By Judge Bear Runner;&lt;br /&gt;Court Order for Oglala Sioux Tribal Court; Arrest Date 10/20/2024; Bond - Cash Bond, $500.00; Set By Judge Bear Runner;&lt;br /&gt;Warrant: Arrest warrant CR-25-0408 issued by Oglala Lakota, SD; Arrest Date 04/17/2025; Bond - NON - BONDABLE; Set By Warrant;&lt;br /&gt;Warrant: Arrest warrant CR-24-1416 issued by Oglala Lakota, SD; Arrest Date 10/20/2024; Bond - NO BOND HOLD, $0.00; Set By Judge Little Hawk;&lt;br /&gt;Court Order for Oglala Sioux Tribal Court; Arrest Date 10/10/2024; Bond - NO BOND HOLD; Set By Judge Bear Runner;&lt;br /&gt;Warrant: Arrest warrant CR-24-1415 issued by Oglala Lakota, SD; Arrest Date 10/20/2024; Bond - NO BOND HOLD, $0.00; Set By Judge Little Hawk;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/18.png</t>
   </si>
   <si>
     <t>CHASE, JESSICA IRENE</t>
@@ -241,7 +250,7 @@
     <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 04/16/2025; Bond - Cash Bond, $3000.00; Set By Judge Bear Runner;</t>
   </si>
   <si>
-    <t>http://localhost:3000/bucket/18.png</t>
+    <t>http://154.57.218.100:3000/bucket/19.png</t>
   </si>
   <si>
     <t>CHEYENNE, SAMANTHA OLOWAN</t>
@@ -253,7 +262,7 @@
     <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 04/10/2025; Bond - Cash Bond, $1500.00; Set By Judge Bear Runner;</t>
   </si>
   <si>
-    <t>http://localhost:3000/bucket/19.png</t>
+    <t>http://154.57.218.100:3000/bucket/20.png</t>
   </si>
   <si>
     <t>CLOWN HORSE, WARREN BENJAMIN</t>
@@ -265,7 +274,7 @@
     <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 03/11/2025; Bond - Cash Bond, $1000.00; Set By Judge Bear Runner;&lt;br /&gt;Court Order for Oglala Sioux Tribal Court; Arrest Date 03/18/2025; Bond - NON - BONDABLE, $0.00; Set By Judge Bear Runner;</t>
   </si>
   <si>
-    <t>http://localhost:3000/bucket/20.png</t>
+    <t>http://154.57.218.100:3000/bucket/21.png</t>
   </si>
   <si>
     <t>COTTIER, BISHOP ERIC</t>
@@ -277,7 +286,7 @@
     <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 04/08/2025; Bond - Cash Bond, $2000.00; Set By Judge Bear Runner;</t>
   </si>
   <si>
-    <t>http://localhost:3000/bucket/21.png</t>
+    <t>http://154.57.218.100:3000/bucket/22.png</t>
   </si>
   <si>
     <t>CRAZY BEAR, KARLIN ROBERT</t>
@@ -289,7 +298,7 @@
     <t>Warrant: Bench warrant CR-25-0439 issued by Oglala Lakota, SD; Arrest Date 05/16/2025; Bond - Cash Bond, $150.00; Set By Judge Bear Runner;&lt;br /&gt;Intoxication: 03-01 - Intoxication/Protective Custody; Arrest Date 05/16/2025;</t>
   </si>
   <si>
-    <t>http://localhost:3000/bucket/22.png</t>
+    <t>http://154.57.218.100:3000/bucket/23.png</t>
   </si>
   <si>
     <t>CRAZY THUNDER, FLORA FRANCES</t>
@@ -301,7 +310,28 @@
     <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 05/12/2025; Bond - Cash Bond, $3000.00;</t>
   </si>
   <si>
-    <t>http://localhost:3000/bucket/23.png</t>
+    <t>http://154.57.218.100:3000/bucket/24.png</t>
+  </si>
+  <si>
+    <t>CUNY, TYLER JAMES</t>
+  </si>
+  <si>
+    <t>05/21/2025</t>
+  </si>
+  <si>
+    <t>Charge: 605 (a) - Driving While Intoxicated; Arrest Date 05/21/2025; Bond - NON - BONDABLE; Set By Tribal Bond Schedule;&lt;br /&gt;Charge: 538 - Sale and Possession of an Alcoholic Beverage; Arrest Date 05/21/2025; Bond - Cash Bond, $50.00; Set By Tribal Bond Schedule;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/25.png</t>
+  </si>
+  <si>
+    <t>DILLON, TYLYNN LARAE</t>
+  </si>
+  <si>
+    <t>Charge: 218 - Elder Abuse / Dependent Adult Abuse; Arrest Date 05/22/2025; Bond - NON - BONDABLE; Set By Tribal Bond Schedule;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/26.png</t>
   </si>
   <si>
     <t>DUBRAY - HAWK WING, JUSTINA RAE</t>
@@ -313,7 +343,7 @@
     <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 05/06/2025; Bond - Cash Bond, $500.00; Set By Judge Bear Runner;</t>
   </si>
   <si>
-    <t>http://localhost:3000/bucket/24.png</t>
+    <t>http://154.57.218.100:3000/bucket/27.png</t>
   </si>
   <si>
     <t>DUBRAY, TEYA TAJ</t>
@@ -325,7 +355,7 @@
     <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 12/27/2023; Bond - Detainment Order, $0.00; Set By Judge Bear Runner;&lt;br /&gt;Court Order for Oglala Sioux Tribal Court; Arrest Date 01/02/2024; Bond - Detainment Order, $0.00; Set By Judge Bear Runner;</t>
   </si>
   <si>
-    <t>http://localhost:3000/bucket/25.png</t>
+    <t>http://154.57.218.100:3000/bucket/28.png</t>
   </si>
   <si>
     <t>EVANS, MATTHEW (GENERAL) JAMES</t>
@@ -337,7 +367,16 @@
     <t>Warrant: Failure to Appear warrant CR-24-0231/0371  issued by Oglala Lakota, SD; Arrest Date 05/09/2025; Bond - Cash Bond, $500.00; Set By Judge Bordeaux;&lt;br /&gt;Charge: 538 - Sale and Possession of an Alcoholic Beverage; Arrest Date 05/09/2025; Bond - $0.00;</t>
   </si>
   <si>
-    <t>http://localhost:3000/bucket/26.png</t>
+    <t>http://154.57.218.100:3000/bucket/29.png</t>
+  </si>
+  <si>
+    <t>FAST WOLF, RAY JOSEPH</t>
+  </si>
+  <si>
+    <t>Charge: 802 - Domestic Violence / Abuse; Arrest Date 05/22/2025; Bond - NON - BONDABLE; Set By Tribal Bond Schedule;&lt;br /&gt;Charge: 209 - Child Endangerment in the First Degree; Arrest Date 05/22/2025; Bond - NON - BONDABLE, $0.00; Set By Tribal Bond Schedule;&lt;br /&gt;Charge: 507 - Weapons Offense; Arrest Date 05/22/2025;&lt;br /&gt;Charge: 503 - Disorderly Conduct; Arrest Date 05/22/2025;&lt;br /&gt;Charge: 538 - Sale and Possession of an Alcoholic Beverage; Arrest Date 05/22/2025;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/30.png</t>
   </si>
   <si>
     <t>FAY, NATASHA PEARL</t>
@@ -349,7 +388,25 @@
     <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 04/22/2025; Bond - Cash Bond, $550.00; Set By Judge Bear Runner;&lt;br /&gt;Order of Commitment: Serving 183 days - Concurrent; Arrest Date 04/22/2025;</t>
   </si>
   <si>
-    <t>http://localhost:3000/bucket/27.png</t>
+    <t>http://154.57.218.100:3000/bucket/31.png</t>
+  </si>
+  <si>
+    <t>FEATHER EARRING, DONROY CHADE</t>
+  </si>
+  <si>
+    <t>Charge: 538 - Sale and Possession of an Alcoholic Beverage; Arrest Date 05/22/2025; Bond - NON - BONDABLE; Set By Tribal Bond Schedule;&lt;br /&gt;Charge: 503 - Disorderly Conduct; Arrest Date 05/22/2025; Bond - NON - BONDABLE, $0.00; Set By Tribal Bond Schedule;&lt;br /&gt;Charge: 209 - Child Endangerment in the First Degree; Arrest Date 05/22/2025; Bond - NON - BONDABLE, $0.00; Set By Tribal Bond Schedule;&lt;br /&gt;Charge: 204 - Verbal or Written Assault; Arrest Date 05/22/2025; Bond - NON - BONDABLE, $0.00; Set By Tribal Bond Schedule;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/32.png</t>
+  </si>
+  <si>
+    <t>GALLEGO, JOHN RICHARD</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 05/22/2025; Bond - NO BOND HOLD;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/33.png</t>
   </si>
   <si>
     <t>GALLEGO, WILLIAM M</t>
@@ -367,7 +424,7 @@
     <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 12/13/2024; Bond - Cash Bail Bond, $300.00; Set By Judge Little Hawk;&lt;br /&gt;Federal Warrant: Federal warrant 5:20CR50126-1 issued by Oglala Lakota, SD; Arrest Date 09/01/2024; Bond - NON - BONDABLE; Set By Warrant;&lt;br /&gt;Court Order for Oglala Sioux Tribal Court; Arrest Date 09/01/2024; Bond - NO BOND HOLD; Set By Judge Little Hawk;&lt;br /&gt;Court Order for Oglala Sioux Tribal Court; Arrest Date 09/01/2024; Bond - NO BOND HOLD; Set By Judge Little Hawk;</t>
   </si>
   <si>
-    <t>http://localhost:3000/bucket/29.png</t>
+    <t>http://154.57.218.100:3000/bucket/35.png</t>
   </si>
   <si>
     <t>GEORGE, PHIL TROY JR.</t>
@@ -376,712 +433,637 @@
     <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 05/14/2025; Bond - Cash Bond, $2000.00; Set By Judge Bear Runner;</t>
   </si>
   <si>
-    <t>http://localhost:3000/bucket/30.png</t>
-  </si>
-  <si>
-    <t>GRASS, JULIAN THOMAS</t>
+    <t>http://154.57.218.100:3000/bucket/36.png</t>
+  </si>
+  <si>
+    <t>HARD HEART, JACOB STEVEN</t>
+  </si>
+  <si>
+    <t>HARVEY, JACOB EDWARD</t>
+  </si>
+  <si>
+    <t>04/13/2025</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 04/13/2025; Bond - Cash Bond, $1500.00; Set By Judge Bear Runner;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/38.png</t>
+  </si>
+  <si>
+    <t>HATCHETT, CHRISTOPHER JAMES JR</t>
+  </si>
+  <si>
+    <t>01/05/2025</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 01/05/2025; Bond - NO BOND HOLD; Set By Judge Little Hawk;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/39.png</t>
+  </si>
+  <si>
+    <t>HIGH WOLF, CLAYTON CHARLES BUBZ JR.</t>
+  </si>
+  <si>
+    <t>Warrant: Arrest warrant CR-25-0507 issued by Oglala Lakota, SD; Arrest Date 05/22/2025; Bond - NON - BONDABLE; Set By Warrant;&lt;br /&gt;Charge: 508 - Aggravated Weapons Offense; Arrest Date 05/22/2025; Bond - NON - BONDABLE, $0.00; Set By Tribal Bond Schedule;&lt;br /&gt;Charge: 430 - Resisting Lawful Arrest; Arrest Date 05/22/2025; Bond - NON - BONDABLE, $0.00; Set By Tribal Bond Schedule;&lt;br /&gt;Charge: 636 - Eluding Police Vehicle; Arrest Date 05/22/2025; Bond - NON - BONDABLE; Set By Tribal Bond Schedule;&lt;br /&gt;Charge: 428 - Obstructing Justice; Arrest Date 05/22/2025; Bond - NON - BONDABLE, $0.00; Set By Tribal Bond Schedule;&lt;br /&gt;Charge: 542 - Manufacture, Distribution or Possession with Intent to Distribute; Arrest Date 05/22/2025; Bond - NON - BONDABLE; Set By Tribal Bond Schedule;&lt;br /&gt;Charge: 547 - Drug Paraphernalia; Arrest Date 05/22/2025; Bond - NON - BONDABLE; Set By Tribal Bond Schedule;&lt;br /&gt;Charge: 546 - Simple Possession and Ingestion; Arrest Date 05/22/2025; Bond - NON - BONDABLE; Set By Tribal Bond Schedule;</t>
+  </si>
+  <si>
+    <t>HIGH WOLF, HARLEY RAY RAY</t>
+  </si>
+  <si>
+    <t>Charge: 428 - Obstructing Justice; Arrest Date 05/22/2025; Bond - NON - BONDABLE, $0.00; Set By Tribal Bond Schedule;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/41.png</t>
+  </si>
+  <si>
+    <t>HINOJOSA, USBALDO "DONTE" WENDEL</t>
+  </si>
+  <si>
+    <t>Charge: 538 - Sale and Possession of an Alcoholic Beverage; Arrest Date 05/22/2025; Set By Tribal Bond Schedule;&lt;br /&gt;Charge: 503 - Disorderly Conduct; Arrest Date 05/22/2025; Bond - $0.00; Set By Tribal Bond Schedule;</t>
+  </si>
+  <si>
+    <t>HOLLOW HORN, CHAYTON ISNALA HOKSICA</t>
+  </si>
+  <si>
+    <t>Order of Commitment: Serving 57 days - Concurrent; Arrest Date 04/13/2025; Bond - NON - BONDABLE; Set By Judge Bear Runner;&lt;br /&gt;Court Order for Oglala Sioux Tribal Court; Arrest Date 04/12/2025; Bond - NO BOND HOLD; Set By Judge Little Hawk;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/43.png</t>
+  </si>
+  <si>
+    <t>IRON HORSE, NICHOLAS PAUL</t>
+  </si>
+  <si>
+    <t>04/15/2025</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 04/15/2025; Bond - Cash Bond, $1000.00; Set By Judge Bear Runner;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/44.png</t>
+  </si>
+  <si>
+    <t>JANIS, JEFFREY LYNN JR.</t>
+  </si>
+  <si>
+    <t>05/04/2025</t>
+  </si>
+  <si>
+    <t>Charge: 538 - Sale and Possession of an Alcoholic Beverage; Arrest Date 05/04/2025; Bond - Cash Bail Bond, $50.00; Set By Tribal Bond Schedule;&lt;br /&gt;Charge: 802 - Domestic Violence / Abuse; Arrest Date 05/04/2025; Bond - Cash Bond, $500.00; Set By Judge Yellow Hawk;&lt;br /&gt;Warrant: Pickup Orders warrant CIV-25-2211 issued by Oglala Lakota, SD; Arrest Date 05/04/2025; Bond - NON - BONDABLE; Set By Warrant;&lt;br /&gt;Warrant: Involuntary Commitment Hold warrant CIV-25-2186 issued by Oglala Lakota, SD; Arrest Date 05/04/2025; Bond - TEMPORARY COMMITMENT ORDER; Set By Warrant;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/45.png</t>
+  </si>
+  <si>
+    <t>JANIS, LEO THOMAS SR.</t>
+  </si>
+  <si>
+    <t>01/04/2025</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 01/04/2025; Bond - NO BOND HOLD, $0.00; Set By Judge Little Hawk;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/46.png</t>
+  </si>
+  <si>
+    <t>JANIS, SYLAS ANTHONY</t>
+  </si>
+  <si>
+    <t>05/01/2025</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 05/01/2025; Bond - NO BOND HOLD; Set By Judge Bear Runner;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/47.png</t>
+  </si>
+  <si>
+    <t>KERBAUGH, KRISTOPHER JOHN JR</t>
+  </si>
+  <si>
+    <t>04/04/2025</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 04/04/2025; Bond - NO BOND HOLD; Set By Judge Bear Runner;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/48.png</t>
+  </si>
+  <si>
+    <t>KILLS RIGHT, DENNIS JR.</t>
+  </si>
+  <si>
+    <t>Charge: 428 - Obstructing Justice; Arrest Date 05/22/2025; Bond - $0.00; Set By Tribal Bond Schedule;&lt;br /&gt;Charge: 430 - Resisting Lawful Arrest; Arrest Date 05/22/2025; Bond - $0.00; Set By Tribal Bond Schedule;&lt;br /&gt;Charge: 538 - Sale and Possession of an Alcoholic Beverage; Arrest Date 05/22/2025; Bond - $0.00; Set By Tribal Bond Schedule;&lt;br /&gt;Charge: I Part II - Chemical Test Required; Arrest Date 05/22/2025; Bond - $0.00; Set By Tribal Bond Schedule;</t>
+  </si>
+  <si>
+    <t>LAMONT, COURTNEY BELVA MARIE</t>
+  </si>
+  <si>
+    <t>04/28/2025</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 04/28/2025; Bond - Detainment Order; Set By Judge Bear Runner;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/50.png</t>
+  </si>
+  <si>
+    <t>LAMONT, SHALER DUANE</t>
+  </si>
+  <si>
+    <t>02/16/2025</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 02/16/2025; Bond - Cash Bond, $1000.00; Set By Judge Little Hawk;&lt;br /&gt;Order of Commitment: Serving 375 days - Concurrent; Arrest Date 02/16/2025; Bond - NON - BONDABLE; Set By Judge Little Hawk;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/51.png</t>
+  </si>
+  <si>
+    <t>LITTLE MOON, RUEBEN JAMES</t>
+  </si>
+  <si>
+    <t>Order of Commitment: Serving 184 days - Concurrent; Arrest Date 05/10/2025; Bond - Detainment Order; Set By Judge Bordeaux;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/52.png</t>
+  </si>
+  <si>
+    <t>LITTLE, RICHARD DEAN JR.</t>
+  </si>
+  <si>
+    <t>11/02/2024</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 11/02/2024; Bond - PAY OR SERVE FINE, $570.00; Set By Judge Bear Runner;&lt;br /&gt;Court Order for Oglala Sioux Tribal Court; Arrest Date 09/09/2024; Bond - Temporary Commitment Order; Set By Judge Youpee;&lt;br /&gt;Order of Commitment: Serving 365 days - Concurrent; Arrest Date 09/09/2024; Bond - Detainment Order; Set By Judge Little Hawk;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/53.png</t>
+  </si>
+  <si>
+    <t>LITTLE, ROBERT JAMES</t>
+  </si>
+  <si>
+    <t>04/03/2025</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 04/03/2025; Bond - NO BOND HOLD, $0.00; Set By Judge Little Hawk;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/54.png</t>
+  </si>
+  <si>
+    <t>LITTLE, WALLACE GENE</t>
+  </si>
+  <si>
+    <t>03/26/2025</t>
+  </si>
+  <si>
+    <t>Charge: 503 - Disorderly Conduct; Arrest Date 03/26/2025; Bond - Cash Bail Bond, $50.00; Set By Tribal Bond Schedule;&lt;br /&gt;Charge: 504 - Harassment; Arrest Date 03/26/2025; Bond - NON - BONDABLE, $0.00; Set By Tribal Bond Schedule;&lt;br /&gt;Charge: 430 - Resisting Lawful Arrest; Arrest Date 03/26/2025; Bond - Cash Bond, $175.00; Set By Judge Bear Runner;&lt;br /&gt;Charge: 218 - Elder Abuse / Dependent Adult Abuse; Arrest Date 03/26/2025; Bond - Cash Bond, $175.00; Set By Judge Bear Runner;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/55.png</t>
+  </si>
+  <si>
+    <t>LITTLE WHITEMAN, AUTUMN RAYNE</t>
+  </si>
+  <si>
+    <t>04/30/2025</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 04/30/2025; Bond - Cash Bond, $750.00; Set By Judge Yellow Hawk;&lt;br /&gt;Court Order for Oglala Sioux Tribal Court; Arrest Date 04/30/2025; Bond - NO BOND HOLD; Set By Tribal Bond Schedule;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/56.png</t>
+  </si>
+  <si>
+    <t>LONG SOLDIER, DASHAWN LOUIS</t>
+  </si>
+  <si>
+    <t>12/03/2023</t>
+  </si>
+  <si>
+    <t>Order of Commitment: Serving 731 days - Concurrent; Arrest Date 12/03/2023; Bond - Detainment Order; Set By Judge Little Hawk;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/57.png</t>
+  </si>
+  <si>
+    <t>LONG SOLDIER, SHANIA PAIGE</t>
+  </si>
+  <si>
+    <t>Charge: 209 - Child Endangerment in the First Degree; Arrest Date 05/22/2025; Bond - NON - BONDABLE, $0.00; Set By Tribal Bond Schedule;&lt;br /&gt;Charge: 415 - Violence to Police Officers, IHS and BIA security guards and OST Parks and recreation Authority Rangers and Judges; Arrest Date 05/22/2025; Bond - NON - BONDABLE; Set By Tribal Bond Schedule;&lt;br /&gt;Charge: 301 - Attempt; Arrest Date 05/22/2025; Bond - NON - BONDABLE, $0.00; Set By Tribal Bond Schedule;&lt;br /&gt;Charge: 538 - Sale and Possession of an Alcoholic Beverage; Arrest Date 05/22/2025; Bond - $0.00;&lt;br /&gt;Charge: 430 - Resisting Lawful Arrest; Arrest Date 05/22/2025; Bond - $0.00;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/58.png</t>
+  </si>
+  <si>
+    <t>MARTIN, PETA</t>
+  </si>
+  <si>
+    <t>Charge: 202/802 - Assault in the 2nd degree/Domestic Violence; Arrest Date 05/21/2025; Bond - NON - BONDABLE; Set By Tribal Bond Schedule;&lt;br /&gt;Charge: 210 - Child Endangerment in the Second Degree; Arrest Date 05/21/2025; Bond - $0.00;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/59.png</t>
+  </si>
+  <si>
+    <t>MERDANIAN, ELISHA ROSE</t>
+  </si>
+  <si>
+    <t>Charge: 605 (a) - Driving While Intoxicated; Arrest Date 05/23/2025; Bond - NON - BONDABLE; Set By Tribal Bond Schedule;&lt;br /&gt;Charge: 538 - Sale and Possession of an Alcoholic Beverage; Arrest Date 05/23/2025; Bond - $0.00;</t>
+  </si>
+  <si>
+    <t>MESTETH, LONNIE ANTHONY</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 05/04/2025; Bond - Cash Bond, $750.00; Set By Judge Bear Runner;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/61.png</t>
+  </si>
+  <si>
+    <t>MILLS, DAMIANA RAYE</t>
+  </si>
+  <si>
+    <t>Charge: 205 - Child Abuse in the First Degree; Arrest Date 05/21/2025; Bond - NON - BONDABLE; Set By Tribal Bond Schedule;&lt;br /&gt;Charge: 538 - Sale and Possession of an Alcoholic Beverage; Arrest Date 05/21/2025;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/62.png</t>
+  </si>
+  <si>
+    <t>MINKEL, SHAYLA FAWN</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 05/20/2025; Bond - NO BOND HOLD; Set By Judge Yellow Hawk;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/63.png</t>
+  </si>
+  <si>
+    <t>MORGAN, JACOB</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 05/20/2025; Bond - Cash Bond, $250.00; Set By Judge Little Hawk;&lt;br /&gt;Court Order for Oglala Sioux Tribal Court; Arrest Date 05/20/2025; Bond - NO BOND HOLD;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/64.png</t>
+  </si>
+  <si>
+    <t>MORGAN, RUNNING HORSE ALAN JR</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 05/20/2025; Bond - NO BOND HOLD; Set By Judge Little Hawk;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/65.png</t>
+  </si>
+  <si>
+    <t>OLD HORSE, FLOYD DOMINGO</t>
+  </si>
+  <si>
+    <t>02/08/2025</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 02/08/2025; Bond - Detainment Order; Set By Judge Bear Runner;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/66.png</t>
+  </si>
+  <si>
+    <t>OLD HORSE, JEREMY LEE</t>
+  </si>
+  <si>
+    <t>01/25/2025</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 01/25/2025; Bond - Cash Bond, $5000.00; Set By Judge Little Hawk;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/67.png</t>
+  </si>
+  <si>
+    <t>OLD HORSE, ROBERT WAYNE</t>
+  </si>
+  <si>
+    <t>04/05/2025</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 04/05/2025; Bond - Cash Bond, $1500.00; Set By Judge Bear Runner;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/68.png</t>
+  </si>
+  <si>
+    <t>PACKED, GEDDY LEE</t>
+  </si>
+  <si>
+    <t>Temporary Commitment Hold for Oglala Sioux Tribal Court; Arrest Date 05/03/2025; Bond - NO BOND HOLD; Set By Judge Yellow Hawk;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/69.png</t>
+  </si>
+  <si>
+    <t>PAWNEE LEGGINGS, JOSEPH DAVID</t>
+  </si>
+  <si>
+    <t>05/15/2025</t>
+  </si>
+  <si>
+    <t>Warrant: Involuntary Commitment Hold warrant CIV-25-2187 issued by Oglala Lakota, SD; Arrest Date 05/15/2025; Bond - NON - BONDABLE; Set By Warrant;&lt;br /&gt;Intoxication: 03-01 - Intoxication/Protective Custody; Arrest Date 05/15/2025;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/70.png</t>
+  </si>
+  <si>
+    <t>PELTIER, EDWARD JOHN</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 04/15/2025; Bond - NO BOND HOLD; Set By Judge Bear Runner;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/71.png</t>
+  </si>
+  <si>
+    <t>PENDLETON, DENNIS WILLIAM</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/72.png</t>
+  </si>
+  <si>
+    <t>PIPE ON HEAD, BRANDON JAMES</t>
+  </si>
+  <si>
+    <t>04/24/2025</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 04/24/2025; Bond - Cash Bond, $2000.00; Set By Judge Bear Runner;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/73.png</t>
+  </si>
+  <si>
+    <t>PLENTY ARROWS, SAMUEL LUCAS</t>
+  </si>
+  <si>
+    <t>Charge: 802 - Domestic Violence / Abuse; Arrest Date 05/10/2025; Bond - Cash Bond, $500.00; Set By Judge Yellow Hawk;&lt;br /&gt;Charge: 538 - Sale and Possession of an Alcoholic Beverage; Arrest Date 05/10/2025; Bond - Cash Bond; Set By Judge Yellow Hawk;&lt;br /&gt;Warrant: Bench warrant CRI-23-0690K issued by Oglala Lakota, SD; Arrest Date 05/10/2025; Bond - NON - BONDABLE; Set By Warrant;&lt;br /&gt;Warrant: Bench warrant CRI-23-0650K issued by Oglala Lakota, SD; Arrest Date 05/10/2025; Bond - NON - BONDABLE; Set By Warrant;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/74.png</t>
+  </si>
+  <si>
+    <t>POURIER, LOUIS WAYNE</t>
+  </si>
+  <si>
+    <t>04/29/2025</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 04/29/2025; Bond - Temporary Commitment Order; Set By Judge Bear Runner;&lt;br /&gt;Court Order for Oglala Sioux Tribal Court; Arrest Date 04/29/2025; Bond - NO BOND HOLD; Set By Judge Bear Runner;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/75.png</t>
+  </si>
+  <si>
+    <t>PULLIAM, KELLY WADE</t>
+  </si>
+  <si>
+    <t>04/26/2025</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 04/26/2025; Bond - Cash Bond, $750.00; Set By Judge Bear Runner;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/76.png</t>
+  </si>
+  <si>
+    <t>RED CLOUD, DONOVAN DWAYNE SR.</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 05/18/2025; Bond - Cash Bond, $2000.00; Set By Judge Bear Runner;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/77.png</t>
+  </si>
+  <si>
+    <t>RED CLOUD, OHITIKA WAYNE</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 04/22/2025; Bond - NO BOND HOLD;&lt;br /&gt;Order of Commitment: Serving 30 days - Consecutive; Arrest Date 04/22/2025; Set By Judge Bear Runner;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/78.png</t>
+  </si>
+  <si>
+    <t>RED SHIRT, ROBERT JAMES JR.</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribe Department of Public Safety; Bond - Cash Bond, $3000.00; Set By Judge Little Hawk;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/79.png</t>
+  </si>
+  <si>
+    <t>RED WING, STORMY STAR</t>
+  </si>
+  <si>
+    <t>03/05/2025</t>
+  </si>
+  <si>
+    <t>Additional Hold for Oglala Sioux Tribal Court; Arrest Date 03/05/2025;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/80.png</t>
+  </si>
+  <si>
+    <t>RICHARD, AUSTIN JAMES</t>
+  </si>
+  <si>
+    <t>Charge: 503 - Disorderly Conduct; Arrest Date 05/16/2025; Bond - Cash Bail Bond, $50.00;&lt;br /&gt;Charge: 428 - Obstructing Justice; Arrest Date 05/16/2025; Bond - NON - BONDABLE; Set By Tribal Bond Schedule;&lt;br /&gt;Charge: 430 - Resisting Lawful Arrest; Arrest Date 05/16/2025; Bond - Cash Bond, $250.00; Set By Judge Little Hawk;&lt;br /&gt;Charge: 636 - Eluding Police Vehicle; Arrest Date 05/16/2025; Bond - Cash Bond, $250.00; Set By Judge Little Hawk;&lt;br /&gt;Charge: 538 - Sale and Possession of an Alcoholic Beverage; Arrest Date 05/16/2025;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/81.png</t>
+  </si>
+  <si>
+    <t>RICHARD, JONAS SAMUEL</t>
+  </si>
+  <si>
+    <t>05/17/2025</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 05/17/2025; Bond - Cash Bond, $2000.00; Set By Judge Little Hawk;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/82.png</t>
+  </si>
+  <si>
+    <t>RICHARDS, LARRY JOSEPH JR</t>
+  </si>
+  <si>
+    <t>01/27/2025</t>
+  </si>
+  <si>
+    <t>Federal Detainer: Arrest warrant  issued by Oglala Lakota, SD; Arrest Date 01/27/2025; Bond - Detainment Order;&lt;br /&gt;Order of Commitment: Serving 151 days - Concurrent; Arrest Date 01/27/2025;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/83.png</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ, MYRNA LOUISE</t>
+  </si>
+  <si>
+    <t>05/07/2025</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 05/07/2025; Bond - NO BOND HOLD;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/84.png</t>
+  </si>
+  <si>
+    <t>SLOW BEAR, MYRA JENA ROSE</t>
+  </si>
+  <si>
+    <t>03/28/2025</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 03/28/2025; Bond - Cash Bond, $3000.00; Set By Judge Little Hawk;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/85.png</t>
+  </si>
+  <si>
+    <t>SPOTTED BEAR, THOMAS</t>
+  </si>
+  <si>
+    <t>Order of Commitment: Serving 183 days - Concurrent; Arrest Date 04/15/2025;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/86.png</t>
+  </si>
+  <si>
+    <t>STANDING SOLDIER, DARRELYN</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 03/11/2025; Bond - Cash Bond, $1000.00; Set By Judge Little Hawk;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/87.png</t>
+  </si>
+  <si>
+    <t>SUN BEAR-ROWLAND, ALLIE RAE</t>
+  </si>
+  <si>
+    <t>03/18/2025</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 03/18/2025; Bond - Cash Bond, $500.00; Set By Judge Bear Runner;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/88.png</t>
+  </si>
+  <si>
+    <t>TAIL, ETHAN JEROME</t>
+  </si>
+  <si>
+    <t>04/19/2025</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 04/19/2025; Bond - Cash Bond, $750.00; Set By Judge Little Hawk;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/89.png</t>
+  </si>
+  <si>
+    <t>TALLMAN, LONNIE CHARLES</t>
+  </si>
+  <si>
+    <t>10/29/2024</t>
+  </si>
+  <si>
+    <t>Order of Commitment: Serving 699 days - Concurrent; Arrest Date 10/29/2024; Set By Judge Little Hawk;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/90.png</t>
+  </si>
+  <si>
+    <t>THUNDER BULL, WESLEY REED</t>
+  </si>
+  <si>
+    <t>03/10/2025</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 03/10/2025; Bond - NO BOND HOLD; Set By Judge Little Hawk;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/91.png</t>
+  </si>
+  <si>
+    <t>THUNDER HAWK, TIMOTHY SEAN</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 05/16/2025; Bond - Cash Bond, $2000.00; Set By Judge Bear Runner;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/92.png</t>
+  </si>
+  <si>
+    <t>TRAVERSIE, GAGE LAVITICUS</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 04/29/2025; Bond - Cash Bond, $3000.00; Set By Judge Yellow Hawk;&lt;br /&gt;Order of Commitment: Serving 30 days - Concurrent; Arrest Date 04/29/2025; Bond - NON - BONDABLE;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/93.png</t>
+  </si>
+  <si>
+    <t>TRUEBLOOD, KIYA RAE</t>
+  </si>
+  <si>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 05/16/2025; Bond - Cash Bond, $2000.00; Set By Judge Little Hawk;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/94.png</t>
+  </si>
+  <si>
+    <t>TWO BULLS - REEDS, DAWN ROSE</t>
+  </si>
+  <si>
+    <t>Order of Commitment: Serving 320 days - Concurrent; Arrest Date 05/01/2025; Bond - Detainment Order;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/95.png</t>
+  </si>
+  <si>
+    <t>TWO CROW, GERALD THEODORE III</t>
   </si>
   <si>
     <t>03/31/2025</t>
   </si>
   <si>
-    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 03/31/2025; Bond - Cash Bond, $500.00; Set By Judge Bear Runner;&lt;br /&gt;Court Order for Oglala Sioux Tribal Court; Arrest Date 03/31/2025; Bond - NO BOND HOLD; Set By Judge Little Hawk;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/31.png</t>
-  </si>
-  <si>
-    <t>HARVEY, JACOB EDWARD</t>
-  </si>
-  <si>
-    <t>04/13/2025</t>
-  </si>
-  <si>
-    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 04/13/2025; Bond - Cash Bond, $1500.00; Set By Judge Bear Runner;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/32.png</t>
-  </si>
-  <si>
-    <t>HATCHETT, CHRISTOPHER JAMES JR</t>
-  </si>
-  <si>
-    <t>01/05/2025</t>
-  </si>
-  <si>
-    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 01/05/2025; Bond - NO BOND HOLD; Set By Judge Little Hawk;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/33.png</t>
-  </si>
-  <si>
-    <t>HOLLOW HORN, CHAYTON ISNALA HOKSICA</t>
-  </si>
-  <si>
-    <t>Order of Commitment: Serving 57 days - Concurrent; Arrest Date 04/13/2025; Bond - NON - BONDABLE; Set By Judge Bear Runner;&lt;br /&gt;Court Order for Oglala Sioux Tribal Court; Arrest Date 04/12/2025; Bond - NO BOND HOLD; Set By Judge Little Hawk;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/34.png</t>
-  </si>
-  <si>
-    <t>HOUSTON, ARRAYA DAWN</t>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 03/31/2025; Bond - Cash Bond, $1000.00; Set By Judge Yellow Hawk;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/96.png</t>
+  </si>
+  <si>
+    <t>TWO CROW, KAYLEE OLIVIA</t>
+  </si>
+  <si>
+    <t>Charge: 111 - Breaking and Entering; Arrest Date 05/23/2025; Bond - Cash Bail Bond, $150.00; Set By Tribal Bond Schedule;&lt;br /&gt;Charge: 538 - Sale and Possession of an Alcoholic Beverage; Arrest Date 05/23/2025; Bond - Cash Bail Bond, $50.00; Set By Tribal Bond Schedule;&lt;br /&gt;Charge: 503 - Disorderly Conduct; Arrest Date 05/23/2025; Bond - Cash Bail Bond, $50.00; Set By Tribal Bond Schedule;&lt;br /&gt;Charge: 505 - Public Nuisance; Arrest Date 05/23/2025; Bond - Cash Bail Bond, $50.00; Set By Tribal Bond Schedule;</t>
+  </si>
+  <si>
+    <t>TWO DOGS, ROBERT LEE JR.</t>
   </si>
   <si>
     <t>05/19/2025</t>
   </si>
   <si>
-    <t>Charge: 209 - Child Endangerment in the First Degree - 3 Counts; Arrest Date 05/19/2025; Bond - NON - BONDABLE, $0.00; Set By Tribal Bond Schedule;&lt;br /&gt;Charge: 538 - Sale and Possession of an Alcoholic Beverage; Arrest Date 05/19/2025; Bond - $0.00;&lt;br /&gt;Charge: 503 - Disorderly Conduct; Arrest Date 05/19/2025; Bond - $0.00;&lt;br /&gt;Charge: 218 - Elder Abuse / Dependent Adult Abuse; Arrest Date 05/19/2025;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/35.png</t>
-  </si>
-  <si>
-    <t>IRON HORSE, NICHOLAS PAUL</t>
-  </si>
-  <si>
-    <t>04/15/2025</t>
-  </si>
-  <si>
-    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 04/15/2025; Bond - Cash Bond, $1000.00; Set By Judge Bear Runner;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/36.png</t>
-  </si>
-  <si>
-    <t>IRON TEETH, MARVIN JAYDEN</t>
-  </si>
-  <si>
-    <t>03/24/2025</t>
-  </si>
-  <si>
-    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 03/24/2025; Bond - NO BOND HOLD; Set By Judge Little Hawk;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/37.png</t>
-  </si>
-  <si>
-    <t>JANIS, JEFFREY LYNN JR.</t>
-  </si>
-  <si>
-    <t>05/04/2025</t>
-  </si>
-  <si>
-    <t>Charge: 538 - Sale and Possession of an Alcoholic Beverage; Arrest Date 05/04/2025; Bond - Cash Bail Bond, $50.00; Set By Tribal Bond Schedule;&lt;br /&gt;Charge: 802 - Domestic Violence / Abuse; Arrest Date 05/04/2025; Bond - Cash Bond, $500.00; Set By Judge Yellow Hawk;&lt;br /&gt;Warrant: Pickup Orders warrant CIV-25-2211 issued by Oglala Lakota, SD; Arrest Date 05/04/2025; Bond - NON - BONDABLE; Set By Warrant;&lt;br /&gt;Warrant: Involuntary Commitment Hold warrant CIV-25-2186 issued by Oglala Lakota, SD; Arrest Date 05/04/2025; Bond - TEMPORARY COMMITMENT ORDER; Set By Warrant;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/38.png</t>
-  </si>
-  <si>
-    <t>JANIS - JUMPING EAGLE, CHRISTIAN LYNN</t>
-  </si>
-  <si>
-    <t>02/13/2025</t>
-  </si>
-  <si>
-    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 02/13/2025; Bond - Cash Bond, $500.00; Set By Judge Bear Runner;&lt;br /&gt;Order of Commitment: Serving 365 days - Concurrent; Arrest Date 02/13/2025;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/39.png</t>
-  </si>
-  <si>
-    <t>JANIS, LEO THOMAS SR.</t>
-  </si>
-  <si>
-    <t>01/04/2025</t>
-  </si>
-  <si>
-    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 01/04/2025; Bond - NO BOND HOLD, $0.00; Set By Judge Little Hawk;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/40.png</t>
-  </si>
-  <si>
-    <t>JANIS, SYLAS ANTHONY</t>
-  </si>
-  <si>
-    <t>05/01/2025</t>
-  </si>
-  <si>
-    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 05/01/2025; Bond - NO BOND HOLD; Set By Judge Bear Runner;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/41.png</t>
-  </si>
-  <si>
-    <t>KERBAUGH, KRISTOPHER JOHN JR</t>
-  </si>
-  <si>
-    <t>04/04/2025</t>
-  </si>
-  <si>
-    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 04/04/2025; Bond - NO BOND HOLD; Set By Judge Bear Runner;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/42.png</t>
-  </si>
-  <si>
-    <t>LAMONT, COURTNEY BELVA MARIE</t>
-  </si>
-  <si>
-    <t>04/28/2025</t>
-  </si>
-  <si>
-    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 04/28/2025; Bond - Detainment Order; Set By Judge Bear Runner;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/43.png</t>
-  </si>
-  <si>
-    <t>LAMONT, SHALER DUANE</t>
-  </si>
-  <si>
-    <t>02/16/2025</t>
-  </si>
-  <si>
-    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 02/16/2025; Bond - Cash Bond, $1000.00; Set By Judge Little Hawk;&lt;br /&gt;Order of Commitment: Serving 375 days - Concurrent; Arrest Date 02/16/2025; Bond - NON - BONDABLE; Set By Judge Little Hawk;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/44.png</t>
-  </si>
-  <si>
-    <t>LITTLE BEAR, LAWRENCE EDMIN JR.</t>
-  </si>
-  <si>
-    <t>03/07/2025</t>
-  </si>
-  <si>
-    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 03/07/2025; Bond - NO BOND HOLD; Set By Judge Little Hawk;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/45.png</t>
-  </si>
-  <si>
-    <t>LITTLE MOON, RUEBEN JAMES</t>
-  </si>
-  <si>
-    <t>Order of Commitment: Serving 184 days - Concurrent; Arrest Date 05/10/2025; Bond - Detainment Order; Set By Judge Bordeaux;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/46.png</t>
-  </si>
-  <si>
-    <t>LITTLE, RICHARD DEAN JR.</t>
-  </si>
-  <si>
-    <t>11/02/2024</t>
-  </si>
-  <si>
-    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 11/02/2024; Bond - PAY OR SERVE FINE, $570.00; Set By Judge Bear Runner;&lt;br /&gt;Court Order for Oglala Sioux Tribal Court; Arrest Date 09/09/2024; Bond - Temporary Commitment Order; Set By Judge Youpee;&lt;br /&gt;Order of Commitment: Serving 365 days - Concurrent; Arrest Date 09/09/2024; Bond - Detainment Order; Set By Judge Little Hawk;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/47.png</t>
-  </si>
-  <si>
-    <t>LITTLE, ROBERT JAMES</t>
-  </si>
-  <si>
-    <t>04/03/2025</t>
-  </si>
-  <si>
-    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 04/03/2025; Bond - NO BOND HOLD, $0.00; Set By Judge Little Hawk;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/48.png</t>
-  </si>
-  <si>
-    <t>LITTLE, WALLACE GENE</t>
-  </si>
-  <si>
-    <t>03/26/2025</t>
-  </si>
-  <si>
-    <t>Charge: 503 - Disorderly Conduct; Arrest Date 03/26/2025; Bond - Cash Bail Bond, $50.00; Set By Tribal Bond Schedule;&lt;br /&gt;Charge: 504 - Harassment; Arrest Date 03/26/2025; Bond - NON - BONDABLE, $0.00; Set By Tribal Bond Schedule;&lt;br /&gt;Charge: 430 - Resisting Lawful Arrest; Arrest Date 03/26/2025; Bond - Cash Bond, $175.00; Set By Judge Bear Runner;&lt;br /&gt;Charge: 218 - Elder Abuse / Dependent Adult Abuse; Arrest Date 03/26/2025; Bond - Cash Bond, $175.00; Set By Judge Bear Runner;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/49.png</t>
-  </si>
-  <si>
-    <t>LITTLE WHITEMAN, ALOYSIUS PYE III</t>
-  </si>
-  <si>
-    <t>Court Order for Oglala Sioux Tribal Court; Bond - Cash Bond, $1000.00; Set By Judge Little Hawk;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/50.png</t>
-  </si>
-  <si>
-    <t>LITTLE WHITEMAN, AUTUMN RAYNE</t>
-  </si>
-  <si>
-    <t>04/30/2025</t>
-  </si>
-  <si>
-    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 04/30/2025; Bond - Cash Bond, $750.00; Set By Judge Yellow Hawk;&lt;br /&gt;Court Order for Oglala Sioux Tribal Court; Arrest Date 04/30/2025; Bond - NO BOND HOLD; Set By Tribal Bond Schedule;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/51.png</t>
-  </si>
-  <si>
-    <t>LONG SOLDIER, DASHAWN LOUIS</t>
-  </si>
-  <si>
-    <t>12/03/2023</t>
-  </si>
-  <si>
-    <t>Order of Commitment: Serving 731 days - Concurrent; Arrest Date 12/03/2023; Bond - Detainment Order; Set By Judge Little Hawk;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/52.png</t>
-  </si>
-  <si>
-    <t>LONG WOLF, ARLYN GRANT</t>
-  </si>
-  <si>
-    <t>Warrant: Involuntary Commitment Hold warrant CIV-22-2537; Arrest Date 05/14/2025; Bond - Temporary Commitment Order; Set By Warrant;</t>
-  </si>
-  <si>
-    <t>MARTIN, DUANE ANTHONY JR.</t>
-  </si>
-  <si>
-    <t>Charge: 605 (a) - Driving While Intoxicated; Arrest Date 05/19/2025; Bond - NON - BONDABLE;&lt;br /&gt;Charge: 204 - Verbal or Written Assault; Arrest Date 05/19/2025; Bond - $0.00;&lt;br /&gt;Charge: 538 - Sale and Possession of an Alcoholic Beverage; Arrest Date 05/19/2025; Bond - $0.00;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/54.png</t>
-  </si>
-  <si>
-    <t>MESTETH, COLE</t>
-  </si>
-  <si>
-    <t>05/17/2025</t>
-  </si>
-  <si>
-    <t>Charge: 605 (a) - Driving While Intoxicated; Arrest Date 05/17/2025; Bond - NON - BONDABLE; Set By Tribal Bond Schedule;&lt;br /&gt;Intoxication: 03-01 - Intoxication/Protective Custody; Arrest Date 05/17/2025;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/55.png</t>
-  </si>
-  <si>
-    <t>MESTETH, LONNIE ANTHONY</t>
-  </si>
-  <si>
-    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 05/04/2025; Bond - Cash Bond, $750.00; Set By Judge Bear Runner;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/56.png</t>
-  </si>
-  <si>
-    <t>MINKEL, SHAYLA FAWN</t>
-  </si>
-  <si>
-    <t>Charge: 547 - Drug Paraphernalia; Arrest Date 05/20/2025; Bond - NON - BONDABLE; Set By Tribal Bond Schedule;&lt;br /&gt;Charge: 433 - Failure to Obey a Lawful Order of the Court; Arrest Date 05/20/2025; Bond - NON - BONDABLE; Set By Tribal Bond Schedule;&lt;br /&gt;Charge: 428 - Obstructing Justice; Arrest Date 05/20/2025; Bond - NON - BONDABLE; Set By Tribal Bond Schedule;&lt;br /&gt;Charge: 546 - Simple Possession and Ingestion; Arrest Date 05/20/2025; Bond - NON - BONDABLE; Set By Tribal Bond Schedule;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/57.png</t>
-  </si>
-  <si>
-    <t>MORGAN, JACOB</t>
-  </si>
-  <si>
-    <t>Warrant: Failure to Appear warrant CR-23-1655 issued by Oglala Lakota, SD; Arrest Date 05/20/2025; Bond - NON - BONDABLE; Set By Warrant;</t>
-  </si>
-  <si>
-    <t>MORGAN, RUNNING HORSE ALAN JR</t>
-  </si>
-  <si>
-    <t>Charge: 508 - Aggravated Weapons Offense; Arrest Date 05/20/2025; Bond - NON - BONDABLE; Set By Tribal Bond Schedule;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/59.png</t>
-  </si>
-  <si>
-    <t>MORRISON, KALUP</t>
-  </si>
-  <si>
-    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 05/08/2025; Bond - NO BOND HOLD; Set By Judge Bordeaux;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/60.png</t>
-  </si>
-  <si>
-    <t>OLD HORSE, FLOYD DOMINGO</t>
-  </si>
-  <si>
-    <t>02/08/2025</t>
-  </si>
-  <si>
-    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 02/08/2025; Bond - Detainment Order; Set By Judge Bear Runner;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/61.png</t>
-  </si>
-  <si>
-    <t>OLD HORSE, JEREMY LEE</t>
-  </si>
-  <si>
-    <t>01/25/2025</t>
-  </si>
-  <si>
-    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 01/25/2025; Bond - Cash Bond, $5000.00; Set By Judge Little Hawk;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/62.png</t>
-  </si>
-  <si>
-    <t>OLD HORSE, ROBERT WAYNE</t>
-  </si>
-  <si>
-    <t>04/05/2025</t>
-  </si>
-  <si>
-    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 04/05/2025; Bond - Cash Bond, $1500.00; Set By Judge Bear Runner;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/63.png</t>
-  </si>
-  <si>
-    <t>PACKED, GEDDY LEE</t>
-  </si>
-  <si>
-    <t>Temporary Commitment Hold for Oglala Sioux Tribal Court; Arrest Date 05/03/2025; Bond - NO BOND HOLD; Set By Judge Yellow Hawk;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/64.png</t>
-  </si>
-  <si>
-    <t>PAWNEE LEGGINGS, JOSEPH DAVID</t>
-  </si>
-  <si>
-    <t>05/15/2025</t>
-  </si>
-  <si>
-    <t>Warrant: Involuntary Commitment Hold warrant CIV-25-2187 issued by Oglala Lakota, SD; Arrest Date 05/15/2025; Bond - NON - BONDABLE; Set By Warrant;&lt;br /&gt;Intoxication: 03-01 - Intoxication/Protective Custody; Arrest Date 05/15/2025;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/65.png</t>
-  </si>
-  <si>
-    <t>PELTIER, EDWARD JOHN</t>
-  </si>
-  <si>
-    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 04/15/2025; Bond - NO BOND HOLD; Set By Judge Bear Runner;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/66.png</t>
-  </si>
-  <si>
-    <t>PENDLETON, DENNIS WILLIAM</t>
-  </si>
-  <si>
-    <t>Charge: 547 - Drug Paraphernalia; Arrest Date 05/20/2025; Bond - NON - BONDABLE; Set By Tribal Bond Schedule;&lt;br /&gt;Charge: 428 - Obstructing Justice; Arrest Date 05/20/2025; Bond - NON - BONDABLE; Set By Tribal Bond Schedule;&lt;br /&gt;Charge: 546 - Simple Possession and Ingestion; Arrest Date 05/20/2025; Bond - NON - BONDABLE; Set By Tribal Bond Schedule;&lt;br /&gt;Charge: 433 - Failure to Obey a Lawful Order of the Court; Arrest Date 05/20/2025; Bond - $0.00; Set By Tribal Bond Schedule;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/67.png</t>
-  </si>
-  <si>
-    <t>PIPE ON HEAD, BRANDON JAMES</t>
-  </si>
-  <si>
-    <t>04/24/2025</t>
-  </si>
-  <si>
-    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 04/24/2025; Bond - Cash Bond, $2000.00; Set By Judge Bear Runner;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/68.png</t>
-  </si>
-  <si>
-    <t>PLENTY ARROWS, SAMUEL LUCAS</t>
-  </si>
-  <si>
-    <t>Charge: 802 - Domestic Violence / Abuse; Arrest Date 05/10/2025; Bond - Cash Bond, $500.00; Set By Judge Yellow Hawk;&lt;br /&gt;Charge: 538 - Sale and Possession of an Alcoholic Beverage; Arrest Date 05/10/2025; Bond - Cash Bond; Set By Judge Yellow Hawk;&lt;br /&gt;Warrant: Bench warrant CRI-23-0690K issued by Oglala Lakota, SD; Arrest Date 05/10/2025; Bond - NON - BONDABLE; Set By Warrant;&lt;br /&gt;Warrant: Bench warrant CRI-23-0650K issued by Oglala Lakota, SD; Arrest Date 05/10/2025; Bond - NON - BONDABLE; Set By Warrant;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/69.png</t>
-  </si>
-  <si>
-    <t>POOR BEAR/RUNNING SHIELD, TYGER JAMES</t>
-  </si>
-  <si>
-    <t>Warrant: Failure to Appear warrant CR-24-0412 issued by Oglala Lakota, SD; Arrest Date 05/08/2025; Bond - Cash Bond, $200.00; Set By Judge Bordeaux;&lt;br /&gt;Charge: 538 - Sale and Possession of an Alcoholic Beverage; Arrest Date 05/08/2025; Bond - $0.00;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/70.png</t>
-  </si>
-  <si>
-    <t>POURIER, LOUIS WAYNE</t>
-  </si>
-  <si>
-    <t>04/29/2025</t>
-  </si>
-  <si>
-    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 04/29/2025; Bond - Temporary Commitment Order; Set By Judge Bear Runner;&lt;br /&gt;Court Order for Oglala Sioux Tribal Court; Arrest Date 04/29/2025; Bond - NO BOND HOLD; Set By Judge Bear Runner;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/71.png</t>
-  </si>
-  <si>
-    <t>PULLIAM, KELLY WADE</t>
-  </si>
-  <si>
-    <t>04/26/2025</t>
-  </si>
-  <si>
-    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 04/26/2025; Bond - Cash Bond, $750.00; Set By Judge Bear Runner;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/72.png</t>
-  </si>
-  <si>
-    <t>RED CLOUD, DONOVAN DWAYNE SR.</t>
-  </si>
-  <si>
-    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 05/18/2025; Bond - Cash Bond, $2000.00; Set By Judge Bear Runner;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/73.png</t>
-  </si>
-  <si>
-    <t>RED CLOUD, OHITIKA WAYNE</t>
-  </si>
-  <si>
-    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 04/22/2025; Bond - NO BOND HOLD;&lt;br /&gt;Order of Commitment: Serving 30 days - Consecutive; Arrest Date 04/22/2025; Set By Judge Bear Runner;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/74.png</t>
-  </si>
-  <si>
-    <t>RED CLOUD, TIMOTHY WAYNE</t>
-  </si>
-  <si>
-    <t>05/07/2025</t>
-  </si>
-  <si>
-    <t>Charge: 605 (a) - Driving While Intoxicated; Arrest Date 05/07/2025; Bond - Cash Bond, $375.00; Set By Judge Bear Runner;&lt;br /&gt;Charge: 538 - Sale and Possession of an Alcoholic Beverage; Arrest Date 05/07/2025; Bond - Cash Bond, $375.00; Set By Judge Bear Runner;&lt;br /&gt;Warrant: Traffic warrant TR-24-0859 issued by Oglala Lakota, SD; Arrest Date 05/07/2025; Bond - FINE PAY OR STAY, $25.00; Set By Warrant;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/75.png</t>
-  </si>
-  <si>
-    <t>RED CLOUD, TYRONE DARRELL</t>
-  </si>
-  <si>
-    <t>05/21/2025</t>
-  </si>
-  <si>
-    <t>Intoxication: 03-01 - Intoxication/Protective Custody; Arrest Date 05/21/2025;</t>
-  </si>
-  <si>
-    <t>RED NEST, MICHAEL</t>
-  </si>
-  <si>
-    <t>Charge: 538 - Sale and Possession of an Alcoholic Beverage; Arrest Date 05/18/2025; Bond - $0.00;&lt;br /&gt;Charge: 503 - Disorderly Conduct; Arrest Date 05/18/2025; Bond - $0.00;&lt;br /&gt;Charge: 218 - Elder Abuse / Dependent Adult Abuse; Arrest Date 05/18/2025;&lt;br /&gt;Charge: 430 - Resisting Lawful Arrest; Arrest Date 05/18/2025; Bond - $0.00;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/77.png</t>
-  </si>
-  <si>
-    <t>RED SHIRT, ROBERT JAMES JR.</t>
-  </si>
-  <si>
-    <t>Court Order for Oglala Sioux Tribe Department of Public Safety; Bond - Cash Bond, $3000.00; Set By Judge Little Hawk;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/78.png</t>
-  </si>
-  <si>
-    <t>RED WING, STORMY STAR</t>
-  </si>
-  <si>
-    <t>03/05/2025</t>
-  </si>
-  <si>
-    <t>Additional Hold for Oglala Sioux Tribal Court; Arrest Date 03/05/2025;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/79.png</t>
-  </si>
-  <si>
-    <t>RICHARD, AUSTIN JAMES</t>
-  </si>
-  <si>
-    <t>Charge: 538 - Sale and Possession of an Alcoholic Beverage; Arrest Date 05/16/2025; Bond - Cash Bail Bond, $50.00; Set By Tribal Bond Schedule;&lt;br /&gt;Charge: 503 - Disorderly Conduct; Arrest Date 05/16/2025; Bond - Cash Bail Bond, $50.00;&lt;br /&gt;Charge: 636 - Eluding Police Vehicle; Arrest Date 05/16/2025; Bond - NON - BONDABLE; Set By Tribal Bond Schedule;&lt;br /&gt;Charge: 428 - Obstructing Justice; Arrest Date 05/16/2025; Bond - NON - BONDABLE; Set By Tribal Bond Schedule;&lt;br /&gt;Charge: 430 - Resisting Lawful Arrest; Arrest Date 05/16/2025; Bond - NON - BONDABLE; Set By Tribal Bond Schedule;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/80.png</t>
-  </si>
-  <si>
-    <t>RICHARD, JONAS SAMUEL</t>
-  </si>
-  <si>
-    <t>Charge: 538 - Sale and Possession of an Alcoholic Beverage; Arrest Date 05/17/2025; Bond - $0.00;&lt;br /&gt;Charge: 503 - Disorderly Conduct; Arrest Date 05/17/2025; Bond - $0.00;&lt;br /&gt;Charge: 508 - Aggravated Weapons Offense; Arrest Date 05/17/2025; Bond - $0.00;&lt;br /&gt;Charge: 201 - Assault in the First Degree; Arrest Date 05/17/2025; Bond - $0.00;&lt;br /&gt;Charge: 210 - Child Endangerment in the Second Degree; Arrest Date 05/17/2025; Bond - $0.00;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/81.png</t>
-  </si>
-  <si>
-    <t>RICHARDS, LARRY JOSEPH JR</t>
-  </si>
-  <si>
-    <t>01/27/2025</t>
-  </si>
-  <si>
-    <t>Federal Detainer: Arrest warrant  issued by Oglala Lakota, SD; Arrest Date 01/27/2025; Bond - Detainment Order;&lt;br /&gt;Order of Commitment: Serving 151 days - Concurrent; Arrest Date 01/27/2025;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/82.png</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ, MYRNA LOUISE</t>
-  </si>
-  <si>
-    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 05/07/2025; Bond - NO BOND HOLD;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/83.png</t>
-  </si>
-  <si>
-    <t>SIOUX BOB, MICHAEL JOSEPH</t>
-  </si>
-  <si>
-    <t>Charge: 605 (a) - Driving While Intoxicated; Arrest Date 05/19/2025; Bond - NON - BONDABLE; Set By Tribal Bond Schedule;&lt;br /&gt;Warrant: Bench warrant TECO-18-0005 issued by Oglala Lakota, SD; Arrest Date 05/19/2025; Bond - NON - BONDABLE; Set By Warrant;&lt;br /&gt;Charge: 538 - Sale and Possession of an Alcoholic Beverage; Arrest Date 05/19/2025; Bond - $0.00;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/84.png</t>
-  </si>
-  <si>
-    <t>SLOW BEAR, MYRA JENA ROSE</t>
-  </si>
-  <si>
-    <t>03/28/2025</t>
-  </si>
-  <si>
-    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 03/28/2025; Bond - Cash Bond, $3000.00; Set By Judge Little Hawk;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/85.png</t>
-  </si>
-  <si>
-    <t>SPOTTED BEAR, THOMAS</t>
-  </si>
-  <si>
-    <t>Order of Commitment: Serving 183 days - Concurrent; Arrest Date 04/15/2025;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/86.png</t>
-  </si>
-  <si>
-    <t>STANDING SOLDIER, DARRELYN</t>
-  </si>
-  <si>
-    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 03/11/2025; Bond - Cash Bond, $1000.00; Set By Judge Little Hawk;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/87.png</t>
-  </si>
-  <si>
-    <t>SUN BEAR-ROWLAND, ALLIE RAE</t>
-  </si>
-  <si>
-    <t>03/18/2025</t>
-  </si>
-  <si>
-    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 03/18/2025; Bond - Cash Bond, $500.00; Set By Judge Bear Runner;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/88.png</t>
-  </si>
-  <si>
-    <t>TAIL, ETHAN JEROME</t>
-  </si>
-  <si>
-    <t>04/19/2025</t>
-  </si>
-  <si>
-    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 04/19/2025; Bond - Cash Bond, $750.00; Set By Judge Little Hawk;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/89.png</t>
-  </si>
-  <si>
-    <t>TALLMAN, LONNIE CHARLES</t>
-  </si>
-  <si>
-    <t>10/29/2024</t>
-  </si>
-  <si>
-    <t>Order of Commitment: Serving 699 days - Concurrent; Arrest Date 10/29/2024; Set By Judge Little Hawk;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/90.png</t>
-  </si>
-  <si>
-    <t>THUNDER BULL, WESLEY REED</t>
-  </si>
-  <si>
-    <t>03/10/2025</t>
-  </si>
-  <si>
-    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 03/10/2025; Bond - NO BOND HOLD; Set By Judge Little Hawk;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/91.png</t>
-  </si>
-  <si>
-    <t>THUNDER HAWK, TIMOTHY SEAN</t>
-  </si>
-  <si>
-    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 05/16/2025; Bond - Cash Bond, $2000.00; Set By Judge Bear Runner;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/92.png</t>
-  </si>
-  <si>
-    <t>TITUS, FEATHER DAWN</t>
-  </si>
-  <si>
-    <t>TRAVERSIE, GAGE LAVITICUS</t>
-  </si>
-  <si>
-    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 04/29/2025; Bond - Cash Bond, $3000.00; Set By Judge Yellow Hawk;&lt;br /&gt;Order of Commitment: Serving 30 days - Concurrent; Arrest Date 04/29/2025; Bond - NON - BONDABLE;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/94.png</t>
-  </si>
-  <si>
-    <t>TRUEBLOOD, KIYA RAE</t>
-  </si>
-  <si>
-    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 05/16/2025; Bond - Cash Bond, $2000.00; Set By Judge Little Hawk;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/95.png</t>
-  </si>
-  <si>
-    <t>TWO BULLS - REEDS, DAWN ROSE</t>
-  </si>
-  <si>
-    <t>Order of Commitment: Serving 320 days - Concurrent; Arrest Date 05/01/2025; Bond - Detainment Order;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/96.png</t>
-  </si>
-  <si>
-    <t>TWO CROW, GERALD THEODORE III</t>
-  </si>
-  <si>
-    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 03/31/2025; Bond - Cash Bond, $1000.00; Set By Judge Yellow Hawk;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/97.png</t>
-  </si>
-  <si>
-    <t>TWO DOGS, ROBERT LEE JR.</t>
-  </si>
-  <si>
-    <t>Charge: 605 (a) - Driving While Intoxicated; Arrest Date 05/19/2025; Bond - NON - BONDABLE; Set By Tribal Bond Schedule;&lt;br /&gt;Warrant: Bench warrant CR-25-0005 issued by Oglala Lakota, SD; Arrest Date 05/19/2025; Bond - NON - BONDABLE; Set By Warrant;</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/bucket/98.png</t>
+    <t>Warrant: Bench warrant CR-25-0005 issued by Oglala Lakota, SD; Arrest Date 05/19/2025; Bond - NON - BONDABLE; Set By Warrant;&lt;br /&gt;Charge: 605 (a) - Driving While Intoxicated; Arrest Date 05/19/2025; Bond - Cash Bond, $500.00; Set By Judge Little Hawk;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/98.png</t>
   </si>
   <si>
     <t>WALKING EAGLE, BRYAN LOUIS</t>
@@ -1090,7 +1072,7 @@
     <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 05/06/2025; Bond - NO BOND HOLD; Set By Judge Bear Runner;</t>
   </si>
   <si>
-    <t>http://localhost:3000/bucket/99.png</t>
+    <t>http://154.57.218.100:3000/bucket/99.png</t>
   </si>
   <si>
     <t>WATERS, ALAN SHELDON JR.</t>
@@ -1102,7 +1084,7 @@
     <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 05/05/2025; Bond - Cash Bond, $500.00; Set By Judge Little Hawk;</t>
   </si>
   <si>
-    <t>http://localhost:3000/bucket/100.png</t>
+    <t>http://154.57.218.100:3000/bucket/100.png</t>
   </si>
   <si>
     <t>WATERS, CALVIN VERN</t>
@@ -1111,7 +1093,7 @@
     <t>Order of Commitment: Serving 365 days - Concurrent; Arrest Date 04/19/2025; Bond - Detainment Order; Set By Judge Bordeaux;</t>
   </si>
   <si>
-    <t>http://localhost:3000/bucket/101.png</t>
+    <t>http://154.57.218.100:3000/bucket/101.png</t>
   </si>
   <si>
     <t>WATERS, FREDRICK NORMAN</t>
@@ -1120,7 +1102,7 @@
     <t>Order of Commitment: Serving 30 days - Concurrent; Arrest Date 05/04/2025; Bond - Temporary Commitment Order; Set By Judge Bear Runner;</t>
   </si>
   <si>
-    <t>http://localhost:3000/bucket/102.png</t>
+    <t>http://154.57.218.100:3000/bucket/102.png</t>
   </si>
   <si>
     <t>WESTON, LACEY LYN</t>
@@ -1129,7 +1111,7 @@
     <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 05/06/2025;</t>
   </si>
   <si>
-    <t>http://localhost:3000/bucket/103.png</t>
+    <t>http://154.57.218.100:3000/bucket/103.png</t>
   </si>
   <si>
     <t>WHITE BULL, FERRIS LEROY JR.</t>
@@ -1141,7 +1123,7 @@
     <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 03/29/2025; Bond - Cash Bond, $750.00; Set By Judge Little Hawk;&lt;br /&gt;Court Order for Oglala Sioux Tribe Department of Public Safety; Arrest Date 03/29/2025; Bond - Cash Bond, $750.00; Set By Judge Little Hawk;</t>
   </si>
   <si>
-    <t>http://localhost:3000/bucket/104.png</t>
+    <t>http://154.57.218.100:3000/bucket/104.png</t>
   </si>
   <si>
     <t>WHITE BUTTERFLY, DAJA</t>
@@ -1153,13 +1135,16 @@
     <t>Court Order for Adult Offenders Facility; Arrest Date 04/14/2025; Bond - Cash Bond, $1000.00; Set By Judge Bear Runner;&lt;br /&gt;Court Order for Oglala Sioux Tribal Court; Arrest Date 04/14/2025; Bond - NON - BONDABLE; Set By Judge Bear Runner;</t>
   </si>
   <si>
-    <t>http://localhost:3000/bucket/105.png</t>
+    <t>http://154.57.218.100:3000/bucket/105.png</t>
   </si>
   <si>
     <t>WHITE FACE, ALEXANDER CORNELIUS</t>
   </si>
   <si>
-    <t>Warrant: Bench warrant CR-24-0591 issued by Oglala Lakota, SD; Arrest Date 05/20/2025; Bond - NON - BONDABLE; Set By Warrant;&lt;br /&gt;Charge: 538 - Sale and Possession of an Alcoholic Beverage; Arrest Date 05/20/2025; Bond - $0.00;</t>
+    <t>Order of Commitment: Serving 30 days - Concurrent; Arrest Date 05/20/2025; Bond - Temporary Commitment Order; Set By Judge Little Hawk;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/106.png</t>
   </si>
   <si>
     <t>WHITE FACE-KILLS ENEMY, MAKAYLA ROSE</t>
@@ -1168,7 +1153,7 @@
     <t>Order of Commitment: Serving 184 days - Concurrent; Arrest Date 05/13/2025;</t>
   </si>
   <si>
-    <t>http://localhost:3000/bucket/107.png</t>
+    <t>http://154.57.218.100:3000/bucket/107.png</t>
   </si>
   <si>
     <t>WHITE MAGPIE, MEGAN ELLEN</t>
@@ -1180,7 +1165,16 @@
     <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 05/04/2024; Bond - Detainment Order, $0.00; Set By Judge Bear Runner;</t>
   </si>
   <si>
-    <t>http://localhost:3000/bucket/108.png</t>
+    <t>http://154.57.218.100:3000/bucket/108.png</t>
+  </si>
+  <si>
+    <t>WHITE PLUME, THEODORE WADE</t>
+  </si>
+  <si>
+    <t>Charge: 209 - Child Endangerment in the First Degree; Arrest Date 05/22/2025; Bond - NON - BONDABLE, $0.00; Set By Tribal Bond Schedule;&lt;br /&gt;Charge: 503 - Disorderly Conduct; Arrest Date 05/22/2025;&lt;br /&gt;Charge: 538 - Sale and Possession of an Alcoholic Beverage; Arrest Date 05/22/2025;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/109.png</t>
   </si>
   <si>
     <t>WILSON, TIMMY LIEGH</t>
@@ -1192,7 +1186,7 @@
     <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 01/16/2025; Bond - NO BOND HOLD; Set By Judge Little Hawk;</t>
   </si>
   <si>
-    <t>http://localhost:3000/bucket/109.png</t>
+    <t>http://154.57.218.100:3000/bucket/110.png</t>
   </si>
   <si>
     <t>WINTERS, LEO JOSEPH</t>
@@ -1201,7 +1195,7 @@
     <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 10/29/2024; Bond - NON - BONDABLE; Set By Judge Bear Runner;</t>
   </si>
   <si>
-    <t>http://localhost:3000/bucket/110.png</t>
+    <t>http://154.57.218.100:3000/bucket/111.png</t>
   </si>
   <si>
     <t>WOUNDED HEAD, CALEB JOHN</t>
@@ -1213,7 +1207,7 @@
     <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 04/20/2025; Bond - Cash Bond, $1000.00; Set By Judge Bear Runner;</t>
   </si>
   <si>
-    <t>http://localhost:3000/bucket/111.png</t>
+    <t>http://154.57.218.100:3000/bucket/112.png</t>
   </si>
   <si>
     <t>YELLOW BOY, DARRIN OLEN</t>
@@ -1222,19 +1216,46 @@
     <t>Charge: 802 - Domestic Violence / Abuse; Arrest Date 05/21/2025; Bond - NON - BONDABLE; Set By Tribal Bond Schedule;&lt;br /&gt;Charge: 204 - Verbal or Written Assault; Arrest Date 05/21/2025; Bond - $0.00;&lt;br /&gt;Charge: 104 - Criminal Mischief; Arrest Date 05/21/2025; Bond - $0.00;</t>
   </si>
   <si>
+    <t>http://154.57.218.100:3000/bucket/113.png</t>
+  </si>
+  <si>
     <t>YELLOW BOY, SOPHIA LYNE</t>
   </si>
   <si>
     <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 03/10/2025; Bond - Cash Bond, $1000.00; Set By Judge Little Hawk;&lt;br /&gt;Order of Commitment: Serving 92 days - Concurrent; Arrest Date 03/10/2025;</t>
   </si>
   <si>
-    <t>http://localhost:3000/bucket/113.png</t>
+    <t>http://154.57.218.100:3000/bucket/114.png</t>
+  </si>
+  <si>
+    <t>YELLOW HAIR, LUKE JOHN</t>
+  </si>
+  <si>
+    <t>YELLOW HORSE-ROMERO, ANGELINE JULIE</t>
+  </si>
+  <si>
+    <t>Charge: 209 - Child Endangerment in the First Degree; Arrest Date 05/23/2025; Bond - NON - BONDABLE, $0.00; Set By Tribal Bond Schedule;&lt;br /&gt;Charge: 538 - Sale and Possession of an Alcoholic Beverage; Arrest Date 05/23/2025;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/116.png</t>
   </si>
   <si>
     <t>YELLOW SHIELD, TREVOR EUGENE</t>
   </si>
   <si>
-    <t>Warrant: Bench warrant CR-24-1640 issued by Oglala Lakota, SD; Arrest Date 05/20/2025; Bond - NON - BONDABLE; Set By Judge Bear Runner;&lt;br /&gt;Charge: 538 - Sale and Possession of an Alcoholic Beverage; Arrest Date 05/20/2025; Bond - $0.00;&lt;br /&gt;Charge: 503 - Disorderly Conduct; Arrest Date 05/20/2025; Bond - $0.00;</t>
+    <t>Court Order for Oglala Sioux Tribal Court; Arrest Date 05/20/2025; Bond - Cash Bond, $1000.00; Set By Judge Little Hawk;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/117.png</t>
+  </si>
+  <si>
+    <t>YOUNG BEAR, MARCY</t>
+  </si>
+  <si>
+    <t>Warrant: Bench warrant CR-24-0043 issued by Oglala Lakota, SD; Arrest Date 05/23/2025; Bond - NON - BONDABLE; Set By Warrant;&lt;br /&gt;Charge: 104 - Criminal Mischief; Arrest Date 05/23/2025; Bond - $0.00;&lt;br /&gt;Charge: 538 - Sale and Possession of an Alcoholic Beverage; Arrest Date 05/23/2025; Bond - $0.00;&lt;br /&gt;Charge: 503 - Disorderly Conduct; Arrest Date 05/23/2025; Bond - $0.00;</t>
+  </si>
+  <si>
+    <t>http://154.57.218.100:3000/bucket/118.png</t>
   </si>
 </sst>
 </file>
@@ -1616,7 +1637,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F115"/>
+  <dimension ref="A1:F119"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -1823,8 +1844,8 @@
       <c r="E10" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>42</v>
+      <c r="F10" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1835,16 +1856,16 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
         <v>43</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>44</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1855,16 +1876,16 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
         <v>47</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>48</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1875,16 +1896,16 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
         <v>51</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>52</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1895,16 +1916,16 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
         <v>55</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>56</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1915,16 +1936,16 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
         <v>59</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>60</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="F15" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1943,8 +1964,8 @@
       <c r="E16" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>65</v>
+      <c r="F16" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1955,10 +1976,10 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" t="s">
         <v>66</v>
-      </c>
-      <c r="D17" t="s">
-        <v>63</v>
       </c>
       <c r="E17" t="s">
         <v>67</v>
@@ -1978,13 +1999,13 @@
         <v>69</v>
       </c>
       <c r="D18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" t="s">
         <v>70</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1995,16 +2016,16 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" t="s">
         <v>73</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>74</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2015,16 +2036,16 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" t="s">
         <v>77</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>78</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2035,16 +2056,16 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" t="s">
         <v>81</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>82</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2055,16 +2076,16 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" t="s">
         <v>85</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>86</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2075,16 +2096,16 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" t="s">
         <v>89</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>90</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2095,16 +2116,16 @@
         <v>6</v>
       </c>
       <c r="C24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" t="s">
         <v>93</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>94</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2115,16 +2136,16 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" t="s">
         <v>97</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>98</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2135,16 +2156,16 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" t="s">
         <v>101</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>102</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2155,16 +2176,16 @@
         <v>6</v>
       </c>
       <c r="C27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" t="s">
         <v>105</v>
       </c>
-      <c r="D27" t="s">
+      <c r="F27" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="E27" t="s">
-        <v>107</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -2175,16 +2196,16 @@
         <v>6</v>
       </c>
       <c r="C28" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" t="s">
         <v>109</v>
       </c>
-      <c r="D28" t="s">
+      <c r="F28" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="E28" t="s">
-        <v>111</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2195,16 +2216,16 @@
         <v>6</v>
       </c>
       <c r="C29" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" t="s">
         <v>113</v>
       </c>
-      <c r="D29" t="s">
-        <v>98</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="F29" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="F29" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2238,7 +2259,7 @@
         <v>119</v>
       </c>
       <c r="D31" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E31" t="s">
         <v>120</v>
@@ -2278,13 +2299,13 @@
         <v>126</v>
       </c>
       <c r="D33" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" t="s">
         <v>127</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2295,16 +2316,16 @@
         <v>6</v>
       </c>
       <c r="C34" t="s">
+        <v>129</v>
+      </c>
+      <c r="D34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" t="s">
         <v>130</v>
       </c>
-      <c r="D34" t="s">
+      <c r="F34" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="E34" t="s">
-        <v>132</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -2315,16 +2336,16 @@
         <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D35" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="E35" t="s">
-        <v>135</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
+      </c>
+      <c r="F35" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2335,16 +2356,16 @@
         <v>6</v>
       </c>
       <c r="C36" t="s">
+        <v>134</v>
+      </c>
+      <c r="D36" t="s">
+        <v>135</v>
+      </c>
+      <c r="E36" t="s">
+        <v>136</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="D36" t="s">
-        <v>138</v>
-      </c>
-      <c r="E36" t="s">
-        <v>139</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2355,16 +2376,16 @@
         <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D37" t="s">
-        <v>142</v>
+        <v>63</v>
       </c>
       <c r="E37" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2375,16 +2396,16 @@
         <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D38" t="s">
-        <v>146</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s">
-        <v>147</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>148</v>
+        <v>41</v>
+      </c>
+      <c r="F38" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2395,16 +2416,16 @@
         <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D39" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E39" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -2415,16 +2436,16 @@
         <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D40" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E40" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2435,16 +2456,16 @@
         <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D41" t="s">
-        <v>158</v>
+        <v>51</v>
       </c>
       <c r="E41" t="s">
-        <v>159</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
+      </c>
+      <c r="F41" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2455,16 +2476,16 @@
         <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D42" t="s">
-        <v>162</v>
+        <v>51</v>
       </c>
       <c r="E42" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2475,16 +2496,16 @@
         <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D43" t="s">
-        <v>166</v>
+        <v>51</v>
       </c>
       <c r="E43" t="s">
-        <v>167</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>168</v>
+        <v>156</v>
+      </c>
+      <c r="F43" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2495,16 +2516,16 @@
         <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D44" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="E44" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2515,16 +2536,16 @@
         <v>6</v>
       </c>
       <c r="C45" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="D45" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="E45" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2535,16 +2556,16 @@
         <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="D46" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="E46" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2555,16 +2576,16 @@
         <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D47" t="s">
-        <v>20</v>
+        <v>169</v>
       </c>
       <c r="E47" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2575,16 +2596,16 @@
         <v>6</v>
       </c>
       <c r="C48" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D48" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="E48" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2595,16 +2616,16 @@
         <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="D49" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E49" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2615,16 +2636,16 @@
         <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="D50" t="s">
-        <v>193</v>
+        <v>51</v>
       </c>
       <c r="E50" t="s">
-        <v>194</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>195</v>
+        <v>181</v>
+      </c>
+      <c r="F50" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2635,16 +2656,16 @@
         <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="D51" t="s">
-        <v>16</v>
+        <v>183</v>
       </c>
       <c r="E51" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2655,16 +2676,16 @@
         <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="D52" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="E52" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2675,16 +2696,16 @@
         <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="D53" t="s">
-        <v>204</v>
+        <v>20</v>
       </c>
       <c r="E53" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2695,16 +2716,16 @@
         <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="D54" t="s">
-        <v>60</v>
+        <v>194</v>
       </c>
       <c r="E54" t="s">
-        <v>208</v>
-      </c>
-      <c r="F54" t="s">
-        <v>16</v>
+        <v>195</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2715,16 +2736,16 @@
         <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="D55" t="s">
-        <v>138</v>
+        <v>198</v>
       </c>
       <c r="E55" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2735,16 +2756,16 @@
         <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="D56" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="E56" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2755,16 +2776,16 @@
         <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="D57" t="s">
-        <v>150</v>
+        <v>206</v>
       </c>
       <c r="E57" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2775,16 +2796,16 @@
         <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D58" t="s">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="E58" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2795,16 +2816,16 @@
         <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D59" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E59" t="s">
-        <v>223</v>
-      </c>
-      <c r="F59" t="s">
-        <v>16</v>
+        <v>214</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2815,16 +2836,16 @@
         <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D60" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="E60" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2835,16 +2856,16 @@
         <v>6</v>
       </c>
       <c r="C61" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D61" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E61" t="s">
-        <v>228</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
+      </c>
+      <c r="F61" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2855,16 +2876,16 @@
         <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D62" t="s">
-        <v>231</v>
+        <v>165</v>
       </c>
       <c r="E62" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2875,16 +2896,16 @@
         <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="D63" t="s">
-        <v>235</v>
+        <v>101</v>
       </c>
       <c r="E63" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2895,16 +2916,16 @@
         <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D64" t="s">
-        <v>239</v>
+        <v>43</v>
       </c>
       <c r="E64" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2915,16 +2936,16 @@
         <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="D65" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="E65" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2935,16 +2956,16 @@
         <v>6</v>
       </c>
       <c r="C66" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="D66" t="s">
-        <v>246</v>
+        <v>43</v>
       </c>
       <c r="E66" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2955,16 +2976,16 @@
         <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="D67" t="s">
-        <v>142</v>
+        <v>237</v>
       </c>
       <c r="E67" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2975,16 +2996,16 @@
         <v>6</v>
       </c>
       <c r="C68" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="D68" t="s">
-        <v>40</v>
+        <v>241</v>
       </c>
       <c r="E68" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2995,16 +3016,16 @@
         <v>6</v>
       </c>
       <c r="C69" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="D69" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="E69" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -3015,16 +3036,16 @@
         <v>6</v>
       </c>
       <c r="C70" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D70" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="E70" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -3035,16 +3056,16 @@
         <v>6</v>
       </c>
       <c r="C71" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="D71" t="s">
-        <v>44</v>
+        <v>252</v>
       </c>
       <c r="E71" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -3055,16 +3076,16 @@
         <v>6</v>
       </c>
       <c r="C72" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D72" t="s">
-        <v>266</v>
+        <v>161</v>
       </c>
       <c r="E72" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -3075,16 +3096,16 @@
         <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="D73" t="s">
-        <v>270</v>
+        <v>43</v>
       </c>
       <c r="E73" t="s">
-        <v>271</v>
+        <v>228</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -3095,16 +3116,16 @@
         <v>6</v>
       </c>
       <c r="C74" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="D74" t="s">
-        <v>24</v>
+        <v>261</v>
       </c>
       <c r="E74" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -3115,16 +3136,16 @@
         <v>6</v>
       </c>
       <c r="C75" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="D75" t="s">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="E75" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -3135,16 +3156,16 @@
         <v>6</v>
       </c>
       <c r="C76" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="D76" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="E76" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -3155,16 +3176,16 @@
         <v>6</v>
       </c>
       <c r="C77" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D77" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="E77" t="s">
-        <v>285</v>
-      </c>
-      <c r="F77" t="s">
-        <v>16</v>
+        <v>273</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -3175,16 +3196,16 @@
         <v>6</v>
       </c>
       <c r="C78" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="D78" t="s">
         <v>24</v>
       </c>
       <c r="E78" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -3195,16 +3216,16 @@
         <v>6</v>
       </c>
       <c r="C79" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="D79" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="E79" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -3215,16 +3236,16 @@
         <v>6</v>
       </c>
       <c r="C80" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="D80" t="s">
-        <v>293</v>
+        <v>16</v>
       </c>
       <c r="E80" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -3235,16 +3256,16 @@
         <v>6</v>
       </c>
       <c r="C81" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="D81" t="s">
-        <v>90</v>
+        <v>285</v>
       </c>
       <c r="E81" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -3255,16 +3276,16 @@
         <v>6</v>
       </c>
       <c r="C82" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="D82" t="s">
-        <v>213</v>
+        <v>93</v>
       </c>
       <c r="E82" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -3275,16 +3296,16 @@
         <v>6</v>
       </c>
       <c r="C83" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="D83" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="E83" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -3295,16 +3316,16 @@
         <v>6</v>
       </c>
       <c r="C84" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="D84" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="E84" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -3315,16 +3336,16 @@
         <v>6</v>
       </c>
       <c r="C85" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D85" t="s">
-        <v>138</v>
+        <v>300</v>
       </c>
       <c r="E85" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -3335,16 +3356,16 @@
         <v>6</v>
       </c>
       <c r="C86" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="D86" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="E86" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -3355,16 +3376,16 @@
         <v>6</v>
       </c>
       <c r="C87" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="D87" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="E87" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -3375,16 +3396,16 @@
         <v>6</v>
       </c>
       <c r="C88" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="D88" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E88" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -3395,16 +3416,16 @@
         <v>6</v>
       </c>
       <c r="C89" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="D89" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="E89" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3415,16 +3436,16 @@
         <v>6</v>
       </c>
       <c r="C90" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="D90" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="E90" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3435,16 +3456,16 @@
         <v>6</v>
       </c>
       <c r="C91" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="D91" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="E91" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3455,16 +3476,16 @@
         <v>6</v>
       </c>
       <c r="C92" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="D92" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="E92" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3475,16 +3496,16 @@
         <v>6</v>
       </c>
       <c r="C93" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="D93" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E93" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3495,16 +3516,16 @@
         <v>6</v>
       </c>
       <c r="C94" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="D94" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="E94" t="s">
-        <v>285</v>
-      </c>
-      <c r="F94" t="s">
-        <v>16</v>
+        <v>333</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3515,16 +3536,16 @@
         <v>6</v>
       </c>
       <c r="C95" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D95" t="s">
-        <v>266</v>
+        <v>93</v>
       </c>
       <c r="E95" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3535,16 +3556,16 @@
         <v>6</v>
       </c>
       <c r="C96" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D96" t="s">
-        <v>90</v>
+        <v>173</v>
       </c>
       <c r="E96" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3555,16 +3576,16 @@
         <v>6</v>
       </c>
       <c r="C97" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="D97" t="s">
-        <v>162</v>
+        <v>342</v>
       </c>
       <c r="E97" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3575,16 +3596,16 @@
         <v>6</v>
       </c>
       <c r="C98" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="D98" t="s">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="E98" t="s">
-        <v>352</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
+      </c>
+      <c r="F98" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3595,16 +3616,16 @@
         <v>6</v>
       </c>
       <c r="C99" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="D99" t="s">
-        <v>138</v>
+        <v>348</v>
       </c>
       <c r="E99" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3615,16 +3636,16 @@
         <v>6</v>
       </c>
       <c r="C100" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D100" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E100" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3635,16 +3656,16 @@
         <v>6</v>
       </c>
       <c r="C101" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D101" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="E101" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3655,16 +3676,16 @@
         <v>6</v>
       </c>
       <c r="C102" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D102" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="E102" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3675,16 +3696,16 @@
         <v>6</v>
       </c>
       <c r="C103" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="D103" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="E103" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3695,16 +3716,16 @@
         <v>6</v>
       </c>
       <c r="C104" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D104" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E104" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3715,16 +3736,16 @@
         <v>6</v>
       </c>
       <c r="C105" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="D105" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="E105" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3735,16 +3756,16 @@
         <v>6</v>
       </c>
       <c r="C106" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D106" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E106" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3755,16 +3776,16 @@
         <v>6</v>
       </c>
       <c r="C107" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D107" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E107" t="s">
-        <v>382</v>
-      </c>
-      <c r="F107" t="s">
-        <v>16</v>
+        <v>376</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3775,16 +3796,16 @@
         <v>6</v>
       </c>
       <c r="C108" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D108" t="s">
         <v>8</v>
       </c>
       <c r="E108" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3795,16 +3816,16 @@
         <v>6</v>
       </c>
       <c r="C109" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D109" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="E109" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -3815,16 +3836,16 @@
         <v>6</v>
       </c>
       <c r="C110" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D110" t="s">
-        <v>391</v>
+        <v>51</v>
       </c>
       <c r="E110" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3835,16 +3856,16 @@
         <v>6</v>
       </c>
       <c r="C111" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="D111" t="s">
-        <v>331</v>
+        <v>389</v>
       </c>
       <c r="E111" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -3855,16 +3876,16 @@
         <v>6</v>
       </c>
       <c r="C112" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="D112" t="s">
-        <v>398</v>
+        <v>322</v>
       </c>
       <c r="E112" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3875,16 +3896,16 @@
         <v>6</v>
       </c>
       <c r="C113" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="D113" t="s">
-        <v>284</v>
+        <v>396</v>
       </c>
       <c r="E113" t="s">
-        <v>402</v>
-      </c>
-      <c r="F113" t="s">
-        <v>16</v>
+        <v>397</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3895,16 +3916,16 @@
         <v>6</v>
       </c>
       <c r="C114" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D114" t="s">
-        <v>335</v>
+        <v>101</v>
       </c>
       <c r="E114" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3915,16 +3936,96 @@
         <v>6</v>
       </c>
       <c r="C115" t="s">
+        <v>402</v>
+      </c>
+      <c r="D115" t="s">
+        <v>326</v>
+      </c>
+      <c r="E115" t="s">
+        <v>403</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>6</v>
+      </c>
+      <c r="C116" t="s">
+        <v>405</v>
+      </c>
+      <c r="D116" t="s">
+        <v>40</v>
+      </c>
+      <c r="E116" t="s">
+        <v>41</v>
+      </c>
+      <c r="F116" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>6</v>
+      </c>
+      <c r="C117" t="s">
         <v>406</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D117" t="s">
         <v>40</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E117" t="s">
         <v>407</v>
       </c>
-      <c r="F115" t="s">
-        <v>16</v>
+      <c r="F117" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>6</v>
+      </c>
+      <c r="C118" t="s">
+        <v>409</v>
+      </c>
+      <c r="D118" t="s">
+        <v>43</v>
+      </c>
+      <c r="E118" t="s">
+        <v>410</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>6</v>
+      </c>
+      <c r="C119" t="s">
+        <v>412</v>
+      </c>
+      <c r="D119" t="s">
+        <v>40</v>
+      </c>
+      <c r="E119" t="s">
+        <v>413</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -3937,103 +4038,106 @@
     <hyperlink ref="F7" r:id="rId6" tooltip="Click to view image"/>
     <hyperlink ref="F8" r:id="rId7" tooltip="Click to view image"/>
     <hyperlink ref="F9" r:id="rId8" tooltip="Click to view image"/>
-    <hyperlink ref="F10" r:id="rId9" tooltip="Click to view image"/>
-    <hyperlink ref="F11" r:id="rId10" tooltip="Click to view image"/>
-    <hyperlink ref="F12" r:id="rId11" tooltip="Click to view image"/>
-    <hyperlink ref="F13" r:id="rId12" tooltip="Click to view image"/>
-    <hyperlink ref="F14" r:id="rId13" tooltip="Click to view image"/>
-    <hyperlink ref="F16" r:id="rId14" tooltip="Click to view image"/>
-    <hyperlink ref="F17" r:id="rId15" tooltip="Click to view image"/>
-    <hyperlink ref="F18" r:id="rId16" tooltip="Click to view image"/>
-    <hyperlink ref="F19" r:id="rId17" tooltip="Click to view image"/>
-    <hyperlink ref="F20" r:id="rId18" tooltip="Click to view image"/>
-    <hyperlink ref="F21" r:id="rId19" tooltip="Click to view image"/>
-    <hyperlink ref="F22" r:id="rId20" tooltip="Click to view image"/>
-    <hyperlink ref="F23" r:id="rId21" tooltip="Click to view image"/>
-    <hyperlink ref="F24" r:id="rId22" tooltip="Click to view image"/>
-    <hyperlink ref="F25" r:id="rId23" tooltip="Click to view image"/>
-    <hyperlink ref="F26" r:id="rId24" tooltip="Click to view image"/>
-    <hyperlink ref="F27" r:id="rId25" tooltip="Click to view image"/>
-    <hyperlink ref="F28" r:id="rId26" tooltip="Click to view image"/>
+    <hyperlink ref="F11" r:id="rId9" tooltip="Click to view image"/>
+    <hyperlink ref="F12" r:id="rId10" tooltip="Click to view image"/>
+    <hyperlink ref="F13" r:id="rId11" tooltip="Click to view image"/>
+    <hyperlink ref="F14" r:id="rId12" tooltip="Click to view image"/>
+    <hyperlink ref="F15" r:id="rId13" tooltip="Click to view image"/>
+    <hyperlink ref="F17" r:id="rId14" tooltip="Click to view image"/>
+    <hyperlink ref="F18" r:id="rId15" tooltip="Click to view image"/>
+    <hyperlink ref="F19" r:id="rId16" tooltip="Click to view image"/>
+    <hyperlink ref="F20" r:id="rId17" tooltip="Click to view image"/>
+    <hyperlink ref="F21" r:id="rId18" tooltip="Click to view image"/>
+    <hyperlink ref="F22" r:id="rId19" tooltip="Click to view image"/>
+    <hyperlink ref="F23" r:id="rId20" tooltip="Click to view image"/>
+    <hyperlink ref="F24" r:id="rId21" tooltip="Click to view image"/>
+    <hyperlink ref="F25" r:id="rId22" tooltip="Click to view image"/>
+    <hyperlink ref="F26" r:id="rId23" tooltip="Click to view image"/>
+    <hyperlink ref="F27" r:id="rId24" tooltip="Click to view image"/>
+    <hyperlink ref="F28" r:id="rId25" tooltip="Click to view image"/>
+    <hyperlink ref="F29" r:id="rId26" tooltip="Click to view image"/>
     <hyperlink ref="F30" r:id="rId27" tooltip="Click to view image"/>
     <hyperlink ref="F31" r:id="rId28" tooltip="Click to view image"/>
     <hyperlink ref="F32" r:id="rId29" tooltip="Click to view image"/>
     <hyperlink ref="F33" r:id="rId30" tooltip="Click to view image"/>
     <hyperlink ref="F34" r:id="rId31" tooltip="Click to view image"/>
-    <hyperlink ref="F35" r:id="rId32" tooltip="Click to view image"/>
-    <hyperlink ref="F36" r:id="rId33" tooltip="Click to view image"/>
-    <hyperlink ref="F37" r:id="rId34" tooltip="Click to view image"/>
-    <hyperlink ref="F38" r:id="rId35" tooltip="Click to view image"/>
-    <hyperlink ref="F39" r:id="rId36" tooltip="Click to view image"/>
-    <hyperlink ref="F40" r:id="rId37" tooltip="Click to view image"/>
-    <hyperlink ref="F41" r:id="rId38" tooltip="Click to view image"/>
-    <hyperlink ref="F42" r:id="rId39" tooltip="Click to view image"/>
-    <hyperlink ref="F43" r:id="rId40" tooltip="Click to view image"/>
-    <hyperlink ref="F44" r:id="rId41" tooltip="Click to view image"/>
-    <hyperlink ref="F45" r:id="rId42" tooltip="Click to view image"/>
-    <hyperlink ref="F46" r:id="rId43" tooltip="Click to view image"/>
-    <hyperlink ref="F47" r:id="rId44" tooltip="Click to view image"/>
-    <hyperlink ref="F48" r:id="rId45" tooltip="Click to view image"/>
-    <hyperlink ref="F49" r:id="rId46" tooltip="Click to view image"/>
-    <hyperlink ref="F50" r:id="rId47" tooltip="Click to view image"/>
-    <hyperlink ref="F51" r:id="rId48" tooltip="Click to view image"/>
-    <hyperlink ref="F52" r:id="rId49" tooltip="Click to view image"/>
-    <hyperlink ref="F53" r:id="rId50" tooltip="Click to view image"/>
-    <hyperlink ref="F55" r:id="rId51" tooltip="Click to view image"/>
-    <hyperlink ref="F56" r:id="rId52" tooltip="Click to view image"/>
-    <hyperlink ref="F57" r:id="rId53" tooltip="Click to view image"/>
-    <hyperlink ref="F58" r:id="rId54" tooltip="Click to view image"/>
-    <hyperlink ref="F60" r:id="rId55" tooltip="Click to view image"/>
-    <hyperlink ref="F61" r:id="rId56" tooltip="Click to view image"/>
-    <hyperlink ref="F62" r:id="rId57" tooltip="Click to view image"/>
-    <hyperlink ref="F63" r:id="rId58" tooltip="Click to view image"/>
-    <hyperlink ref="F64" r:id="rId59" tooltip="Click to view image"/>
-    <hyperlink ref="F65" r:id="rId60" tooltip="Click to view image"/>
-    <hyperlink ref="F66" r:id="rId61" tooltip="Click to view image"/>
-    <hyperlink ref="F67" r:id="rId62" tooltip="Click to view image"/>
-    <hyperlink ref="F68" r:id="rId63" tooltip="Click to view image"/>
-    <hyperlink ref="F69" r:id="rId64" tooltip="Click to view image"/>
-    <hyperlink ref="F70" r:id="rId65" tooltip="Click to view image"/>
-    <hyperlink ref="F71" r:id="rId66" tooltip="Click to view image"/>
-    <hyperlink ref="F72" r:id="rId67" tooltip="Click to view image"/>
-    <hyperlink ref="F73" r:id="rId68" tooltip="Click to view image"/>
-    <hyperlink ref="F74" r:id="rId69" tooltip="Click to view image"/>
-    <hyperlink ref="F75" r:id="rId70" tooltip="Click to view image"/>
-    <hyperlink ref="F76" r:id="rId71" tooltip="Click to view image"/>
-    <hyperlink ref="F78" r:id="rId72" tooltip="Click to view image"/>
-    <hyperlink ref="F79" r:id="rId73" tooltip="Click to view image"/>
-    <hyperlink ref="F80" r:id="rId74" tooltip="Click to view image"/>
-    <hyperlink ref="F81" r:id="rId75" tooltip="Click to view image"/>
-    <hyperlink ref="F82" r:id="rId76" tooltip="Click to view image"/>
-    <hyperlink ref="F83" r:id="rId77" tooltip="Click to view image"/>
-    <hyperlink ref="F84" r:id="rId78" tooltip="Click to view image"/>
-    <hyperlink ref="F85" r:id="rId79" tooltip="Click to view image"/>
-    <hyperlink ref="F86" r:id="rId80" tooltip="Click to view image"/>
-    <hyperlink ref="F87" r:id="rId81" tooltip="Click to view image"/>
-    <hyperlink ref="F88" r:id="rId82" tooltip="Click to view image"/>
-    <hyperlink ref="F89" r:id="rId83" tooltip="Click to view image"/>
-    <hyperlink ref="F90" r:id="rId84" tooltip="Click to view image"/>
-    <hyperlink ref="F91" r:id="rId85" tooltip="Click to view image"/>
-    <hyperlink ref="F92" r:id="rId86" tooltip="Click to view image"/>
-    <hyperlink ref="F93" r:id="rId87" tooltip="Click to view image"/>
-    <hyperlink ref="F95" r:id="rId88" tooltip="Click to view image"/>
-    <hyperlink ref="F96" r:id="rId89" tooltip="Click to view image"/>
-    <hyperlink ref="F97" r:id="rId90" tooltip="Click to view image"/>
-    <hyperlink ref="F98" r:id="rId91" tooltip="Click to view image"/>
-    <hyperlink ref="F99" r:id="rId92" tooltip="Click to view image"/>
-    <hyperlink ref="F100" r:id="rId93" tooltip="Click to view image"/>
-    <hyperlink ref="F101" r:id="rId94" tooltip="Click to view image"/>
-    <hyperlink ref="F102" r:id="rId95" tooltip="Click to view image"/>
-    <hyperlink ref="F103" r:id="rId96" tooltip="Click to view image"/>
-    <hyperlink ref="F104" r:id="rId97" tooltip="Click to view image"/>
-    <hyperlink ref="F105" r:id="rId98" tooltip="Click to view image"/>
-    <hyperlink ref="F106" r:id="rId99" tooltip="Click to view image"/>
-    <hyperlink ref="F108" r:id="rId100" tooltip="Click to view image"/>
-    <hyperlink ref="F109" r:id="rId101" tooltip="Click to view image"/>
-    <hyperlink ref="F110" r:id="rId102" tooltip="Click to view image"/>
-    <hyperlink ref="F111" r:id="rId103" tooltip="Click to view image"/>
-    <hyperlink ref="F112" r:id="rId104" tooltip="Click to view image"/>
-    <hyperlink ref="F114" r:id="rId105" tooltip="Click to view image"/>
+    <hyperlink ref="F36" r:id="rId32" tooltip="Click to view image"/>
+    <hyperlink ref="F37" r:id="rId33" tooltip="Click to view image"/>
+    <hyperlink ref="F39" r:id="rId34" tooltip="Click to view image"/>
+    <hyperlink ref="F40" r:id="rId35" tooltip="Click to view image"/>
+    <hyperlink ref="F42" r:id="rId36" tooltip="Click to view image"/>
+    <hyperlink ref="F44" r:id="rId37" tooltip="Click to view image"/>
+    <hyperlink ref="F45" r:id="rId38" tooltip="Click to view image"/>
+    <hyperlink ref="F46" r:id="rId39" tooltip="Click to view image"/>
+    <hyperlink ref="F47" r:id="rId40" tooltip="Click to view image"/>
+    <hyperlink ref="F48" r:id="rId41" tooltip="Click to view image"/>
+    <hyperlink ref="F49" r:id="rId42" tooltip="Click to view image"/>
+    <hyperlink ref="F51" r:id="rId43" tooltip="Click to view image"/>
+    <hyperlink ref="F52" r:id="rId44" tooltip="Click to view image"/>
+    <hyperlink ref="F53" r:id="rId45" tooltip="Click to view image"/>
+    <hyperlink ref="F54" r:id="rId46" tooltip="Click to view image"/>
+    <hyperlink ref="F55" r:id="rId47" tooltip="Click to view image"/>
+    <hyperlink ref="F56" r:id="rId48" tooltip="Click to view image"/>
+    <hyperlink ref="F57" r:id="rId49" tooltip="Click to view image"/>
+    <hyperlink ref="F58" r:id="rId50" tooltip="Click to view image"/>
+    <hyperlink ref="F59" r:id="rId51" tooltip="Click to view image"/>
+    <hyperlink ref="F60" r:id="rId52" tooltip="Click to view image"/>
+    <hyperlink ref="F62" r:id="rId53" tooltip="Click to view image"/>
+    <hyperlink ref="F63" r:id="rId54" tooltip="Click to view image"/>
+    <hyperlink ref="F64" r:id="rId55" tooltip="Click to view image"/>
+    <hyperlink ref="F65" r:id="rId56" tooltip="Click to view image"/>
+    <hyperlink ref="F66" r:id="rId57" tooltip="Click to view image"/>
+    <hyperlink ref="F67" r:id="rId58" tooltip="Click to view image"/>
+    <hyperlink ref="F68" r:id="rId59" tooltip="Click to view image"/>
+    <hyperlink ref="F69" r:id="rId60" tooltip="Click to view image"/>
+    <hyperlink ref="F70" r:id="rId61" tooltip="Click to view image"/>
+    <hyperlink ref="F71" r:id="rId62" tooltip="Click to view image"/>
+    <hyperlink ref="F72" r:id="rId63" tooltip="Click to view image"/>
+    <hyperlink ref="F73" r:id="rId64" tooltip="Click to view image"/>
+    <hyperlink ref="F74" r:id="rId65" tooltip="Click to view image"/>
+    <hyperlink ref="F75" r:id="rId66" tooltip="Click to view image"/>
+    <hyperlink ref="F76" r:id="rId67" tooltip="Click to view image"/>
+    <hyperlink ref="F77" r:id="rId68" tooltip="Click to view image"/>
+    <hyperlink ref="F78" r:id="rId69" tooltip="Click to view image"/>
+    <hyperlink ref="F79" r:id="rId70" tooltip="Click to view image"/>
+    <hyperlink ref="F80" r:id="rId71" tooltip="Click to view image"/>
+    <hyperlink ref="F81" r:id="rId72" tooltip="Click to view image"/>
+    <hyperlink ref="F82" r:id="rId73" tooltip="Click to view image"/>
+    <hyperlink ref="F83" r:id="rId74" tooltip="Click to view image"/>
+    <hyperlink ref="F84" r:id="rId75" tooltip="Click to view image"/>
+    <hyperlink ref="F85" r:id="rId76" tooltip="Click to view image"/>
+    <hyperlink ref="F86" r:id="rId77" tooltip="Click to view image"/>
+    <hyperlink ref="F87" r:id="rId78" tooltip="Click to view image"/>
+    <hyperlink ref="F88" r:id="rId79" tooltip="Click to view image"/>
+    <hyperlink ref="F89" r:id="rId80" tooltip="Click to view image"/>
+    <hyperlink ref="F90" r:id="rId81" tooltip="Click to view image"/>
+    <hyperlink ref="F91" r:id="rId82" tooltip="Click to view image"/>
+    <hyperlink ref="F92" r:id="rId83" tooltip="Click to view image"/>
+    <hyperlink ref="F93" r:id="rId84" tooltip="Click to view image"/>
+    <hyperlink ref="F94" r:id="rId85" tooltip="Click to view image"/>
+    <hyperlink ref="F95" r:id="rId86" tooltip="Click to view image"/>
+    <hyperlink ref="F96" r:id="rId87" tooltip="Click to view image"/>
+    <hyperlink ref="F97" r:id="rId88" tooltip="Click to view image"/>
+    <hyperlink ref="F99" r:id="rId89" tooltip="Click to view image"/>
+    <hyperlink ref="F100" r:id="rId90" tooltip="Click to view image"/>
+    <hyperlink ref="F101" r:id="rId91" tooltip="Click to view image"/>
+    <hyperlink ref="F102" r:id="rId92" tooltip="Click to view image"/>
+    <hyperlink ref="F103" r:id="rId93" tooltip="Click to view image"/>
+    <hyperlink ref="F104" r:id="rId94" tooltip="Click to view image"/>
+    <hyperlink ref="F105" r:id="rId95" tooltip="Click to view image"/>
+    <hyperlink ref="F106" r:id="rId96" tooltip="Click to view image"/>
+    <hyperlink ref="F107" r:id="rId97" tooltip="Click to view image"/>
+    <hyperlink ref="F108" r:id="rId98" tooltip="Click to view image"/>
+    <hyperlink ref="F109" r:id="rId99" tooltip="Click to view image"/>
+    <hyperlink ref="F110" r:id="rId100" tooltip="Click to view image"/>
+    <hyperlink ref="F111" r:id="rId101" tooltip="Click to view image"/>
+    <hyperlink ref="F112" r:id="rId102" tooltip="Click to view image"/>
+    <hyperlink ref="F113" r:id="rId103" tooltip="Click to view image"/>
+    <hyperlink ref="F114" r:id="rId104" tooltip="Click to view image"/>
+    <hyperlink ref="F115" r:id="rId105" tooltip="Click to view image"/>
+    <hyperlink ref="F117" r:id="rId106" tooltip="Click to view image"/>
+    <hyperlink ref="F118" r:id="rId107" tooltip="Click to view image"/>
+    <hyperlink ref="F119" r:id="rId108" tooltip="Click to view image"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
